--- a/template-1.xlsx
+++ b/template-1.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>ОТЧЕТ ОБ ИНСПЕКЦИИ ОБЪЕКТА ОСМОТРА</t>
   </si>
   <si>
-    <t xml:space="preserve">%taskCode% от %reportBuildDate% г.                    </t>
+    <t xml:space="preserve">{{taskCode}} от {{reportBuildDate}} г.                    </t>
   </si>
   <si>
     <t>Общая информация</t>
@@ -25,13 +25,13 @@
     <t>Наименование инспекции</t>
   </si>
   <si>
-    <t>%taskName%</t>
+    <t>{{taskName}}</t>
   </si>
   <si>
     <t>Описание инспекции</t>
   </si>
   <si>
-    <t>%taskDescription%</t>
+    <t>{{taskDescription}}</t>
   </si>
   <si>
     <t>Основание для проведения инспекции объекта осмотра:</t>
@@ -61,25 +61,25 @@
     <t>ФИО Инспектора:</t>
   </si>
   <si>
-    <t>%taskTechnicFio%</t>
+    <t>{{taskTechnicFio}}</t>
   </si>
   <si>
     <t>Дата проведения инспекции объекта осмотра:</t>
   </si>
   <si>
-    <t>%taskDateComplete%</t>
+    <t>{{taskDateComplete}}</t>
   </si>
   <si>
     <t>Срок проведения инспекции объекта осмотра:</t>
   </si>
   <si>
-    <t>С %taskDateStart% г. По %taskDateEnd% г.</t>
+    <t>С {{taskDateStart}} г. По {{taskDateEnd}} г.</t>
   </si>
   <si>
     <t>Дата составления Отчета об инспекции объекта осмотра:</t>
   </si>
   <si>
-    <t xml:space="preserve">%reportBuildDate% г. </t>
+    <t xml:space="preserve">{{reportBuildDate}} г. </t>
   </si>
   <si>
     <t>Объект Осмотра</t>
@@ -88,58 +88,40 @@
     <t>Код объекта:</t>
   </si>
   <si>
-    <t>%objectCode%</t>
+    <t>{{objectCode}}</t>
   </si>
   <si>
     <t>Наименование объекта:</t>
   </si>
   <si>
-    <t>%objectName%</t>
+    <t>{{objectName}}</t>
   </si>
   <si>
     <t>Результаты инспекции</t>
   </si>
   <si>
-    <t>%results:begin%</t>
+    <t>[[result|repeat-rows:25:27]]{{text}}</t>
   </si>
   <si>
-    <t>%results.text%</t>
+    <t>{{answerText}}</t>
   </si>
   <si>
-    <t>%results.answerText%</t>
+    <t>{{measuringName}} : {{measuringResult}}</t>
   </si>
   <si>
-    <t>$Наименование замера : $Результат_Замера</t>
-  </si>
-  <si>
-    <t>%results.comment%</t>
-  </si>
-  <si>
-    <t>%results:end%</t>
+    <t>{{comment}}</t>
   </si>
   <si>
     <t>Фото инспекции</t>
   </si>
   <si>
-    <t>$REPEAT_LINES_START</t>
+    <t>[[steps|repeat-rows:31:33]]{{stepText}}</t>
   </si>
   <si>
-    <t>$Текст_Шага_Инспекции</t>
+    <t>[[media|block:A32:A33|tile:2]]{{fileName|image}}</t>
   </si>
   <si>
-    <t>$REPEAT_VERTICAL_BLOCK_START(2)</t>
-  </si>
-  <si>
-    <t>$ФОТО_Шага</t>
-  </si>
-  <si>
-    <t>Дата: $Дата_съемки, GPS: $Геопозиция</t>
-  </si>
-  <si>
-    <t>$REPEAT_VERTICAL_BLOCK_FINISH(2)</t>
-  </si>
-  <si>
-    <t>$REPEAT_LINES_FINISH</t>
+    <t>Дата: {{created|date}}, GPS: {{gpsPos}}</t>
   </si>
   <si>
     <t>Приемная комиссия</t>
@@ -407,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -417,11 +399,8 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -430,17 +409,17 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -449,49 +428,37 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="8" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="12" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -500,9 +467,12 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -533,11 +503,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.57"/>
-    <col customWidth="1" min="2" max="2" width="52.0"/>
-    <col customWidth="1" min="3" max="3" width="49.86"/>
-    <col customWidth="1" min="4" max="13" width="8.57"/>
-    <col customWidth="1" min="14" max="27" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="52.0"/>
+    <col customWidth="1" min="2" max="2" width="49.86"/>
+    <col customWidth="1" min="3" max="12" width="8.57"/>
+    <col customWidth="1" min="13" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -567,13 +536,12 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -597,14 +565,13 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
     </row>
     <row r="3" ht="21.75" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -628,12 +595,11 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -657,13 +623,12 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -687,12 +652,11 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
     </row>
     <row r="6" ht="9.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -716,16 +680,15 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
     </row>
     <row r="7" ht="18.0" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -749,16 +712,15 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-    </row>
-    <row r="8" ht="18.0" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11" t="s">
+    </row>
+    <row r="8" ht="32.25" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -782,16 +744,15 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -815,16 +776,15 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
     </row>
     <row r="10" ht="48.75" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -848,16 +808,15 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -881,16 +840,15 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
     </row>
     <row r="12" ht="30.0" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -914,16 +872,15 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
     </row>
     <row r="13" ht="26.25" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -947,16 +904,15 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
     </row>
     <row r="14" ht="30.75" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -980,16 +936,15 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
     </row>
     <row r="15" ht="31.5" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1013,16 +968,15 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
     </row>
     <row r="16" ht="29.25" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>22</v>
       </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1046,11 +1000,10 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1074,13 +1027,12 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1104,12 +1056,11 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
     </row>
     <row r="19" ht="10.5" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1133,26 +1084,25 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1166,26 +1116,25 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="17"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1199,12 +1148,11 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1228,13 +1176,12 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1258,9 +1205,8 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-    </row>
-    <row r="24" ht="11.25" customHeight="1">
+    </row>
+    <row r="24" ht="6.0" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1287,12 +1233,13 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="18" t="s">
         <v>29</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1318,16 +1265,13 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="18"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="20" t="s">
         <v>31</v>
       </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1351,14 +1295,13 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="20" t="s">
+    </row>
+    <row r="27" ht="33.0" customHeight="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="19" t="s">
         <v>32</v>
       </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1382,14 +1325,11 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-    </row>
-    <row r="28" ht="33.0" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="20" t="s">
-        <v>33</v>
-      </c>
+    </row>
+    <row r="28" ht="5.25" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1413,14 +1353,12 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>34</v>
+      <c r="A29" s="6" t="s">
+        <v>33</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1444,9 +1382,8 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-    </row>
-    <row r="30" ht="5.25" customHeight="1">
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1473,13 +1410,13 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7" t="s">
-        <v>35</v>
+      <c r="A31" s="22" t="s">
+        <v>34</v>
       </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1503,10 +1440,11 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="1"/>
+    </row>
+    <row r="32" ht="87.0" customHeight="1">
+      <c r="A32" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1532,13 +1470,12 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="25" t="s">
         <v>36</v>
       </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1563,14 +1500,11 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="26"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1594,13 +1528,10 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1625,12 +1556,10 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="27" t="s">
-        <v>39</v>
+      <c r="A36" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1656,13 +1585,10 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29" t="s">
-        <v>40</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1687,12 +1613,13 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
-        <v>41</v>
+      <c r="A38" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1718,13 +1645,12 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
-        <v>42</v>
+      <c r="A39" s="28" t="s">
+        <v>16</v>
       </c>
+      <c r="B39" s="29"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1749,11 +1675,10 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1778,11 +1703,10 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1807,13 +1731,11 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="A42" s="30"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1837,11 +1759,10 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1866,16 +1787,11 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="30"/>
-      <c r="B44" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>45</v>
-      </c>
+      <c r="A44" s="31"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1899,14 +1815,11 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="34"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1930,12 +1843,11 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="34"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1959,12 +1871,11 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="34"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1988,12 +1899,11 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2017,12 +1927,11 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="34"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2046,12 +1955,11 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="36"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2075,7 +1983,6 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="1"/>
@@ -2104,7 +2011,6 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="1"/>
@@ -2133,7 +2039,6 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="1"/>
@@ -2162,7 +2067,6 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="1"/>
@@ -2191,7 +2095,6 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="1"/>
@@ -2220,7 +2123,6 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="1"/>
@@ -2249,7 +2151,6 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="1"/>
@@ -2278,7 +2179,6 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="1"/>
@@ -2307,7 +2207,6 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="1"/>
@@ -2336,7 +2235,6 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="1"/>
@@ -2365,7 +2263,6 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="1"/>
@@ -2394,7 +2291,6 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="1"/>
@@ -2423,7 +2319,6 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="1"/>
@@ -2452,7 +2347,6 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="1"/>
@@ -2481,7 +2375,6 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
-      <c r="AA64" s="1"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="1"/>
@@ -2510,7 +2403,6 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="1"/>
@@ -2539,7 +2431,6 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="1"/>
@@ -2568,7 +2459,6 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="1"/>
@@ -2597,7 +2487,6 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="1"/>
@@ -2626,7 +2515,6 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="1"/>
@@ -2655,7 +2543,6 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="1"/>
@@ -2684,7 +2571,6 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="1"/>
@@ -2713,7 +2599,6 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="1"/>
@@ -2742,7 +2627,6 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="1"/>
@@ -2771,7 +2655,6 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="1"/>
@@ -2800,7 +2683,6 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-      <c r="AA75" s="1"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="1"/>
@@ -2829,7 +2711,6 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AA76" s="1"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="1"/>
@@ -2858,7 +2739,6 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-      <c r="AA77" s="1"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="1"/>
@@ -2887,7 +2767,6 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="1"/>
@@ -2916,7 +2795,6 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-      <c r="AA79" s="1"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="1"/>
@@ -2945,7 +2823,6 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
-      <c r="AA80" s="1"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="1"/>
@@ -2974,7 +2851,6 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
-      <c r="AA81" s="1"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="1"/>
@@ -3003,7 +2879,6 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
-      <c r="AA82" s="1"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="1"/>
@@ -3032,7 +2907,6 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
-      <c r="AA83" s="1"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="1"/>
@@ -3061,7 +2935,6 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
-      <c r="AA84" s="1"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="1"/>
@@ -3090,7 +2963,6 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
-      <c r="AA85" s="1"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="1"/>
@@ -3119,7 +2991,6 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
-      <c r="AA86" s="1"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="1"/>
@@ -3148,7 +3019,6 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
-      <c r="AA87" s="1"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="1"/>
@@ -3177,7 +3047,6 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
-      <c r="AA88" s="1"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="1"/>
@@ -3206,7 +3075,6 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
-      <c r="AA89" s="1"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="1"/>
@@ -3235,7 +3103,6 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
-      <c r="AA90" s="1"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="1"/>
@@ -3264,7 +3131,6 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
-      <c r="AA91" s="1"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="1"/>
@@ -3293,7 +3159,6 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
-      <c r="AA92" s="1"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="1"/>
@@ -3322,7 +3187,6 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
-      <c r="AA93" s="1"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="1"/>
@@ -3351,7 +3215,6 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
-      <c r="AA94" s="1"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="1"/>
@@ -3380,7 +3243,6 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
-      <c r="AA95" s="1"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="1"/>
@@ -3409,7 +3271,6 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
-      <c r="AA96" s="1"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="1"/>
@@ -3438,7 +3299,6 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
-      <c r="AA97" s="1"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="1"/>
@@ -3467,7 +3327,6 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
-      <c r="AA98" s="1"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
       <c r="A99" s="1"/>
@@ -3496,7 +3355,6 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
-      <c r="AA99" s="1"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="1"/>
@@ -3525,7 +3383,6 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
-      <c r="AA100" s="1"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="1"/>
@@ -3554,7 +3411,6 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
-      <c r="AA101" s="1"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="1"/>
@@ -3583,7 +3439,6 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
-      <c r="AA102" s="1"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="1"/>
@@ -3612,7 +3467,6 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
-      <c r="AA103" s="1"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="1"/>
@@ -3641,7 +3495,6 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
-      <c r="AA104" s="1"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="1"/>
@@ -3670,7 +3523,6 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
-      <c r="AA105" s="1"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="1"/>
@@ -3699,7 +3551,6 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
-      <c r="AA106" s="1"/>
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="1"/>
@@ -3728,7 +3579,6 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
-      <c r="AA107" s="1"/>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="1"/>
@@ -3757,7 +3607,6 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
-      <c r="AA108" s="1"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="1"/>
@@ -3786,7 +3635,6 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
-      <c r="AA109" s="1"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="1"/>
@@ -3815,7 +3663,6 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
-      <c r="AA110" s="1"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="1"/>
@@ -3844,7 +3691,6 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
-      <c r="AA111" s="1"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="1"/>
@@ -3873,7 +3719,6 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
-      <c r="AA112" s="1"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="1"/>
@@ -3902,7 +3747,6 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
-      <c r="AA113" s="1"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="1"/>
@@ -3931,7 +3775,6 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
-      <c r="AA114" s="1"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="1"/>
@@ -3960,7 +3803,6 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
-      <c r="AA115" s="1"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="1"/>
@@ -3989,7 +3831,6 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
-      <c r="AA116" s="1"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="1"/>
@@ -4018,7 +3859,6 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
-      <c r="AA117" s="1"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="1"/>
@@ -4047,7 +3887,6 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
-      <c r="AA118" s="1"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="1"/>
@@ -4076,7 +3915,6 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
-      <c r="AA119" s="1"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
       <c r="A120" s="1"/>
@@ -4105,7 +3943,6 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
-      <c r="AA120" s="1"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="1"/>
@@ -4134,7 +3971,6 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
-      <c r="AA121" s="1"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="1"/>
@@ -4163,7 +3999,6 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
-      <c r="AA122" s="1"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="1"/>
@@ -4192,7 +4027,6 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
-      <c r="AA123" s="1"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="1"/>
@@ -4221,7 +4055,6 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
-      <c r="AA124" s="1"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="1"/>
@@ -4250,7 +4083,6 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
-      <c r="AA125" s="1"/>
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="1"/>
@@ -4279,7 +4111,6 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
-      <c r="AA126" s="1"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="1"/>
@@ -4308,7 +4139,6 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
-      <c r="AA127" s="1"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="1"/>
@@ -4337,7 +4167,6 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
-      <c r="AA128" s="1"/>
     </row>
     <row r="129" ht="12.75" customHeight="1">
       <c r="A129" s="1"/>
@@ -4366,7 +4195,6 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
-      <c r="AA129" s="1"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
       <c r="A130" s="1"/>
@@ -4395,7 +4223,6 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
-      <c r="AA130" s="1"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
       <c r="A131" s="1"/>
@@ -4424,7 +4251,6 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
-      <c r="AA131" s="1"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
       <c r="A132" s="1"/>
@@ -4453,7 +4279,6 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
-      <c r="AA132" s="1"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
       <c r="A133" s="1"/>
@@ -4482,7 +4307,6 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
-      <c r="AA133" s="1"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="1"/>
@@ -4511,7 +4335,6 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
-      <c r="AA134" s="1"/>
     </row>
     <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="1"/>
@@ -4540,7 +4363,6 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
-      <c r="AA135" s="1"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
       <c r="A136" s="1"/>
@@ -4569,7 +4391,6 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
-      <c r="AA136" s="1"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
       <c r="A137" s="1"/>
@@ -4598,7 +4419,6 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
-      <c r="AA137" s="1"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
       <c r="A138" s="1"/>
@@ -4627,7 +4447,6 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
-      <c r="AA138" s="1"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="1"/>
@@ -4656,7 +4475,6 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
-      <c r="AA139" s="1"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="1"/>
@@ -4685,7 +4503,6 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
-      <c r="AA140" s="1"/>
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="1"/>
@@ -4714,7 +4531,6 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
-      <c r="AA141" s="1"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
       <c r="A142" s="1"/>
@@ -4743,7 +4559,6 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
-      <c r="AA142" s="1"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
       <c r="A143" s="1"/>
@@ -4772,7 +4587,6 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
-      <c r="AA143" s="1"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="1"/>
@@ -4801,7 +4615,6 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
-      <c r="AA144" s="1"/>
     </row>
     <row r="145" ht="12.75" customHeight="1">
       <c r="A145" s="1"/>
@@ -4830,7 +4643,6 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
-      <c r="AA145" s="1"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
       <c r="A146" s="1"/>
@@ -4859,7 +4671,6 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
-      <c r="AA146" s="1"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
       <c r="A147" s="1"/>
@@ -4888,7 +4699,6 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
-      <c r="AA147" s="1"/>
     </row>
     <row r="148" ht="12.75" customHeight="1">
       <c r="A148" s="1"/>
@@ -4917,7 +4727,6 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
-      <c r="AA148" s="1"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="1"/>
@@ -4946,7 +4755,6 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
-      <c r="AA149" s="1"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="1"/>
@@ -4975,7 +4783,6 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
-      <c r="AA150" s="1"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
       <c r="A151" s="1"/>
@@ -5004,7 +4811,6 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
-      <c r="AA151" s="1"/>
     </row>
     <row r="152" ht="12.75" customHeight="1">
       <c r="A152" s="1"/>
@@ -5033,7 +4839,6 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
-      <c r="AA152" s="1"/>
     </row>
     <row r="153" ht="12.75" customHeight="1">
       <c r="A153" s="1"/>
@@ -5062,7 +4867,6 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
-      <c r="AA153" s="1"/>
     </row>
     <row r="154" ht="12.75" customHeight="1">
       <c r="A154" s="1"/>
@@ -5091,7 +4895,6 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
-      <c r="AA154" s="1"/>
     </row>
     <row r="155" ht="12.75" customHeight="1">
       <c r="A155" s="1"/>
@@ -5120,7 +4923,6 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
-      <c r="AA155" s="1"/>
     </row>
     <row r="156" ht="12.75" customHeight="1">
       <c r="A156" s="1"/>
@@ -5149,7 +4951,6 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
-      <c r="AA156" s="1"/>
     </row>
     <row r="157" ht="12.75" customHeight="1">
       <c r="A157" s="1"/>
@@ -5178,7 +4979,6 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
-      <c r="AA157" s="1"/>
     </row>
     <row r="158" ht="12.75" customHeight="1">
       <c r="A158" s="1"/>
@@ -5207,7 +5007,6 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
-      <c r="AA158" s="1"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
       <c r="A159" s="1"/>
@@ -5236,7 +5035,6 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
-      <c r="AA159" s="1"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
       <c r="A160" s="1"/>
@@ -5265,7 +5063,6 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
-      <c r="AA160" s="1"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
       <c r="A161" s="1"/>
@@ -5294,7 +5091,6 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
-      <c r="AA161" s="1"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
       <c r="A162" s="1"/>
@@ -5323,7 +5119,6 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
-      <c r="AA162" s="1"/>
     </row>
     <row r="163" ht="12.75" customHeight="1">
       <c r="A163" s="1"/>
@@ -5352,7 +5147,6 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
-      <c r="AA163" s="1"/>
     </row>
     <row r="164" ht="12.75" customHeight="1">
       <c r="A164" s="1"/>
@@ -5381,7 +5175,6 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
-      <c r="AA164" s="1"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
       <c r="A165" s="1"/>
@@ -5410,7 +5203,6 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
-      <c r="AA165" s="1"/>
     </row>
     <row r="166" ht="12.75" customHeight="1">
       <c r="A166" s="1"/>
@@ -5439,7 +5231,6 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
-      <c r="AA166" s="1"/>
     </row>
     <row r="167" ht="12.75" customHeight="1">
       <c r="A167" s="1"/>
@@ -5468,7 +5259,6 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
-      <c r="AA167" s="1"/>
     </row>
     <row r="168" ht="12.75" customHeight="1">
       <c r="A168" s="1"/>
@@ -5497,7 +5287,6 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
-      <c r="AA168" s="1"/>
     </row>
     <row r="169" ht="12.75" customHeight="1">
       <c r="A169" s="1"/>
@@ -5526,7 +5315,6 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
-      <c r="AA169" s="1"/>
     </row>
     <row r="170" ht="12.75" customHeight="1">
       <c r="A170" s="1"/>
@@ -5555,7 +5343,6 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
-      <c r="AA170" s="1"/>
     </row>
     <row r="171" ht="12.75" customHeight="1">
       <c r="A171" s="1"/>
@@ -5584,7 +5371,6 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
-      <c r="AA171" s="1"/>
     </row>
     <row r="172" ht="12.75" customHeight="1">
       <c r="A172" s="1"/>
@@ -5613,7 +5399,6 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
-      <c r="AA172" s="1"/>
     </row>
     <row r="173" ht="12.75" customHeight="1">
       <c r="A173" s="1"/>
@@ -5642,7 +5427,6 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
-      <c r="AA173" s="1"/>
     </row>
     <row r="174" ht="12.75" customHeight="1">
       <c r="A174" s="1"/>
@@ -5671,7 +5455,6 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
-      <c r="AA174" s="1"/>
     </row>
     <row r="175" ht="12.75" customHeight="1">
       <c r="A175" s="1"/>
@@ -5700,7 +5483,6 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
-      <c r="AA175" s="1"/>
     </row>
     <row r="176" ht="12.75" customHeight="1">
       <c r="A176" s="1"/>
@@ -5729,7 +5511,6 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
-      <c r="AA176" s="1"/>
     </row>
     <row r="177" ht="12.75" customHeight="1">
       <c r="A177" s="1"/>
@@ -5758,7 +5539,6 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
-      <c r="AA177" s="1"/>
     </row>
     <row r="178" ht="12.75" customHeight="1">
       <c r="A178" s="1"/>
@@ -5787,7 +5567,6 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
-      <c r="AA178" s="1"/>
     </row>
     <row r="179" ht="12.75" customHeight="1">
       <c r="A179" s="1"/>
@@ -5816,7 +5595,6 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
-      <c r="AA179" s="1"/>
     </row>
     <row r="180" ht="12.75" customHeight="1">
       <c r="A180" s="1"/>
@@ -5845,7 +5623,6 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
-      <c r="AA180" s="1"/>
     </row>
     <row r="181" ht="12.75" customHeight="1">
       <c r="A181" s="1"/>
@@ -5874,7 +5651,6 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
-      <c r="AA181" s="1"/>
     </row>
     <row r="182" ht="12.75" customHeight="1">
       <c r="A182" s="1"/>
@@ -5903,7 +5679,6 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
-      <c r="AA182" s="1"/>
     </row>
     <row r="183" ht="12.75" customHeight="1">
       <c r="A183" s="1"/>
@@ -5932,7 +5707,6 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
-      <c r="AA183" s="1"/>
     </row>
     <row r="184" ht="12.75" customHeight="1">
       <c r="A184" s="1"/>
@@ -5961,7 +5735,6 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
-      <c r="AA184" s="1"/>
     </row>
     <row r="185" ht="12.75" customHeight="1">
       <c r="A185" s="1"/>
@@ -5990,7 +5763,6 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
-      <c r="AA185" s="1"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
       <c r="A186" s="1"/>
@@ -6019,7 +5791,6 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
-      <c r="AA186" s="1"/>
     </row>
     <row r="187" ht="12.75" customHeight="1">
       <c r="A187" s="1"/>
@@ -6048,7 +5819,6 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
-      <c r="AA187" s="1"/>
     </row>
     <row r="188" ht="12.75" customHeight="1">
       <c r="A188" s="1"/>
@@ -6077,7 +5847,6 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
-      <c r="AA188" s="1"/>
     </row>
     <row r="189" ht="12.75" customHeight="1">
       <c r="A189" s="1"/>
@@ -6106,7 +5875,6 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
-      <c r="AA189" s="1"/>
     </row>
     <row r="190" ht="12.75" customHeight="1">
       <c r="A190" s="1"/>
@@ -6135,7 +5903,6 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
-      <c r="AA190" s="1"/>
     </row>
     <row r="191" ht="12.75" customHeight="1">
       <c r="A191" s="1"/>
@@ -6164,7 +5931,6 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
-      <c r="AA191" s="1"/>
     </row>
     <row r="192" ht="12.75" customHeight="1">
       <c r="A192" s="1"/>
@@ -6193,7 +5959,6 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
-      <c r="AA192" s="1"/>
     </row>
     <row r="193" ht="12.75" customHeight="1">
       <c r="A193" s="1"/>
@@ -6222,7 +5987,6 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
-      <c r="AA193" s="1"/>
     </row>
     <row r="194" ht="12.75" customHeight="1">
       <c r="A194" s="1"/>
@@ -6251,7 +6015,6 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
-      <c r="AA194" s="1"/>
     </row>
     <row r="195" ht="12.75" customHeight="1">
       <c r="A195" s="1"/>
@@ -6280,7 +6043,6 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
-      <c r="AA195" s="1"/>
     </row>
     <row r="196" ht="12.75" customHeight="1">
       <c r="A196" s="1"/>
@@ -6309,7 +6071,6 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
-      <c r="AA196" s="1"/>
     </row>
     <row r="197" ht="12.75" customHeight="1">
       <c r="A197" s="1"/>
@@ -6338,7 +6099,6 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
-      <c r="AA197" s="1"/>
     </row>
     <row r="198" ht="12.75" customHeight="1">
       <c r="A198" s="1"/>
@@ -6367,7 +6127,6 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
-      <c r="AA198" s="1"/>
     </row>
     <row r="199" ht="12.75" customHeight="1">
       <c r="A199" s="1"/>
@@ -6396,7 +6155,6 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
-      <c r="AA199" s="1"/>
     </row>
     <row r="200" ht="12.75" customHeight="1">
       <c r="A200" s="1"/>
@@ -6425,7 +6183,6 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
-      <c r="AA200" s="1"/>
     </row>
     <row r="201" ht="12.75" customHeight="1">
       <c r="A201" s="1"/>
@@ -6454,7 +6211,6 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
-      <c r="AA201" s="1"/>
     </row>
     <row r="202" ht="12.75" customHeight="1">
       <c r="A202" s="1"/>
@@ -6483,7 +6239,6 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
-      <c r="AA202" s="1"/>
     </row>
     <row r="203" ht="12.75" customHeight="1">
       <c r="A203" s="1"/>
@@ -6512,7 +6267,6 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
-      <c r="AA203" s="1"/>
     </row>
     <row r="204" ht="12.75" customHeight="1">
       <c r="A204" s="1"/>
@@ -6541,7 +6295,6 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
-      <c r="AA204" s="1"/>
     </row>
     <row r="205" ht="12.75" customHeight="1">
       <c r="A205" s="1"/>
@@ -6570,7 +6323,6 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
-      <c r="AA205" s="1"/>
     </row>
     <row r="206" ht="12.75" customHeight="1">
       <c r="A206" s="1"/>
@@ -6599,7 +6351,6 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
-      <c r="AA206" s="1"/>
     </row>
     <row r="207" ht="12.75" customHeight="1">
       <c r="A207" s="1"/>
@@ -6628,7 +6379,6 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
-      <c r="AA207" s="1"/>
     </row>
     <row r="208" ht="12.75" customHeight="1">
       <c r="A208" s="1"/>
@@ -6657,7 +6407,6 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
-      <c r="AA208" s="1"/>
     </row>
     <row r="209" ht="12.75" customHeight="1">
       <c r="A209" s="1"/>
@@ -6686,7 +6435,6 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
-      <c r="AA209" s="1"/>
     </row>
     <row r="210" ht="12.75" customHeight="1">
       <c r="A210" s="1"/>
@@ -6715,7 +6463,6 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
-      <c r="AA210" s="1"/>
     </row>
     <row r="211" ht="12.75" customHeight="1">
       <c r="A211" s="1"/>
@@ -6744,7 +6491,6 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
-      <c r="AA211" s="1"/>
     </row>
     <row r="212" ht="12.75" customHeight="1">
       <c r="A212" s="1"/>
@@ -6773,7 +6519,6 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
-      <c r="AA212" s="1"/>
     </row>
     <row r="213" ht="12.75" customHeight="1">
       <c r="A213" s="1"/>
@@ -6802,7 +6547,6 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
-      <c r="AA213" s="1"/>
     </row>
     <row r="214" ht="12.75" customHeight="1">
       <c r="A214" s="1"/>
@@ -6831,7 +6575,6 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
-      <c r="AA214" s="1"/>
     </row>
     <row r="215" ht="12.75" customHeight="1">
       <c r="A215" s="1"/>
@@ -6860,7 +6603,6 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
-      <c r="AA215" s="1"/>
     </row>
     <row r="216" ht="12.75" customHeight="1">
       <c r="A216" s="1"/>
@@ -6889,7 +6631,6 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
-      <c r="AA216" s="1"/>
     </row>
     <row r="217" ht="12.75" customHeight="1">
       <c r="A217" s="1"/>
@@ -6918,7 +6659,6 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
-      <c r="AA217" s="1"/>
     </row>
     <row r="218" ht="12.75" customHeight="1">
       <c r="A218" s="1"/>
@@ -6947,7 +6687,6 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
-      <c r="AA218" s="1"/>
     </row>
     <row r="219" ht="12.75" customHeight="1">
       <c r="A219" s="1"/>
@@ -6976,7 +6715,6 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
-      <c r="AA219" s="1"/>
     </row>
     <row r="220" ht="12.75" customHeight="1">
       <c r="A220" s="1"/>
@@ -7005,7 +6743,6 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
-      <c r="AA220" s="1"/>
     </row>
     <row r="221" ht="12.75" customHeight="1">
       <c r="A221" s="1"/>
@@ -7034,7 +6771,6 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
-      <c r="AA221" s="1"/>
     </row>
     <row r="222" ht="12.75" customHeight="1">
       <c r="A222" s="1"/>
@@ -7063,7 +6799,6 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
-      <c r="AA222" s="1"/>
     </row>
     <row r="223" ht="12.75" customHeight="1">
       <c r="A223" s="1"/>
@@ -7092,7 +6827,6 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
-      <c r="AA223" s="1"/>
     </row>
     <row r="224" ht="12.75" customHeight="1">
       <c r="A224" s="1"/>
@@ -7121,7 +6855,6 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
-      <c r="AA224" s="1"/>
     </row>
     <row r="225" ht="12.75" customHeight="1">
       <c r="A225" s="1"/>
@@ -7150,7 +6883,6 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
-      <c r="AA225" s="1"/>
     </row>
     <row r="226" ht="12.75" customHeight="1">
       <c r="A226" s="1"/>
@@ -7179,7 +6911,6 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
-      <c r="AA226" s="1"/>
     </row>
     <row r="227" ht="12.75" customHeight="1">
       <c r="A227" s="1"/>
@@ -7208,7 +6939,6 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
-      <c r="AA227" s="1"/>
     </row>
     <row r="228" ht="12.75" customHeight="1">
       <c r="A228" s="1"/>
@@ -7237,7 +6967,6 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
-      <c r="AA228" s="1"/>
     </row>
     <row r="229" ht="12.75" customHeight="1">
       <c r="A229" s="1"/>
@@ -7266,7 +6995,6 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
-      <c r="AA229" s="1"/>
     </row>
     <row r="230" ht="12.75" customHeight="1">
       <c r="A230" s="1"/>
@@ -7295,7 +7023,6 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
-      <c r="AA230" s="1"/>
     </row>
     <row r="231" ht="12.75" customHeight="1">
       <c r="A231" s="1"/>
@@ -7324,7 +7051,6 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
-      <c r="AA231" s="1"/>
     </row>
     <row r="232" ht="12.75" customHeight="1">
       <c r="A232" s="1"/>
@@ -7353,7 +7079,6 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
-      <c r="AA232" s="1"/>
     </row>
     <row r="233" ht="12.75" customHeight="1">
       <c r="A233" s="1"/>
@@ -7382,7 +7107,6 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
-      <c r="AA233" s="1"/>
     </row>
     <row r="234" ht="12.75" customHeight="1">
       <c r="A234" s="1"/>
@@ -7411,7 +7135,6 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
-      <c r="AA234" s="1"/>
     </row>
     <row r="235" ht="12.75" customHeight="1">
       <c r="A235" s="1"/>
@@ -7440,7 +7163,6 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
-      <c r="AA235" s="1"/>
     </row>
     <row r="236" ht="12.75" customHeight="1">
       <c r="A236" s="1"/>
@@ -7469,7 +7191,6 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
-      <c r="AA236" s="1"/>
     </row>
     <row r="237" ht="12.75" customHeight="1">
       <c r="A237" s="1"/>
@@ -7498,7 +7219,6 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
-      <c r="AA237" s="1"/>
     </row>
     <row r="238" ht="12.75" customHeight="1">
       <c r="A238" s="1"/>
@@ -7527,7 +7247,6 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
-      <c r="AA238" s="1"/>
     </row>
     <row r="239" ht="12.75" customHeight="1">
       <c r="A239" s="1"/>
@@ -7556,7 +7275,6 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
-      <c r="AA239" s="1"/>
     </row>
     <row r="240" ht="12.75" customHeight="1">
       <c r="A240" s="1"/>
@@ -7585,7 +7303,6 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
-      <c r="AA240" s="1"/>
     </row>
     <row r="241" ht="12.75" customHeight="1">
       <c r="A241" s="1"/>
@@ -7614,7 +7331,6 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
-      <c r="AA241" s="1"/>
     </row>
     <row r="242" ht="12.75" customHeight="1">
       <c r="A242" s="1"/>
@@ -7643,7 +7359,6 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
-      <c r="AA242" s="1"/>
     </row>
     <row r="243" ht="12.75" customHeight="1">
       <c r="A243" s="1"/>
@@ -7672,7 +7387,6 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
-      <c r="AA243" s="1"/>
     </row>
     <row r="244" ht="12.75" customHeight="1">
       <c r="A244" s="1"/>
@@ -7701,7 +7415,6 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
-      <c r="AA244" s="1"/>
     </row>
     <row r="245" ht="12.75" customHeight="1">
       <c r="A245" s="1"/>
@@ -7730,7 +7443,6 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
-      <c r="AA245" s="1"/>
     </row>
     <row r="246" ht="12.75" customHeight="1">
       <c r="A246" s="1"/>
@@ -7759,7 +7471,6 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
-      <c r="AA246" s="1"/>
     </row>
     <row r="247" ht="12.75" customHeight="1">
       <c r="A247" s="1"/>
@@ -7788,7 +7499,6 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
-      <c r="AA247" s="1"/>
     </row>
     <row r="248" ht="12.75" customHeight="1">
       <c r="A248" s="1"/>
@@ -7817,7 +7527,6 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
-      <c r="AA248" s="1"/>
     </row>
     <row r="249" ht="12.75" customHeight="1">
       <c r="A249" s="1"/>
@@ -7846,7 +7555,6 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
-      <c r="AA249" s="1"/>
     </row>
     <row r="250" ht="12.75" customHeight="1">
       <c r="A250" s="1"/>
@@ -7875,7 +7583,6 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
-      <c r="AA250" s="1"/>
     </row>
     <row r="251" ht="12.75" customHeight="1">
       <c r="A251" s="1"/>
@@ -7904,7 +7611,6 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
-      <c r="AA251" s="1"/>
     </row>
     <row r="252" ht="12.75" customHeight="1">
       <c r="A252" s="1"/>
@@ -7933,7 +7639,6 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
-      <c r="AA252" s="1"/>
     </row>
     <row r="253" ht="12.75" customHeight="1">
       <c r="A253" s="1"/>
@@ -7962,7 +7667,6 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
-      <c r="AA253" s="1"/>
     </row>
     <row r="254" ht="12.75" customHeight="1">
       <c r="A254" s="1"/>
@@ -7991,7 +7695,6 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
-      <c r="AA254" s="1"/>
     </row>
     <row r="255" ht="12.75" customHeight="1">
       <c r="A255" s="1"/>
@@ -8020,7 +7723,6 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
-      <c r="AA255" s="1"/>
     </row>
     <row r="256" ht="12.75" customHeight="1">
       <c r="A256" s="1"/>
@@ -8049,7 +7751,6 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
-      <c r="AA256" s="1"/>
     </row>
     <row r="257" ht="12.75" customHeight="1">
       <c r="A257" s="1"/>
@@ -8078,7 +7779,6 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
-      <c r="AA257" s="1"/>
     </row>
     <row r="258" ht="12.75" customHeight="1">
       <c r="A258" s="1"/>
@@ -8107,7 +7807,6 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
-      <c r="AA258" s="1"/>
     </row>
     <row r="259" ht="12.75" customHeight="1">
       <c r="A259" s="1"/>
@@ -8136,7 +7835,6 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
-      <c r="AA259" s="1"/>
     </row>
     <row r="260" ht="12.75" customHeight="1">
       <c r="A260" s="1"/>
@@ -8165,7 +7863,6 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
-      <c r="AA260" s="1"/>
     </row>
     <row r="261" ht="12.75" customHeight="1">
       <c r="A261" s="1"/>
@@ -8194,7 +7891,6 @@
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
-      <c r="AA261" s="1"/>
     </row>
     <row r="262" ht="12.75" customHeight="1">
       <c r="A262" s="1"/>
@@ -8223,7 +7919,6 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
-      <c r="AA262" s="1"/>
     </row>
     <row r="263" ht="12.75" customHeight="1">
       <c r="A263" s="1"/>
@@ -8252,7 +7947,6 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
-      <c r="AA263" s="1"/>
     </row>
     <row r="264" ht="12.75" customHeight="1">
       <c r="A264" s="1"/>
@@ -8281,7 +7975,6 @@
       <c r="X264" s="1"/>
       <c r="Y264" s="1"/>
       <c r="Z264" s="1"/>
-      <c r="AA264" s="1"/>
     </row>
     <row r="265" ht="12.75" customHeight="1">
       <c r="A265" s="1"/>
@@ -8310,7 +8003,6 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
-      <c r="AA265" s="1"/>
     </row>
     <row r="266" ht="12.75" customHeight="1">
       <c r="A266" s="1"/>
@@ -8339,7 +8031,6 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
-      <c r="AA266" s="1"/>
     </row>
     <row r="267" ht="12.75" customHeight="1">
       <c r="A267" s="1"/>
@@ -8368,7 +8059,6 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
-      <c r="AA267" s="1"/>
     </row>
     <row r="268" ht="12.75" customHeight="1">
       <c r="A268" s="1"/>
@@ -8397,7 +8087,6 @@
       <c r="X268" s="1"/>
       <c r="Y268" s="1"/>
       <c r="Z268" s="1"/>
-      <c r="AA268" s="1"/>
     </row>
     <row r="269" ht="12.75" customHeight="1">
       <c r="A269" s="1"/>
@@ -8426,7 +8115,6 @@
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
       <c r="Z269" s="1"/>
-      <c r="AA269" s="1"/>
     </row>
     <row r="270" ht="12.75" customHeight="1">
       <c r="A270" s="1"/>
@@ -8455,7 +8143,6 @@
       <c r="X270" s="1"/>
       <c r="Y270" s="1"/>
       <c r="Z270" s="1"/>
-      <c r="AA270" s="1"/>
     </row>
     <row r="271" ht="12.75" customHeight="1">
       <c r="A271" s="1"/>
@@ -8484,7 +8171,6 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
-      <c r="AA271" s="1"/>
     </row>
     <row r="272" ht="12.75" customHeight="1">
       <c r="A272" s="1"/>
@@ -8513,7 +8199,6 @@
       <c r="X272" s="1"/>
       <c r="Y272" s="1"/>
       <c r="Z272" s="1"/>
-      <c r="AA272" s="1"/>
     </row>
     <row r="273" ht="12.75" customHeight="1">
       <c r="A273" s="1"/>
@@ -8542,7 +8227,6 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
       <c r="Z273" s="1"/>
-      <c r="AA273" s="1"/>
     </row>
     <row r="274" ht="12.75" customHeight="1">
       <c r="A274" s="1"/>
@@ -8571,7 +8255,6 @@
       <c r="X274" s="1"/>
       <c r="Y274" s="1"/>
       <c r="Z274" s="1"/>
-      <c r="AA274" s="1"/>
     </row>
     <row r="275" ht="12.75" customHeight="1">
       <c r="A275" s="1"/>
@@ -8600,7 +8283,6 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
-      <c r="AA275" s="1"/>
     </row>
     <row r="276" ht="12.75" customHeight="1">
       <c r="A276" s="1"/>
@@ -8629,7 +8311,6 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
-      <c r="AA276" s="1"/>
     </row>
     <row r="277" ht="12.75" customHeight="1">
       <c r="A277" s="1"/>
@@ -8658,7 +8339,6 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
-      <c r="AA277" s="1"/>
     </row>
     <row r="278" ht="12.75" customHeight="1">
       <c r="A278" s="1"/>
@@ -8687,7 +8367,6 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
       <c r="Z278" s="1"/>
-      <c r="AA278" s="1"/>
     </row>
     <row r="279" ht="12.75" customHeight="1">
       <c r="A279" s="1"/>
@@ -8716,7 +8395,6 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
-      <c r="AA279" s="1"/>
     </row>
     <row r="280" ht="12.75" customHeight="1">
       <c r="A280" s="1"/>
@@ -8745,7 +8423,6 @@
       <c r="X280" s="1"/>
       <c r="Y280" s="1"/>
       <c r="Z280" s="1"/>
-      <c r="AA280" s="1"/>
     </row>
     <row r="281" ht="12.75" customHeight="1">
       <c r="A281" s="1"/>
@@ -8774,7 +8451,6 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
       <c r="Z281" s="1"/>
-      <c r="AA281" s="1"/>
     </row>
     <row r="282" ht="12.75" customHeight="1">
       <c r="A282" s="1"/>
@@ -8803,7 +8479,6 @@
       <c r="X282" s="1"/>
       <c r="Y282" s="1"/>
       <c r="Z282" s="1"/>
-      <c r="AA282" s="1"/>
     </row>
     <row r="283" ht="12.75" customHeight="1">
       <c r="A283" s="1"/>
@@ -8832,7 +8507,6 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
       <c r="Z283" s="1"/>
-      <c r="AA283" s="1"/>
     </row>
     <row r="284" ht="12.75" customHeight="1">
       <c r="A284" s="1"/>
@@ -8861,7 +8535,6 @@
       <c r="X284" s="1"/>
       <c r="Y284" s="1"/>
       <c r="Z284" s="1"/>
-      <c r="AA284" s="1"/>
     </row>
     <row r="285" ht="12.75" customHeight="1">
       <c r="A285" s="1"/>
@@ -8890,7 +8563,6 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
       <c r="Z285" s="1"/>
-      <c r="AA285" s="1"/>
     </row>
     <row r="286" ht="12.75" customHeight="1">
       <c r="A286" s="1"/>
@@ -8919,7 +8591,6 @@
       <c r="X286" s="1"/>
       <c r="Y286" s="1"/>
       <c r="Z286" s="1"/>
-      <c r="AA286" s="1"/>
     </row>
     <row r="287" ht="12.75" customHeight="1">
       <c r="A287" s="1"/>
@@ -8948,7 +8619,6 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
       <c r="Z287" s="1"/>
-      <c r="AA287" s="1"/>
     </row>
     <row r="288" ht="12.75" customHeight="1">
       <c r="A288" s="1"/>
@@ -8977,7 +8647,6 @@
       <c r="X288" s="1"/>
       <c r="Y288" s="1"/>
       <c r="Z288" s="1"/>
-      <c r="AA288" s="1"/>
     </row>
     <row r="289" ht="12.75" customHeight="1">
       <c r="A289" s="1"/>
@@ -9006,7 +8675,6 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
       <c r="Z289" s="1"/>
-      <c r="AA289" s="1"/>
     </row>
     <row r="290" ht="12.75" customHeight="1">
       <c r="A290" s="1"/>
@@ -9035,7 +8703,6 @@
       <c r="X290" s="1"/>
       <c r="Y290" s="1"/>
       <c r="Z290" s="1"/>
-      <c r="AA290" s="1"/>
     </row>
     <row r="291" ht="12.75" customHeight="1">
       <c r="A291" s="1"/>
@@ -9064,7 +8731,6 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
       <c r="Z291" s="1"/>
-      <c r="AA291" s="1"/>
     </row>
     <row r="292" ht="12.75" customHeight="1">
       <c r="A292" s="1"/>
@@ -9093,7 +8759,6 @@
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
       <c r="Z292" s="1"/>
-      <c r="AA292" s="1"/>
     </row>
     <row r="293" ht="12.75" customHeight="1">
       <c r="A293" s="1"/>
@@ -9122,7 +8787,6 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
       <c r="Z293" s="1"/>
-      <c r="AA293" s="1"/>
     </row>
     <row r="294" ht="12.75" customHeight="1">
       <c r="A294" s="1"/>
@@ -9151,7 +8815,6 @@
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
       <c r="Z294" s="1"/>
-      <c r="AA294" s="1"/>
     </row>
     <row r="295" ht="12.75" customHeight="1">
       <c r="A295" s="1"/>
@@ -9180,7 +8843,6 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
       <c r="Z295" s="1"/>
-      <c r="AA295" s="1"/>
     </row>
     <row r="296" ht="12.75" customHeight="1">
       <c r="A296" s="1"/>
@@ -9209,7 +8871,6 @@
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
       <c r="Z296" s="1"/>
-      <c r="AA296" s="1"/>
     </row>
     <row r="297" ht="12.75" customHeight="1">
       <c r="A297" s="1"/>
@@ -9238,7 +8899,6 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
       <c r="Z297" s="1"/>
-      <c r="AA297" s="1"/>
     </row>
     <row r="298" ht="12.75" customHeight="1">
       <c r="A298" s="1"/>
@@ -9267,7 +8927,6 @@
       <c r="X298" s="1"/>
       <c r="Y298" s="1"/>
       <c r="Z298" s="1"/>
-      <c r="AA298" s="1"/>
     </row>
     <row r="299" ht="12.75" customHeight="1">
       <c r="A299" s="1"/>
@@ -9296,7 +8955,6 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
       <c r="Z299" s="1"/>
-      <c r="AA299" s="1"/>
     </row>
     <row r="300" ht="12.75" customHeight="1">
       <c r="A300" s="1"/>
@@ -9325,7 +8983,6 @@
       <c r="X300" s="1"/>
       <c r="Y300" s="1"/>
       <c r="Z300" s="1"/>
-      <c r="AA300" s="1"/>
     </row>
     <row r="301" ht="12.75" customHeight="1">
       <c r="A301" s="1"/>
@@ -9354,7 +9011,6 @@
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
       <c r="Z301" s="1"/>
-      <c r="AA301" s="1"/>
     </row>
     <row r="302" ht="12.75" customHeight="1">
       <c r="A302" s="1"/>
@@ -9383,7 +9039,6 @@
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
       <c r="Z302" s="1"/>
-      <c r="AA302" s="1"/>
     </row>
     <row r="303" ht="12.75" customHeight="1">
       <c r="A303" s="1"/>
@@ -9412,7 +9067,6 @@
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
       <c r="Z303" s="1"/>
-      <c r="AA303" s="1"/>
     </row>
     <row r="304" ht="12.75" customHeight="1">
       <c r="A304" s="1"/>
@@ -9441,7 +9095,6 @@
       <c r="X304" s="1"/>
       <c r="Y304" s="1"/>
       <c r="Z304" s="1"/>
-      <c r="AA304" s="1"/>
     </row>
     <row r="305" ht="12.75" customHeight="1">
       <c r="A305" s="1"/>
@@ -9470,7 +9123,6 @@
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
       <c r="Z305" s="1"/>
-      <c r="AA305" s="1"/>
     </row>
     <row r="306" ht="12.75" customHeight="1">
       <c r="A306" s="1"/>
@@ -9499,7 +9151,6 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
       <c r="Z306" s="1"/>
-      <c r="AA306" s="1"/>
     </row>
     <row r="307" ht="12.75" customHeight="1">
       <c r="A307" s="1"/>
@@ -9528,7 +9179,6 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
       <c r="Z307" s="1"/>
-      <c r="AA307" s="1"/>
     </row>
     <row r="308" ht="12.75" customHeight="1">
       <c r="A308" s="1"/>
@@ -9557,7 +9207,6 @@
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
       <c r="Z308" s="1"/>
-      <c r="AA308" s="1"/>
     </row>
     <row r="309" ht="12.75" customHeight="1">
       <c r="A309" s="1"/>
@@ -9586,7 +9235,6 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
       <c r="Z309" s="1"/>
-      <c r="AA309" s="1"/>
     </row>
     <row r="310" ht="12.75" customHeight="1">
       <c r="A310" s="1"/>
@@ -9615,7 +9263,6 @@
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
       <c r="Z310" s="1"/>
-      <c r="AA310" s="1"/>
     </row>
     <row r="311" ht="12.75" customHeight="1">
       <c r="A311" s="1"/>
@@ -9644,7 +9291,6 @@
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
       <c r="Z311" s="1"/>
-      <c r="AA311" s="1"/>
     </row>
     <row r="312" ht="12.75" customHeight="1">
       <c r="A312" s="1"/>
@@ -9673,7 +9319,6 @@
       <c r="X312" s="1"/>
       <c r="Y312" s="1"/>
       <c r="Z312" s="1"/>
-      <c r="AA312" s="1"/>
     </row>
     <row r="313" ht="12.75" customHeight="1">
       <c r="A313" s="1"/>
@@ -9702,7 +9347,6 @@
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
       <c r="Z313" s="1"/>
-      <c r="AA313" s="1"/>
     </row>
     <row r="314" ht="12.75" customHeight="1">
       <c r="A314" s="1"/>
@@ -9731,7 +9375,6 @@
       <c r="X314" s="1"/>
       <c r="Y314" s="1"/>
       <c r="Z314" s="1"/>
-      <c r="AA314" s="1"/>
     </row>
     <row r="315" ht="12.75" customHeight="1">
       <c r="A315" s="1"/>
@@ -9760,7 +9403,6 @@
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
       <c r="Z315" s="1"/>
-      <c r="AA315" s="1"/>
     </row>
     <row r="316" ht="12.75" customHeight="1">
       <c r="A316" s="1"/>
@@ -9789,7 +9431,6 @@
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
       <c r="Z316" s="1"/>
-      <c r="AA316" s="1"/>
     </row>
     <row r="317" ht="12.75" customHeight="1">
       <c r="A317" s="1"/>
@@ -9818,7 +9459,6 @@
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
       <c r="Z317" s="1"/>
-      <c r="AA317" s="1"/>
     </row>
     <row r="318" ht="12.75" customHeight="1">
       <c r="A318" s="1"/>
@@ -9847,7 +9487,6 @@
       <c r="X318" s="1"/>
       <c r="Y318" s="1"/>
       <c r="Z318" s="1"/>
-      <c r="AA318" s="1"/>
     </row>
     <row r="319" ht="12.75" customHeight="1">
       <c r="A319" s="1"/>
@@ -9876,7 +9515,6 @@
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
       <c r="Z319" s="1"/>
-      <c r="AA319" s="1"/>
     </row>
     <row r="320" ht="12.75" customHeight="1">
       <c r="A320" s="1"/>
@@ -9905,7 +9543,6 @@
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
       <c r="Z320" s="1"/>
-      <c r="AA320" s="1"/>
     </row>
     <row r="321" ht="12.75" customHeight="1">
       <c r="A321" s="1"/>
@@ -9934,7 +9571,6 @@
       <c r="X321" s="1"/>
       <c r="Y321" s="1"/>
       <c r="Z321" s="1"/>
-      <c r="AA321" s="1"/>
     </row>
     <row r="322" ht="12.75" customHeight="1">
       <c r="A322" s="1"/>
@@ -9963,7 +9599,6 @@
       <c r="X322" s="1"/>
       <c r="Y322" s="1"/>
       <c r="Z322" s="1"/>
-      <c r="AA322" s="1"/>
     </row>
     <row r="323" ht="12.75" customHeight="1">
       <c r="A323" s="1"/>
@@ -9992,7 +9627,6 @@
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
       <c r="Z323" s="1"/>
-      <c r="AA323" s="1"/>
     </row>
     <row r="324" ht="12.75" customHeight="1">
       <c r="A324" s="1"/>
@@ -10021,7 +9655,6 @@
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
       <c r="Z324" s="1"/>
-      <c r="AA324" s="1"/>
     </row>
     <row r="325" ht="12.75" customHeight="1">
       <c r="A325" s="1"/>
@@ -10050,7 +9683,6 @@
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
       <c r="Z325" s="1"/>
-      <c r="AA325" s="1"/>
     </row>
     <row r="326" ht="12.75" customHeight="1">
       <c r="A326" s="1"/>
@@ -10079,7 +9711,6 @@
       <c r="X326" s="1"/>
       <c r="Y326" s="1"/>
       <c r="Z326" s="1"/>
-      <c r="AA326" s="1"/>
     </row>
     <row r="327" ht="12.75" customHeight="1">
       <c r="A327" s="1"/>
@@ -10108,7 +9739,6 @@
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
       <c r="Z327" s="1"/>
-      <c r="AA327" s="1"/>
     </row>
     <row r="328" ht="12.75" customHeight="1">
       <c r="A328" s="1"/>
@@ -10137,7 +9767,6 @@
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
       <c r="Z328" s="1"/>
-      <c r="AA328" s="1"/>
     </row>
     <row r="329" ht="12.75" customHeight="1">
       <c r="A329" s="1"/>
@@ -10166,7 +9795,6 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
       <c r="Z329" s="1"/>
-      <c r="AA329" s="1"/>
     </row>
     <row r="330" ht="12.75" customHeight="1">
       <c r="A330" s="1"/>
@@ -10195,7 +9823,6 @@
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
       <c r="Z330" s="1"/>
-      <c r="AA330" s="1"/>
     </row>
     <row r="331" ht="12.75" customHeight="1">
       <c r="A331" s="1"/>
@@ -10224,7 +9851,6 @@
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
       <c r="Z331" s="1"/>
-      <c r="AA331" s="1"/>
     </row>
     <row r="332" ht="12.75" customHeight="1">
       <c r="A332" s="1"/>
@@ -10253,7 +9879,6 @@
       <c r="X332" s="1"/>
       <c r="Y332" s="1"/>
       <c r="Z332" s="1"/>
-      <c r="AA332" s="1"/>
     </row>
     <row r="333" ht="12.75" customHeight="1">
       <c r="A333" s="1"/>
@@ -10282,7 +9907,6 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
       <c r="Z333" s="1"/>
-      <c r="AA333" s="1"/>
     </row>
     <row r="334" ht="12.75" customHeight="1">
       <c r="A334" s="1"/>
@@ -10311,7 +9935,6 @@
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
       <c r="Z334" s="1"/>
-      <c r="AA334" s="1"/>
     </row>
     <row r="335" ht="12.75" customHeight="1">
       <c r="A335" s="1"/>
@@ -10340,7 +9963,6 @@
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
       <c r="Z335" s="1"/>
-      <c r="AA335" s="1"/>
     </row>
     <row r="336" ht="12.75" customHeight="1">
       <c r="A336" s="1"/>
@@ -10369,7 +9991,6 @@
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
       <c r="Z336" s="1"/>
-      <c r="AA336" s="1"/>
     </row>
     <row r="337" ht="12.75" customHeight="1">
       <c r="A337" s="1"/>
@@ -10398,7 +10019,6 @@
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
       <c r="Z337" s="1"/>
-      <c r="AA337" s="1"/>
     </row>
     <row r="338" ht="12.75" customHeight="1">
       <c r="A338" s="1"/>
@@ -10427,7 +10047,6 @@
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
       <c r="Z338" s="1"/>
-      <c r="AA338" s="1"/>
     </row>
     <row r="339" ht="12.75" customHeight="1">
       <c r="A339" s="1"/>
@@ -10456,7 +10075,6 @@
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
       <c r="Z339" s="1"/>
-      <c r="AA339" s="1"/>
     </row>
     <row r="340" ht="12.75" customHeight="1">
       <c r="A340" s="1"/>
@@ -10485,7 +10103,6 @@
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
       <c r="Z340" s="1"/>
-      <c r="AA340" s="1"/>
     </row>
     <row r="341" ht="12.75" customHeight="1">
       <c r="A341" s="1"/>
@@ -10514,7 +10131,6 @@
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
       <c r="Z341" s="1"/>
-      <c r="AA341" s="1"/>
     </row>
     <row r="342" ht="12.75" customHeight="1">
       <c r="A342" s="1"/>
@@ -10543,7 +10159,6 @@
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
       <c r="Z342" s="1"/>
-      <c r="AA342" s="1"/>
     </row>
     <row r="343" ht="12.75" customHeight="1">
       <c r="A343" s="1"/>
@@ -10572,7 +10187,6 @@
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
       <c r="Z343" s="1"/>
-      <c r="AA343" s="1"/>
     </row>
     <row r="344" ht="12.75" customHeight="1">
       <c r="A344" s="1"/>
@@ -10601,7 +10215,6 @@
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
       <c r="Z344" s="1"/>
-      <c r="AA344" s="1"/>
     </row>
     <row r="345" ht="12.75" customHeight="1">
       <c r="A345" s="1"/>
@@ -10630,7 +10243,6 @@
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
       <c r="Z345" s="1"/>
-      <c r="AA345" s="1"/>
     </row>
     <row r="346" ht="12.75" customHeight="1">
       <c r="A346" s="1"/>
@@ -10659,7 +10271,6 @@
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
       <c r="Z346" s="1"/>
-      <c r="AA346" s="1"/>
     </row>
     <row r="347" ht="12.75" customHeight="1">
       <c r="A347" s="1"/>
@@ -10688,7 +10299,6 @@
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
       <c r="Z347" s="1"/>
-      <c r="AA347" s="1"/>
     </row>
     <row r="348" ht="12.75" customHeight="1">
       <c r="A348" s="1"/>
@@ -10717,7 +10327,6 @@
       <c r="X348" s="1"/>
       <c r="Y348" s="1"/>
       <c r="Z348" s="1"/>
-      <c r="AA348" s="1"/>
     </row>
     <row r="349" ht="12.75" customHeight="1">
       <c r="A349" s="1"/>
@@ -10746,7 +10355,6 @@
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
       <c r="Z349" s="1"/>
-      <c r="AA349" s="1"/>
     </row>
     <row r="350" ht="12.75" customHeight="1">
       <c r="A350" s="1"/>
@@ -10775,7 +10383,6 @@
       <c r="X350" s="1"/>
       <c r="Y350" s="1"/>
       <c r="Z350" s="1"/>
-      <c r="AA350" s="1"/>
     </row>
     <row r="351" ht="12.75" customHeight="1">
       <c r="A351" s="1"/>
@@ -10804,7 +10411,6 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
       <c r="Z351" s="1"/>
-      <c r="AA351" s="1"/>
     </row>
     <row r="352" ht="12.75" customHeight="1">
       <c r="A352" s="1"/>
@@ -10833,7 +10439,6 @@
       <c r="X352" s="1"/>
       <c r="Y352" s="1"/>
       <c r="Z352" s="1"/>
-      <c r="AA352" s="1"/>
     </row>
     <row r="353" ht="12.75" customHeight="1">
       <c r="A353" s="1"/>
@@ -10862,7 +10467,6 @@
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
       <c r="Z353" s="1"/>
-      <c r="AA353" s="1"/>
     </row>
     <row r="354" ht="12.75" customHeight="1">
       <c r="A354" s="1"/>
@@ -10891,7 +10495,6 @@
       <c r="X354" s="1"/>
       <c r="Y354" s="1"/>
       <c r="Z354" s="1"/>
-      <c r="AA354" s="1"/>
     </row>
     <row r="355" ht="12.75" customHeight="1">
       <c r="A355" s="1"/>
@@ -10920,7 +10523,6 @@
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
       <c r="Z355" s="1"/>
-      <c r="AA355" s="1"/>
     </row>
     <row r="356" ht="12.75" customHeight="1">
       <c r="A356" s="1"/>
@@ -10949,7 +10551,6 @@
       <c r="X356" s="1"/>
       <c r="Y356" s="1"/>
       <c r="Z356" s="1"/>
-      <c r="AA356" s="1"/>
     </row>
     <row r="357" ht="12.75" customHeight="1">
       <c r="A357" s="1"/>
@@ -10978,7 +10579,6 @@
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
       <c r="Z357" s="1"/>
-      <c r="AA357" s="1"/>
     </row>
     <row r="358" ht="12.75" customHeight="1">
       <c r="A358" s="1"/>
@@ -11007,7 +10607,6 @@
       <c r="X358" s="1"/>
       <c r="Y358" s="1"/>
       <c r="Z358" s="1"/>
-      <c r="AA358" s="1"/>
     </row>
     <row r="359" ht="12.75" customHeight="1">
       <c r="A359" s="1"/>
@@ -11036,7 +10635,6 @@
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
       <c r="Z359" s="1"/>
-      <c r="AA359" s="1"/>
     </row>
     <row r="360" ht="12.75" customHeight="1">
       <c r="A360" s="1"/>
@@ -11065,7 +10663,6 @@
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
       <c r="Z360" s="1"/>
-      <c r="AA360" s="1"/>
     </row>
     <row r="361" ht="12.75" customHeight="1">
       <c r="A361" s="1"/>
@@ -11094,7 +10691,6 @@
       <c r="X361" s="1"/>
       <c r="Y361" s="1"/>
       <c r="Z361" s="1"/>
-      <c r="AA361" s="1"/>
     </row>
     <row r="362" ht="12.75" customHeight="1">
       <c r="A362" s="1"/>
@@ -11123,7 +10719,6 @@
       <c r="X362" s="1"/>
       <c r="Y362" s="1"/>
       <c r="Z362" s="1"/>
-      <c r="AA362" s="1"/>
     </row>
     <row r="363" ht="12.75" customHeight="1">
       <c r="A363" s="1"/>
@@ -11152,7 +10747,6 @@
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
       <c r="Z363" s="1"/>
-      <c r="AA363" s="1"/>
     </row>
     <row r="364" ht="12.75" customHeight="1">
       <c r="A364" s="1"/>
@@ -11181,7 +10775,6 @@
       <c r="X364" s="1"/>
       <c r="Y364" s="1"/>
       <c r="Z364" s="1"/>
-      <c r="AA364" s="1"/>
     </row>
     <row r="365" ht="12.75" customHeight="1">
       <c r="A365" s="1"/>
@@ -11210,7 +10803,6 @@
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
       <c r="Z365" s="1"/>
-      <c r="AA365" s="1"/>
     </row>
     <row r="366" ht="12.75" customHeight="1">
       <c r="A366" s="1"/>
@@ -11239,7 +10831,6 @@
       <c r="X366" s="1"/>
       <c r="Y366" s="1"/>
       <c r="Z366" s="1"/>
-      <c r="AA366" s="1"/>
     </row>
     <row r="367" ht="12.75" customHeight="1">
       <c r="A367" s="1"/>
@@ -11268,7 +10859,6 @@
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
       <c r="Z367" s="1"/>
-      <c r="AA367" s="1"/>
     </row>
     <row r="368" ht="12.75" customHeight="1">
       <c r="A368" s="1"/>
@@ -11297,7 +10887,6 @@
       <c r="X368" s="1"/>
       <c r="Y368" s="1"/>
       <c r="Z368" s="1"/>
-      <c r="AA368" s="1"/>
     </row>
     <row r="369" ht="12.75" customHeight="1">
       <c r="A369" s="1"/>
@@ -11326,7 +10915,6 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
       <c r="Z369" s="1"/>
-      <c r="AA369" s="1"/>
     </row>
     <row r="370" ht="12.75" customHeight="1">
       <c r="A370" s="1"/>
@@ -11355,7 +10943,6 @@
       <c r="X370" s="1"/>
       <c r="Y370" s="1"/>
       <c r="Z370" s="1"/>
-      <c r="AA370" s="1"/>
     </row>
     <row r="371" ht="12.75" customHeight="1">
       <c r="A371" s="1"/>
@@ -11384,7 +10971,6 @@
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
       <c r="Z371" s="1"/>
-      <c r="AA371" s="1"/>
     </row>
     <row r="372" ht="12.75" customHeight="1">
       <c r="A372" s="1"/>
@@ -11413,7 +10999,6 @@
       <c r="X372" s="1"/>
       <c r="Y372" s="1"/>
       <c r="Z372" s="1"/>
-      <c r="AA372" s="1"/>
     </row>
     <row r="373" ht="12.75" customHeight="1">
       <c r="A373" s="1"/>
@@ -11442,7 +11027,6 @@
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
       <c r="Z373" s="1"/>
-      <c r="AA373" s="1"/>
     </row>
     <row r="374" ht="12.75" customHeight="1">
       <c r="A374" s="1"/>
@@ -11471,7 +11055,6 @@
       <c r="X374" s="1"/>
       <c r="Y374" s="1"/>
       <c r="Z374" s="1"/>
-      <c r="AA374" s="1"/>
     </row>
     <row r="375" ht="12.75" customHeight="1">
       <c r="A375" s="1"/>
@@ -11500,7 +11083,6 @@
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
       <c r="Z375" s="1"/>
-      <c r="AA375" s="1"/>
     </row>
     <row r="376" ht="12.75" customHeight="1">
       <c r="A376" s="1"/>
@@ -11529,7 +11111,6 @@
       <c r="X376" s="1"/>
       <c r="Y376" s="1"/>
       <c r="Z376" s="1"/>
-      <c r="AA376" s="1"/>
     </row>
     <row r="377" ht="12.75" customHeight="1">
       <c r="A377" s="1"/>
@@ -11558,7 +11139,6 @@
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
       <c r="Z377" s="1"/>
-      <c r="AA377" s="1"/>
     </row>
     <row r="378" ht="12.75" customHeight="1">
       <c r="A378" s="1"/>
@@ -11587,7 +11167,6 @@
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
       <c r="Z378" s="1"/>
-      <c r="AA378" s="1"/>
     </row>
     <row r="379" ht="12.75" customHeight="1">
       <c r="A379" s="1"/>
@@ -11616,7 +11195,6 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
       <c r="Z379" s="1"/>
-      <c r="AA379" s="1"/>
     </row>
     <row r="380" ht="12.75" customHeight="1">
       <c r="A380" s="1"/>
@@ -11645,7 +11223,6 @@
       <c r="X380" s="1"/>
       <c r="Y380" s="1"/>
       <c r="Z380" s="1"/>
-      <c r="AA380" s="1"/>
     </row>
     <row r="381" ht="12.75" customHeight="1">
       <c r="A381" s="1"/>
@@ -11674,7 +11251,6 @@
       <c r="X381" s="1"/>
       <c r="Y381" s="1"/>
       <c r="Z381" s="1"/>
-      <c r="AA381" s="1"/>
     </row>
     <row r="382" ht="12.75" customHeight="1">
       <c r="A382" s="1"/>
@@ -11703,7 +11279,6 @@
       <c r="X382" s="1"/>
       <c r="Y382" s="1"/>
       <c r="Z382" s="1"/>
-      <c r="AA382" s="1"/>
     </row>
     <row r="383" ht="12.75" customHeight="1">
       <c r="A383" s="1"/>
@@ -11732,7 +11307,6 @@
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
       <c r="Z383" s="1"/>
-      <c r="AA383" s="1"/>
     </row>
     <row r="384" ht="12.75" customHeight="1">
       <c r="A384" s="1"/>
@@ -11761,7 +11335,6 @@
       <c r="X384" s="1"/>
       <c r="Y384" s="1"/>
       <c r="Z384" s="1"/>
-      <c r="AA384" s="1"/>
     </row>
     <row r="385" ht="12.75" customHeight="1">
       <c r="A385" s="1"/>
@@ -11790,7 +11363,6 @@
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
       <c r="Z385" s="1"/>
-      <c r="AA385" s="1"/>
     </row>
     <row r="386" ht="12.75" customHeight="1">
       <c r="A386" s="1"/>
@@ -11819,7 +11391,6 @@
       <c r="X386" s="1"/>
       <c r="Y386" s="1"/>
       <c r="Z386" s="1"/>
-      <c r="AA386" s="1"/>
     </row>
     <row r="387" ht="12.75" customHeight="1">
       <c r="A387" s="1"/>
@@ -11848,7 +11419,6 @@
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
       <c r="Z387" s="1"/>
-      <c r="AA387" s="1"/>
     </row>
     <row r="388" ht="12.75" customHeight="1">
       <c r="A388" s="1"/>
@@ -11877,7 +11447,6 @@
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
       <c r="Z388" s="1"/>
-      <c r="AA388" s="1"/>
     </row>
     <row r="389" ht="12.75" customHeight="1">
       <c r="A389" s="1"/>
@@ -11906,7 +11475,6 @@
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
       <c r="Z389" s="1"/>
-      <c r="AA389" s="1"/>
     </row>
     <row r="390" ht="12.75" customHeight="1">
       <c r="A390" s="1"/>
@@ -11935,7 +11503,6 @@
       <c r="X390" s="1"/>
       <c r="Y390" s="1"/>
       <c r="Z390" s="1"/>
-      <c r="AA390" s="1"/>
     </row>
     <row r="391" ht="12.75" customHeight="1">
       <c r="A391" s="1"/>
@@ -11964,7 +11531,6 @@
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
       <c r="Z391" s="1"/>
-      <c r="AA391" s="1"/>
     </row>
     <row r="392" ht="12.75" customHeight="1">
       <c r="A392" s="1"/>
@@ -11993,7 +11559,6 @@
       <c r="X392" s="1"/>
       <c r="Y392" s="1"/>
       <c r="Z392" s="1"/>
-      <c r="AA392" s="1"/>
     </row>
     <row r="393" ht="12.75" customHeight="1">
       <c r="A393" s="1"/>
@@ -12022,7 +11587,6 @@
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
       <c r="Z393" s="1"/>
-      <c r="AA393" s="1"/>
     </row>
     <row r="394" ht="12.75" customHeight="1">
       <c r="A394" s="1"/>
@@ -12051,7 +11615,6 @@
       <c r="X394" s="1"/>
       <c r="Y394" s="1"/>
       <c r="Z394" s="1"/>
-      <c r="AA394" s="1"/>
     </row>
     <row r="395" ht="12.75" customHeight="1">
       <c r="A395" s="1"/>
@@ -12080,7 +11643,6 @@
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
       <c r="Z395" s="1"/>
-      <c r="AA395" s="1"/>
     </row>
     <row r="396" ht="12.75" customHeight="1">
       <c r="A396" s="1"/>
@@ -12109,7 +11671,6 @@
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
       <c r="Z396" s="1"/>
-      <c r="AA396" s="1"/>
     </row>
     <row r="397" ht="12.75" customHeight="1">
       <c r="A397" s="1"/>
@@ -12138,7 +11699,6 @@
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
       <c r="Z397" s="1"/>
-      <c r="AA397" s="1"/>
     </row>
     <row r="398" ht="12.75" customHeight="1">
       <c r="A398" s="1"/>
@@ -12167,7 +11727,6 @@
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
       <c r="Z398" s="1"/>
-      <c r="AA398" s="1"/>
     </row>
     <row r="399" ht="12.75" customHeight="1">
       <c r="A399" s="1"/>
@@ -12196,7 +11755,6 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
       <c r="Z399" s="1"/>
-      <c r="AA399" s="1"/>
     </row>
     <row r="400" ht="12.75" customHeight="1">
       <c r="A400" s="1"/>
@@ -12225,7 +11783,6 @@
       <c r="X400" s="1"/>
       <c r="Y400" s="1"/>
       <c r="Z400" s="1"/>
-      <c r="AA400" s="1"/>
     </row>
     <row r="401" ht="12.75" customHeight="1">
       <c r="A401" s="1"/>
@@ -12254,7 +11811,6 @@
       <c r="X401" s="1"/>
       <c r="Y401" s="1"/>
       <c r="Z401" s="1"/>
-      <c r="AA401" s="1"/>
     </row>
     <row r="402" ht="12.75" customHeight="1">
       <c r="A402" s="1"/>
@@ -12283,7 +11839,6 @@
       <c r="X402" s="1"/>
       <c r="Y402" s="1"/>
       <c r="Z402" s="1"/>
-      <c r="AA402" s="1"/>
     </row>
     <row r="403" ht="12.75" customHeight="1">
       <c r="A403" s="1"/>
@@ -12312,7 +11867,6 @@
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
       <c r="Z403" s="1"/>
-      <c r="AA403" s="1"/>
     </row>
     <row r="404" ht="12.75" customHeight="1">
       <c r="A404" s="1"/>
@@ -12341,7 +11895,6 @@
       <c r="X404" s="1"/>
       <c r="Y404" s="1"/>
       <c r="Z404" s="1"/>
-      <c r="AA404" s="1"/>
     </row>
     <row r="405" ht="12.75" customHeight="1">
       <c r="A405" s="1"/>
@@ -12370,7 +11923,6 @@
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
       <c r="Z405" s="1"/>
-      <c r="AA405" s="1"/>
     </row>
     <row r="406" ht="12.75" customHeight="1">
       <c r="A406" s="1"/>
@@ -12399,7 +11951,6 @@
       <c r="X406" s="1"/>
       <c r="Y406" s="1"/>
       <c r="Z406" s="1"/>
-      <c r="AA406" s="1"/>
     </row>
     <row r="407" ht="12.75" customHeight="1">
       <c r="A407" s="1"/>
@@ -12428,7 +11979,6 @@
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
       <c r="Z407" s="1"/>
-      <c r="AA407" s="1"/>
     </row>
     <row r="408" ht="12.75" customHeight="1">
       <c r="A408" s="1"/>
@@ -12457,7 +12007,6 @@
       <c r="X408" s="1"/>
       <c r="Y408" s="1"/>
       <c r="Z408" s="1"/>
-      <c r="AA408" s="1"/>
     </row>
     <row r="409" ht="12.75" customHeight="1">
       <c r="A409" s="1"/>
@@ -12486,7 +12035,6 @@
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
       <c r="Z409" s="1"/>
-      <c r="AA409" s="1"/>
     </row>
     <row r="410" ht="12.75" customHeight="1">
       <c r="A410" s="1"/>
@@ -12515,7 +12063,6 @@
       <c r="X410" s="1"/>
       <c r="Y410" s="1"/>
       <c r="Z410" s="1"/>
-      <c r="AA410" s="1"/>
     </row>
     <row r="411" ht="12.75" customHeight="1">
       <c r="A411" s="1"/>
@@ -12544,7 +12091,6 @@
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
       <c r="Z411" s="1"/>
-      <c r="AA411" s="1"/>
     </row>
     <row r="412" ht="12.75" customHeight="1">
       <c r="A412" s="1"/>
@@ -12573,7 +12119,6 @@
       <c r="X412" s="1"/>
       <c r="Y412" s="1"/>
       <c r="Z412" s="1"/>
-      <c r="AA412" s="1"/>
     </row>
     <row r="413" ht="12.75" customHeight="1">
       <c r="A413" s="1"/>
@@ -12602,7 +12147,6 @@
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
       <c r="Z413" s="1"/>
-      <c r="AA413" s="1"/>
     </row>
     <row r="414" ht="12.75" customHeight="1">
       <c r="A414" s="1"/>
@@ -12631,7 +12175,6 @@
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
       <c r="Z414" s="1"/>
-      <c r="AA414" s="1"/>
     </row>
     <row r="415" ht="12.75" customHeight="1">
       <c r="A415" s="1"/>
@@ -12660,7 +12203,6 @@
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
       <c r="Z415" s="1"/>
-      <c r="AA415" s="1"/>
     </row>
     <row r="416" ht="12.75" customHeight="1">
       <c r="A416" s="1"/>
@@ -12689,7 +12231,6 @@
       <c r="X416" s="1"/>
       <c r="Y416" s="1"/>
       <c r="Z416" s="1"/>
-      <c r="AA416" s="1"/>
     </row>
     <row r="417" ht="12.75" customHeight="1">
       <c r="A417" s="1"/>
@@ -12718,7 +12259,6 @@
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
       <c r="Z417" s="1"/>
-      <c r="AA417" s="1"/>
     </row>
     <row r="418" ht="12.75" customHeight="1">
       <c r="A418" s="1"/>
@@ -12747,7 +12287,6 @@
       <c r="X418" s="1"/>
       <c r="Y418" s="1"/>
       <c r="Z418" s="1"/>
-      <c r="AA418" s="1"/>
     </row>
     <row r="419" ht="12.75" customHeight="1">
       <c r="A419" s="1"/>
@@ -12776,7 +12315,6 @@
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
       <c r="Z419" s="1"/>
-      <c r="AA419" s="1"/>
     </row>
     <row r="420" ht="12.75" customHeight="1">
       <c r="A420" s="1"/>
@@ -12805,7 +12343,6 @@
       <c r="X420" s="1"/>
       <c r="Y420" s="1"/>
       <c r="Z420" s="1"/>
-      <c r="AA420" s="1"/>
     </row>
     <row r="421" ht="12.75" customHeight="1">
       <c r="A421" s="1"/>
@@ -12834,7 +12371,6 @@
       <c r="X421" s="1"/>
       <c r="Y421" s="1"/>
       <c r="Z421" s="1"/>
-      <c r="AA421" s="1"/>
     </row>
     <row r="422" ht="12.75" customHeight="1">
       <c r="A422" s="1"/>
@@ -12863,7 +12399,6 @@
       <c r="X422" s="1"/>
       <c r="Y422" s="1"/>
       <c r="Z422" s="1"/>
-      <c r="AA422" s="1"/>
     </row>
     <row r="423" ht="12.75" customHeight="1">
       <c r="A423" s="1"/>
@@ -12892,7 +12427,6 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
       <c r="Z423" s="1"/>
-      <c r="AA423" s="1"/>
     </row>
     <row r="424" ht="12.75" customHeight="1">
       <c r="A424" s="1"/>
@@ -12921,7 +12455,6 @@
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
       <c r="Z424" s="1"/>
-      <c r="AA424" s="1"/>
     </row>
     <row r="425" ht="12.75" customHeight="1">
       <c r="A425" s="1"/>
@@ -12950,7 +12483,6 @@
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
       <c r="Z425" s="1"/>
-      <c r="AA425" s="1"/>
     </row>
     <row r="426" ht="12.75" customHeight="1">
       <c r="A426" s="1"/>
@@ -12979,7 +12511,6 @@
       <c r="X426" s="1"/>
       <c r="Y426" s="1"/>
       <c r="Z426" s="1"/>
-      <c r="AA426" s="1"/>
     </row>
     <row r="427" ht="12.75" customHeight="1">
       <c r="A427" s="1"/>
@@ -13008,7 +12539,6 @@
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
       <c r="Z427" s="1"/>
-      <c r="AA427" s="1"/>
     </row>
     <row r="428" ht="12.75" customHeight="1">
       <c r="A428" s="1"/>
@@ -13037,7 +12567,6 @@
       <c r="X428" s="1"/>
       <c r="Y428" s="1"/>
       <c r="Z428" s="1"/>
-      <c r="AA428" s="1"/>
     </row>
     <row r="429" ht="12.75" customHeight="1">
       <c r="A429" s="1"/>
@@ -13066,7 +12595,6 @@
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
       <c r="Z429" s="1"/>
-      <c r="AA429" s="1"/>
     </row>
     <row r="430" ht="12.75" customHeight="1">
       <c r="A430" s="1"/>
@@ -13095,7 +12623,6 @@
       <c r="X430" s="1"/>
       <c r="Y430" s="1"/>
       <c r="Z430" s="1"/>
-      <c r="AA430" s="1"/>
     </row>
     <row r="431" ht="12.75" customHeight="1">
       <c r="A431" s="1"/>
@@ -13124,7 +12651,6 @@
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
       <c r="Z431" s="1"/>
-      <c r="AA431" s="1"/>
     </row>
     <row r="432" ht="12.75" customHeight="1">
       <c r="A432" s="1"/>
@@ -13153,7 +12679,6 @@
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
       <c r="Z432" s="1"/>
-      <c r="AA432" s="1"/>
     </row>
     <row r="433" ht="12.75" customHeight="1">
       <c r="A433" s="1"/>
@@ -13182,7 +12707,6 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
       <c r="Z433" s="1"/>
-      <c r="AA433" s="1"/>
     </row>
     <row r="434" ht="12.75" customHeight="1">
       <c r="A434" s="1"/>
@@ -13211,7 +12735,6 @@
       <c r="X434" s="1"/>
       <c r="Y434" s="1"/>
       <c r="Z434" s="1"/>
-      <c r="AA434" s="1"/>
     </row>
     <row r="435" ht="12.75" customHeight="1">
       <c r="A435" s="1"/>
@@ -13240,7 +12763,6 @@
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
       <c r="Z435" s="1"/>
-      <c r="AA435" s="1"/>
     </row>
     <row r="436" ht="12.75" customHeight="1">
       <c r="A436" s="1"/>
@@ -13269,7 +12791,6 @@
       <c r="X436" s="1"/>
       <c r="Y436" s="1"/>
       <c r="Z436" s="1"/>
-      <c r="AA436" s="1"/>
     </row>
     <row r="437" ht="12.75" customHeight="1">
       <c r="A437" s="1"/>
@@ -13298,7 +12819,6 @@
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
       <c r="Z437" s="1"/>
-      <c r="AA437" s="1"/>
     </row>
     <row r="438" ht="12.75" customHeight="1">
       <c r="A438" s="1"/>
@@ -13327,7 +12847,6 @@
       <c r="X438" s="1"/>
       <c r="Y438" s="1"/>
       <c r="Z438" s="1"/>
-      <c r="AA438" s="1"/>
     </row>
     <row r="439" ht="12.75" customHeight="1">
       <c r="A439" s="1"/>
@@ -13356,7 +12875,6 @@
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
       <c r="Z439" s="1"/>
-      <c r="AA439" s="1"/>
     </row>
     <row r="440" ht="12.75" customHeight="1">
       <c r="A440" s="1"/>
@@ -13385,7 +12903,6 @@
       <c r="X440" s="1"/>
       <c r="Y440" s="1"/>
       <c r="Z440" s="1"/>
-      <c r="AA440" s="1"/>
     </row>
     <row r="441" ht="12.75" customHeight="1">
       <c r="A441" s="1"/>
@@ -13414,7 +12931,6 @@
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
       <c r="Z441" s="1"/>
-      <c r="AA441" s="1"/>
     </row>
     <row r="442" ht="12.75" customHeight="1">
       <c r="A442" s="1"/>
@@ -13443,7 +12959,6 @@
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
       <c r="Z442" s="1"/>
-      <c r="AA442" s="1"/>
     </row>
     <row r="443" ht="12.75" customHeight="1">
       <c r="A443" s="1"/>
@@ -13472,7 +12987,6 @@
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
       <c r="Z443" s="1"/>
-      <c r="AA443" s="1"/>
     </row>
     <row r="444" ht="12.75" customHeight="1">
       <c r="A444" s="1"/>
@@ -13501,7 +13015,6 @@
       <c r="X444" s="1"/>
       <c r="Y444" s="1"/>
       <c r="Z444" s="1"/>
-      <c r="AA444" s="1"/>
     </row>
     <row r="445" ht="12.75" customHeight="1">
       <c r="A445" s="1"/>
@@ -13530,7 +13043,6 @@
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
       <c r="Z445" s="1"/>
-      <c r="AA445" s="1"/>
     </row>
     <row r="446" ht="12.75" customHeight="1">
       <c r="A446" s="1"/>
@@ -13559,7 +13071,6 @@
       <c r="X446" s="1"/>
       <c r="Y446" s="1"/>
       <c r="Z446" s="1"/>
-      <c r="AA446" s="1"/>
     </row>
     <row r="447" ht="12.75" customHeight="1">
       <c r="A447" s="1"/>
@@ -13588,7 +13099,6 @@
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
       <c r="Z447" s="1"/>
-      <c r="AA447" s="1"/>
     </row>
     <row r="448" ht="12.75" customHeight="1">
       <c r="A448" s="1"/>
@@ -13617,7 +13127,6 @@
       <c r="X448" s="1"/>
       <c r="Y448" s="1"/>
       <c r="Z448" s="1"/>
-      <c r="AA448" s="1"/>
     </row>
     <row r="449" ht="12.75" customHeight="1">
       <c r="A449" s="1"/>
@@ -13646,7 +13155,6 @@
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
       <c r="Z449" s="1"/>
-      <c r="AA449" s="1"/>
     </row>
     <row r="450" ht="12.75" customHeight="1">
       <c r="A450" s="1"/>
@@ -13675,7 +13183,6 @@
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
       <c r="Z450" s="1"/>
-      <c r="AA450" s="1"/>
     </row>
     <row r="451" ht="12.75" customHeight="1">
       <c r="A451" s="1"/>
@@ -13704,7 +13211,6 @@
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
       <c r="Z451" s="1"/>
-      <c r="AA451" s="1"/>
     </row>
     <row r="452" ht="12.75" customHeight="1">
       <c r="A452" s="1"/>
@@ -13733,7 +13239,6 @@
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
       <c r="Z452" s="1"/>
-      <c r="AA452" s="1"/>
     </row>
     <row r="453" ht="12.75" customHeight="1">
       <c r="A453" s="1"/>
@@ -13762,7 +13267,6 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
       <c r="Z453" s="1"/>
-      <c r="AA453" s="1"/>
     </row>
     <row r="454" ht="12.75" customHeight="1">
       <c r="A454" s="1"/>
@@ -13791,7 +13295,6 @@
       <c r="X454" s="1"/>
       <c r="Y454" s="1"/>
       <c r="Z454" s="1"/>
-      <c r="AA454" s="1"/>
     </row>
     <row r="455" ht="12.75" customHeight="1">
       <c r="A455" s="1"/>
@@ -13820,7 +13323,6 @@
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
       <c r="Z455" s="1"/>
-      <c r="AA455" s="1"/>
     </row>
     <row r="456" ht="12.75" customHeight="1">
       <c r="A456" s="1"/>
@@ -13849,7 +13351,6 @@
       <c r="X456" s="1"/>
       <c r="Y456" s="1"/>
       <c r="Z456" s="1"/>
-      <c r="AA456" s="1"/>
     </row>
     <row r="457" ht="12.75" customHeight="1">
       <c r="A457" s="1"/>
@@ -13878,7 +13379,6 @@
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
       <c r="Z457" s="1"/>
-      <c r="AA457" s="1"/>
     </row>
     <row r="458" ht="12.75" customHeight="1">
       <c r="A458" s="1"/>
@@ -13907,7 +13407,6 @@
       <c r="X458" s="1"/>
       <c r="Y458" s="1"/>
       <c r="Z458" s="1"/>
-      <c r="AA458" s="1"/>
     </row>
     <row r="459" ht="12.75" customHeight="1">
       <c r="A459" s="1"/>
@@ -13936,7 +13435,6 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
       <c r="Z459" s="1"/>
-      <c r="AA459" s="1"/>
     </row>
     <row r="460" ht="12.75" customHeight="1">
       <c r="A460" s="1"/>
@@ -13965,7 +13463,6 @@
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
       <c r="Z460" s="1"/>
-      <c r="AA460" s="1"/>
     </row>
     <row r="461" ht="12.75" customHeight="1">
       <c r="A461" s="1"/>
@@ -13994,7 +13491,6 @@
       <c r="X461" s="1"/>
       <c r="Y461" s="1"/>
       <c r="Z461" s="1"/>
-      <c r="AA461" s="1"/>
     </row>
     <row r="462" ht="12.75" customHeight="1">
       <c r="A462" s="1"/>
@@ -14023,7 +13519,6 @@
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
       <c r="Z462" s="1"/>
-      <c r="AA462" s="1"/>
     </row>
     <row r="463" ht="12.75" customHeight="1">
       <c r="A463" s="1"/>
@@ -14052,7 +13547,6 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
       <c r="Z463" s="1"/>
-      <c r="AA463" s="1"/>
     </row>
     <row r="464" ht="12.75" customHeight="1">
       <c r="A464" s="1"/>
@@ -14081,7 +13575,6 @@
       <c r="X464" s="1"/>
       <c r="Y464" s="1"/>
       <c r="Z464" s="1"/>
-      <c r="AA464" s="1"/>
     </row>
     <row r="465" ht="12.75" customHeight="1">
       <c r="A465" s="1"/>
@@ -14110,7 +13603,6 @@
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
       <c r="Z465" s="1"/>
-      <c r="AA465" s="1"/>
     </row>
     <row r="466" ht="12.75" customHeight="1">
       <c r="A466" s="1"/>
@@ -14139,7 +13631,6 @@
       <c r="X466" s="1"/>
       <c r="Y466" s="1"/>
       <c r="Z466" s="1"/>
-      <c r="AA466" s="1"/>
     </row>
     <row r="467" ht="12.75" customHeight="1">
       <c r="A467" s="1"/>
@@ -14168,7 +13659,6 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
       <c r="Z467" s="1"/>
-      <c r="AA467" s="1"/>
     </row>
     <row r="468" ht="12.75" customHeight="1">
       <c r="A468" s="1"/>
@@ -14197,7 +13687,6 @@
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
       <c r="Z468" s="1"/>
-      <c r="AA468" s="1"/>
     </row>
     <row r="469" ht="12.75" customHeight="1">
       <c r="A469" s="1"/>
@@ -14226,7 +13715,6 @@
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
       <c r="Z469" s="1"/>
-      <c r="AA469" s="1"/>
     </row>
     <row r="470" ht="12.75" customHeight="1">
       <c r="A470" s="1"/>
@@ -14255,7 +13743,6 @@
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
       <c r="Z470" s="1"/>
-      <c r="AA470" s="1"/>
     </row>
     <row r="471" ht="12.75" customHeight="1">
       <c r="A471" s="1"/>
@@ -14284,7 +13771,6 @@
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
       <c r="Z471" s="1"/>
-      <c r="AA471" s="1"/>
     </row>
     <row r="472" ht="12.75" customHeight="1">
       <c r="A472" s="1"/>
@@ -14313,7 +13799,6 @@
       <c r="X472" s="1"/>
       <c r="Y472" s="1"/>
       <c r="Z472" s="1"/>
-      <c r="AA472" s="1"/>
     </row>
     <row r="473" ht="12.75" customHeight="1">
       <c r="A473" s="1"/>
@@ -14342,7 +13827,6 @@
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
       <c r="Z473" s="1"/>
-      <c r="AA473" s="1"/>
     </row>
     <row r="474" ht="12.75" customHeight="1">
       <c r="A474" s="1"/>
@@ -14371,7 +13855,6 @@
       <c r="X474" s="1"/>
       <c r="Y474" s="1"/>
       <c r="Z474" s="1"/>
-      <c r="AA474" s="1"/>
     </row>
     <row r="475" ht="12.75" customHeight="1">
       <c r="A475" s="1"/>
@@ -14400,7 +13883,6 @@
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
       <c r="Z475" s="1"/>
-      <c r="AA475" s="1"/>
     </row>
     <row r="476" ht="12.75" customHeight="1">
       <c r="A476" s="1"/>
@@ -14429,7 +13911,6 @@
       <c r="X476" s="1"/>
       <c r="Y476" s="1"/>
       <c r="Z476" s="1"/>
-      <c r="AA476" s="1"/>
     </row>
     <row r="477" ht="12.75" customHeight="1">
       <c r="A477" s="1"/>
@@ -14458,7 +13939,6 @@
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
       <c r="Z477" s="1"/>
-      <c r="AA477" s="1"/>
     </row>
     <row r="478" ht="12.75" customHeight="1">
       <c r="A478" s="1"/>
@@ -14487,7 +13967,6 @@
       <c r="X478" s="1"/>
       <c r="Y478" s="1"/>
       <c r="Z478" s="1"/>
-      <c r="AA478" s="1"/>
     </row>
     <row r="479" ht="12.75" customHeight="1">
       <c r="A479" s="1"/>
@@ -14516,7 +13995,6 @@
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
       <c r="Z479" s="1"/>
-      <c r="AA479" s="1"/>
     </row>
     <row r="480" ht="12.75" customHeight="1">
       <c r="A480" s="1"/>
@@ -14545,7 +14023,6 @@
       <c r="X480" s="1"/>
       <c r="Y480" s="1"/>
       <c r="Z480" s="1"/>
-      <c r="AA480" s="1"/>
     </row>
     <row r="481" ht="12.75" customHeight="1">
       <c r="A481" s="1"/>
@@ -14574,7 +14051,6 @@
       <c r="X481" s="1"/>
       <c r="Y481" s="1"/>
       <c r="Z481" s="1"/>
-      <c r="AA481" s="1"/>
     </row>
     <row r="482" ht="12.75" customHeight="1">
       <c r="A482" s="1"/>
@@ -14603,7 +14079,6 @@
       <c r="X482" s="1"/>
       <c r="Y482" s="1"/>
       <c r="Z482" s="1"/>
-      <c r="AA482" s="1"/>
     </row>
     <row r="483" ht="12.75" customHeight="1">
       <c r="A483" s="1"/>
@@ -14632,7 +14107,6 @@
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
       <c r="Z483" s="1"/>
-      <c r="AA483" s="1"/>
     </row>
     <row r="484" ht="12.75" customHeight="1">
       <c r="A484" s="1"/>
@@ -14661,7 +14135,6 @@
       <c r="X484" s="1"/>
       <c r="Y484" s="1"/>
       <c r="Z484" s="1"/>
-      <c r="AA484" s="1"/>
     </row>
     <row r="485" ht="12.75" customHeight="1">
       <c r="A485" s="1"/>
@@ -14690,7 +14163,6 @@
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
       <c r="Z485" s="1"/>
-      <c r="AA485" s="1"/>
     </row>
     <row r="486" ht="12.75" customHeight="1">
       <c r="A486" s="1"/>
@@ -14719,7 +14191,6 @@
       <c r="X486" s="1"/>
       <c r="Y486" s="1"/>
       <c r="Z486" s="1"/>
-      <c r="AA486" s="1"/>
     </row>
     <row r="487" ht="12.75" customHeight="1">
       <c r="A487" s="1"/>
@@ -14748,7 +14219,6 @@
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
       <c r="Z487" s="1"/>
-      <c r="AA487" s="1"/>
     </row>
     <row r="488" ht="12.75" customHeight="1">
       <c r="A488" s="1"/>
@@ -14777,7 +14247,6 @@
       <c r="X488" s="1"/>
       <c r="Y488" s="1"/>
       <c r="Z488" s="1"/>
-      <c r="AA488" s="1"/>
     </row>
     <row r="489" ht="12.75" customHeight="1">
       <c r="A489" s="1"/>
@@ -14806,7 +14275,6 @@
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
       <c r="Z489" s="1"/>
-      <c r="AA489" s="1"/>
     </row>
     <row r="490" ht="12.75" customHeight="1">
       <c r="A490" s="1"/>
@@ -14835,7 +14303,6 @@
       <c r="X490" s="1"/>
       <c r="Y490" s="1"/>
       <c r="Z490" s="1"/>
-      <c r="AA490" s="1"/>
     </row>
     <row r="491" ht="12.75" customHeight="1">
       <c r="A491" s="1"/>
@@ -14864,7 +14331,6 @@
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
       <c r="Z491" s="1"/>
-      <c r="AA491" s="1"/>
     </row>
     <row r="492" ht="12.75" customHeight="1">
       <c r="A492" s="1"/>
@@ -14893,7 +14359,6 @@
       <c r="X492" s="1"/>
       <c r="Y492" s="1"/>
       <c r="Z492" s="1"/>
-      <c r="AA492" s="1"/>
     </row>
     <row r="493" ht="12.75" customHeight="1">
       <c r="A493" s="1"/>
@@ -14922,7 +14387,6 @@
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
       <c r="Z493" s="1"/>
-      <c r="AA493" s="1"/>
     </row>
     <row r="494" ht="12.75" customHeight="1">
       <c r="A494" s="1"/>
@@ -14951,7 +14415,6 @@
       <c r="X494" s="1"/>
       <c r="Y494" s="1"/>
       <c r="Z494" s="1"/>
-      <c r="AA494" s="1"/>
     </row>
     <row r="495" ht="12.75" customHeight="1">
       <c r="A495" s="1"/>
@@ -14980,7 +14443,6 @@
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
       <c r="Z495" s="1"/>
-      <c r="AA495" s="1"/>
     </row>
     <row r="496" ht="12.75" customHeight="1">
       <c r="A496" s="1"/>
@@ -15009,7 +14471,6 @@
       <c r="X496" s="1"/>
       <c r="Y496" s="1"/>
       <c r="Z496" s="1"/>
-      <c r="AA496" s="1"/>
     </row>
     <row r="497" ht="12.75" customHeight="1">
       <c r="A497" s="1"/>
@@ -15038,7 +14499,6 @@
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
       <c r="Z497" s="1"/>
-      <c r="AA497" s="1"/>
     </row>
     <row r="498" ht="12.75" customHeight="1">
       <c r="A498" s="1"/>
@@ -15067,7 +14527,6 @@
       <c r="X498" s="1"/>
       <c r="Y498" s="1"/>
       <c r="Z498" s="1"/>
-      <c r="AA498" s="1"/>
     </row>
     <row r="499" ht="12.75" customHeight="1">
       <c r="A499" s="1"/>
@@ -15096,7 +14555,6 @@
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
       <c r="Z499" s="1"/>
-      <c r="AA499" s="1"/>
     </row>
     <row r="500" ht="12.75" customHeight="1">
       <c r="A500" s="1"/>
@@ -15125,7 +14583,6 @@
       <c r="X500" s="1"/>
       <c r="Y500" s="1"/>
       <c r="Z500" s="1"/>
-      <c r="AA500" s="1"/>
     </row>
     <row r="501" ht="12.75" customHeight="1">
       <c r="A501" s="1"/>
@@ -15154,7 +14611,6 @@
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
       <c r="Z501" s="1"/>
-      <c r="AA501" s="1"/>
     </row>
     <row r="502" ht="12.75" customHeight="1">
       <c r="A502" s="1"/>
@@ -15183,7 +14639,6 @@
       <c r="X502" s="1"/>
       <c r="Y502" s="1"/>
       <c r="Z502" s="1"/>
-      <c r="AA502" s="1"/>
     </row>
     <row r="503" ht="12.75" customHeight="1">
       <c r="A503" s="1"/>
@@ -15212,7 +14667,6 @@
       <c r="X503" s="1"/>
       <c r="Y503" s="1"/>
       <c r="Z503" s="1"/>
-      <c r="AA503" s="1"/>
     </row>
     <row r="504" ht="12.75" customHeight="1">
       <c r="A504" s="1"/>
@@ -15241,7 +14695,6 @@
       <c r="X504" s="1"/>
       <c r="Y504" s="1"/>
       <c r="Z504" s="1"/>
-      <c r="AA504" s="1"/>
     </row>
     <row r="505" ht="12.75" customHeight="1">
       <c r="A505" s="1"/>
@@ -15270,7 +14723,6 @@
       <c r="X505" s="1"/>
       <c r="Y505" s="1"/>
       <c r="Z505" s="1"/>
-      <c r="AA505" s="1"/>
     </row>
     <row r="506" ht="12.75" customHeight="1">
       <c r="A506" s="1"/>
@@ -15299,7 +14751,6 @@
       <c r="X506" s="1"/>
       <c r="Y506" s="1"/>
       <c r="Z506" s="1"/>
-      <c r="AA506" s="1"/>
     </row>
     <row r="507" ht="12.75" customHeight="1">
       <c r="A507" s="1"/>
@@ -15328,7 +14779,6 @@
       <c r="X507" s="1"/>
       <c r="Y507" s="1"/>
       <c r="Z507" s="1"/>
-      <c r="AA507" s="1"/>
     </row>
     <row r="508" ht="12.75" customHeight="1">
       <c r="A508" s="1"/>
@@ -15357,7 +14807,6 @@
       <c r="X508" s="1"/>
       <c r="Y508" s="1"/>
       <c r="Z508" s="1"/>
-      <c r="AA508" s="1"/>
     </row>
     <row r="509" ht="12.75" customHeight="1">
       <c r="A509" s="1"/>
@@ -15386,7 +14835,6 @@
       <c r="X509" s="1"/>
       <c r="Y509" s="1"/>
       <c r="Z509" s="1"/>
-      <c r="AA509" s="1"/>
     </row>
     <row r="510" ht="12.75" customHeight="1">
       <c r="A510" s="1"/>
@@ -15415,7 +14863,6 @@
       <c r="X510" s="1"/>
       <c r="Y510" s="1"/>
       <c r="Z510" s="1"/>
-      <c r="AA510" s="1"/>
     </row>
     <row r="511" ht="12.75" customHeight="1">
       <c r="A511" s="1"/>
@@ -15444,7 +14891,6 @@
       <c r="X511" s="1"/>
       <c r="Y511" s="1"/>
       <c r="Z511" s="1"/>
-      <c r="AA511" s="1"/>
     </row>
     <row r="512" ht="12.75" customHeight="1">
       <c r="A512" s="1"/>
@@ -15473,7 +14919,6 @@
       <c r="X512" s="1"/>
       <c r="Y512" s="1"/>
       <c r="Z512" s="1"/>
-      <c r="AA512" s="1"/>
     </row>
     <row r="513" ht="12.75" customHeight="1">
       <c r="A513" s="1"/>
@@ -15502,7 +14947,6 @@
       <c r="X513" s="1"/>
       <c r="Y513" s="1"/>
       <c r="Z513" s="1"/>
-      <c r="AA513" s="1"/>
     </row>
     <row r="514" ht="12.75" customHeight="1">
       <c r="A514" s="1"/>
@@ -15531,7 +14975,6 @@
       <c r="X514" s="1"/>
       <c r="Y514" s="1"/>
       <c r="Z514" s="1"/>
-      <c r="AA514" s="1"/>
     </row>
     <row r="515" ht="12.75" customHeight="1">
       <c r="A515" s="1"/>
@@ -15560,7 +15003,6 @@
       <c r="X515" s="1"/>
       <c r="Y515" s="1"/>
       <c r="Z515" s="1"/>
-      <c r="AA515" s="1"/>
     </row>
     <row r="516" ht="12.75" customHeight="1">
       <c r="A516" s="1"/>
@@ -15589,7 +15031,6 @@
       <c r="X516" s="1"/>
       <c r="Y516" s="1"/>
       <c r="Z516" s="1"/>
-      <c r="AA516" s="1"/>
     </row>
     <row r="517" ht="12.75" customHeight="1">
       <c r="A517" s="1"/>
@@ -15618,7 +15059,6 @@
       <c r="X517" s="1"/>
       <c r="Y517" s="1"/>
       <c r="Z517" s="1"/>
-      <c r="AA517" s="1"/>
     </row>
     <row r="518" ht="12.75" customHeight="1">
       <c r="A518" s="1"/>
@@ -15647,7 +15087,6 @@
       <c r="X518" s="1"/>
       <c r="Y518" s="1"/>
       <c r="Z518" s="1"/>
-      <c r="AA518" s="1"/>
     </row>
     <row r="519" ht="12.75" customHeight="1">
       <c r="A519" s="1"/>
@@ -15676,7 +15115,6 @@
       <c r="X519" s="1"/>
       <c r="Y519" s="1"/>
       <c r="Z519" s="1"/>
-      <c r="AA519" s="1"/>
     </row>
     <row r="520" ht="12.75" customHeight="1">
       <c r="A520" s="1"/>
@@ -15705,7 +15143,6 @@
       <c r="X520" s="1"/>
       <c r="Y520" s="1"/>
       <c r="Z520" s="1"/>
-      <c r="AA520" s="1"/>
     </row>
     <row r="521" ht="12.75" customHeight="1">
       <c r="A521" s="1"/>
@@ -15734,7 +15171,6 @@
       <c r="X521" s="1"/>
       <c r="Y521" s="1"/>
       <c r="Z521" s="1"/>
-      <c r="AA521" s="1"/>
     </row>
     <row r="522" ht="12.75" customHeight="1">
       <c r="A522" s="1"/>
@@ -15763,7 +15199,6 @@
       <c r="X522" s="1"/>
       <c r="Y522" s="1"/>
       <c r="Z522" s="1"/>
-      <c r="AA522" s="1"/>
     </row>
     <row r="523" ht="12.75" customHeight="1">
       <c r="A523" s="1"/>
@@ -15792,7 +15227,6 @@
       <c r="X523" s="1"/>
       <c r="Y523" s="1"/>
       <c r="Z523" s="1"/>
-      <c r="AA523" s="1"/>
     </row>
     <row r="524" ht="12.75" customHeight="1">
       <c r="A524" s="1"/>
@@ -15821,7 +15255,6 @@
       <c r="X524" s="1"/>
       <c r="Y524" s="1"/>
       <c r="Z524" s="1"/>
-      <c r="AA524" s="1"/>
     </row>
     <row r="525" ht="12.75" customHeight="1">
       <c r="A525" s="1"/>
@@ -15850,7 +15283,6 @@
       <c r="X525" s="1"/>
       <c r="Y525" s="1"/>
       <c r="Z525" s="1"/>
-      <c r="AA525" s="1"/>
     </row>
     <row r="526" ht="12.75" customHeight="1">
       <c r="A526" s="1"/>
@@ -15879,7 +15311,6 @@
       <c r="X526" s="1"/>
       <c r="Y526" s="1"/>
       <c r="Z526" s="1"/>
-      <c r="AA526" s="1"/>
     </row>
     <row r="527" ht="12.75" customHeight="1">
       <c r="A527" s="1"/>
@@ -15908,7 +15339,6 @@
       <c r="X527" s="1"/>
       <c r="Y527" s="1"/>
       <c r="Z527" s="1"/>
-      <c r="AA527" s="1"/>
     </row>
     <row r="528" ht="12.75" customHeight="1">
       <c r="A528" s="1"/>
@@ -15937,7 +15367,6 @@
       <c r="X528" s="1"/>
       <c r="Y528" s="1"/>
       <c r="Z528" s="1"/>
-      <c r="AA528" s="1"/>
     </row>
     <row r="529" ht="12.75" customHeight="1">
       <c r="A529" s="1"/>
@@ -15966,7 +15395,6 @@
       <c r="X529" s="1"/>
       <c r="Y529" s="1"/>
       <c r="Z529" s="1"/>
-      <c r="AA529" s="1"/>
     </row>
     <row r="530" ht="12.75" customHeight="1">
       <c r="A530" s="1"/>
@@ -15995,7 +15423,6 @@
       <c r="X530" s="1"/>
       <c r="Y530" s="1"/>
       <c r="Z530" s="1"/>
-      <c r="AA530" s="1"/>
     </row>
     <row r="531" ht="12.75" customHeight="1">
       <c r="A531" s="1"/>
@@ -16024,7 +15451,6 @@
       <c r="X531" s="1"/>
       <c r="Y531" s="1"/>
       <c r="Z531" s="1"/>
-      <c r="AA531" s="1"/>
     </row>
     <row r="532" ht="12.75" customHeight="1">
       <c r="A532" s="1"/>
@@ -16053,7 +15479,6 @@
       <c r="X532" s="1"/>
       <c r="Y532" s="1"/>
       <c r="Z532" s="1"/>
-      <c r="AA532" s="1"/>
     </row>
     <row r="533" ht="12.75" customHeight="1">
       <c r="A533" s="1"/>
@@ -16082,7 +15507,6 @@
       <c r="X533" s="1"/>
       <c r="Y533" s="1"/>
       <c r="Z533" s="1"/>
-      <c r="AA533" s="1"/>
     </row>
     <row r="534" ht="12.75" customHeight="1">
       <c r="A534" s="1"/>
@@ -16111,7 +15535,6 @@
       <c r="X534" s="1"/>
       <c r="Y534" s="1"/>
       <c r="Z534" s="1"/>
-      <c r="AA534" s="1"/>
     </row>
     <row r="535" ht="12.75" customHeight="1">
       <c r="A535" s="1"/>
@@ -16140,7 +15563,6 @@
       <c r="X535" s="1"/>
       <c r="Y535" s="1"/>
       <c r="Z535" s="1"/>
-      <c r="AA535" s="1"/>
     </row>
     <row r="536" ht="12.75" customHeight="1">
       <c r="A536" s="1"/>
@@ -16169,7 +15591,6 @@
       <c r="X536" s="1"/>
       <c r="Y536" s="1"/>
       <c r="Z536" s="1"/>
-      <c r="AA536" s="1"/>
     </row>
     <row r="537" ht="12.75" customHeight="1">
       <c r="A537" s="1"/>
@@ -16198,7 +15619,6 @@
       <c r="X537" s="1"/>
       <c r="Y537" s="1"/>
       <c r="Z537" s="1"/>
-      <c r="AA537" s="1"/>
     </row>
     <row r="538" ht="12.75" customHeight="1">
       <c r="A538" s="1"/>
@@ -16227,7 +15647,6 @@
       <c r="X538" s="1"/>
       <c r="Y538" s="1"/>
       <c r="Z538" s="1"/>
-      <c r="AA538" s="1"/>
     </row>
     <row r="539" ht="12.75" customHeight="1">
       <c r="A539" s="1"/>
@@ -16256,7 +15675,6 @@
       <c r="X539" s="1"/>
       <c r="Y539" s="1"/>
       <c r="Z539" s="1"/>
-      <c r="AA539" s="1"/>
     </row>
     <row r="540" ht="12.75" customHeight="1">
       <c r="A540" s="1"/>
@@ -16285,7 +15703,6 @@
       <c r="X540" s="1"/>
       <c r="Y540" s="1"/>
       <c r="Z540" s="1"/>
-      <c r="AA540" s="1"/>
     </row>
     <row r="541" ht="12.75" customHeight="1">
       <c r="A541" s="1"/>
@@ -16314,7 +15731,6 @@
       <c r="X541" s="1"/>
       <c r="Y541" s="1"/>
       <c r="Z541" s="1"/>
-      <c r="AA541" s="1"/>
     </row>
     <row r="542" ht="12.75" customHeight="1">
       <c r="A542" s="1"/>
@@ -16343,7 +15759,6 @@
       <c r="X542" s="1"/>
       <c r="Y542" s="1"/>
       <c r="Z542" s="1"/>
-      <c r="AA542" s="1"/>
     </row>
     <row r="543" ht="12.75" customHeight="1">
       <c r="A543" s="1"/>
@@ -16372,7 +15787,6 @@
       <c r="X543" s="1"/>
       <c r="Y543" s="1"/>
       <c r="Z543" s="1"/>
-      <c r="AA543" s="1"/>
     </row>
     <row r="544" ht="12.75" customHeight="1">
       <c r="A544" s="1"/>
@@ -16401,7 +15815,6 @@
       <c r="X544" s="1"/>
       <c r="Y544" s="1"/>
       <c r="Z544" s="1"/>
-      <c r="AA544" s="1"/>
     </row>
     <row r="545" ht="12.75" customHeight="1">
       <c r="A545" s="1"/>
@@ -16430,7 +15843,6 @@
       <c r="X545" s="1"/>
       <c r="Y545" s="1"/>
       <c r="Z545" s="1"/>
-      <c r="AA545" s="1"/>
     </row>
     <row r="546" ht="12.75" customHeight="1">
       <c r="A546" s="1"/>
@@ -16459,7 +15871,6 @@
       <c r="X546" s="1"/>
       <c r="Y546" s="1"/>
       <c r="Z546" s="1"/>
-      <c r="AA546" s="1"/>
     </row>
     <row r="547" ht="12.75" customHeight="1">
       <c r="A547" s="1"/>
@@ -16488,7 +15899,6 @@
       <c r="X547" s="1"/>
       <c r="Y547" s="1"/>
       <c r="Z547" s="1"/>
-      <c r="AA547" s="1"/>
     </row>
     <row r="548" ht="12.75" customHeight="1">
       <c r="A548" s="1"/>
@@ -16517,7 +15927,6 @@
       <c r="X548" s="1"/>
       <c r="Y548" s="1"/>
       <c r="Z548" s="1"/>
-      <c r="AA548" s="1"/>
     </row>
     <row r="549" ht="12.75" customHeight="1">
       <c r="A549" s="1"/>
@@ -16546,7 +15955,6 @@
       <c r="X549" s="1"/>
       <c r="Y549" s="1"/>
       <c r="Z549" s="1"/>
-      <c r="AA549" s="1"/>
     </row>
     <row r="550" ht="12.75" customHeight="1">
       <c r="A550" s="1"/>
@@ -16575,7 +15983,6 @@
       <c r="X550" s="1"/>
       <c r="Y550" s="1"/>
       <c r="Z550" s="1"/>
-      <c r="AA550" s="1"/>
     </row>
     <row r="551" ht="12.75" customHeight="1">
       <c r="A551" s="1"/>
@@ -16604,7 +16011,6 @@
       <c r="X551" s="1"/>
       <c r="Y551" s="1"/>
       <c r="Z551" s="1"/>
-      <c r="AA551" s="1"/>
     </row>
     <row r="552" ht="12.75" customHeight="1">
       <c r="A552" s="1"/>
@@ -16633,7 +16039,6 @@
       <c r="X552" s="1"/>
       <c r="Y552" s="1"/>
       <c r="Z552" s="1"/>
-      <c r="AA552" s="1"/>
     </row>
     <row r="553" ht="12.75" customHeight="1">
       <c r="A553" s="1"/>
@@ -16662,7 +16067,6 @@
       <c r="X553" s="1"/>
       <c r="Y553" s="1"/>
       <c r="Z553" s="1"/>
-      <c r="AA553" s="1"/>
     </row>
     <row r="554" ht="12.75" customHeight="1">
       <c r="A554" s="1"/>
@@ -16691,7 +16095,6 @@
       <c r="X554" s="1"/>
       <c r="Y554" s="1"/>
       <c r="Z554" s="1"/>
-      <c r="AA554" s="1"/>
     </row>
     <row r="555" ht="12.75" customHeight="1">
       <c r="A555" s="1"/>
@@ -16720,7 +16123,6 @@
       <c r="X555" s="1"/>
       <c r="Y555" s="1"/>
       <c r="Z555" s="1"/>
-      <c r="AA555" s="1"/>
     </row>
     <row r="556" ht="12.75" customHeight="1">
       <c r="A556" s="1"/>
@@ -16749,7 +16151,6 @@
       <c r="X556" s="1"/>
       <c r="Y556" s="1"/>
       <c r="Z556" s="1"/>
-      <c r="AA556" s="1"/>
     </row>
     <row r="557" ht="12.75" customHeight="1">
       <c r="A557" s="1"/>
@@ -16778,7 +16179,6 @@
       <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
       <c r="Z557" s="1"/>
-      <c r="AA557" s="1"/>
     </row>
     <row r="558" ht="12.75" customHeight="1">
       <c r="A558" s="1"/>
@@ -16807,7 +16207,6 @@
       <c r="X558" s="1"/>
       <c r="Y558" s="1"/>
       <c r="Z558" s="1"/>
-      <c r="AA558" s="1"/>
     </row>
     <row r="559" ht="12.75" customHeight="1">
       <c r="A559" s="1"/>
@@ -16836,7 +16235,6 @@
       <c r="X559" s="1"/>
       <c r="Y559" s="1"/>
       <c r="Z559" s="1"/>
-      <c r="AA559" s="1"/>
     </row>
     <row r="560" ht="12.75" customHeight="1">
       <c r="A560" s="1"/>
@@ -16865,7 +16263,6 @@
       <c r="X560" s="1"/>
       <c r="Y560" s="1"/>
       <c r="Z560" s="1"/>
-      <c r="AA560" s="1"/>
     </row>
     <row r="561" ht="12.75" customHeight="1">
       <c r="A561" s="1"/>
@@ -16894,7 +16291,6 @@
       <c r="X561" s="1"/>
       <c r="Y561" s="1"/>
       <c r="Z561" s="1"/>
-      <c r="AA561" s="1"/>
     </row>
     <row r="562" ht="12.75" customHeight="1">
       <c r="A562" s="1"/>
@@ -16923,7 +16319,6 @@
       <c r="X562" s="1"/>
       <c r="Y562" s="1"/>
       <c r="Z562" s="1"/>
-      <c r="AA562" s="1"/>
     </row>
     <row r="563" ht="12.75" customHeight="1">
       <c r="A563" s="1"/>
@@ -16952,7 +16347,6 @@
       <c r="X563" s="1"/>
       <c r="Y563" s="1"/>
       <c r="Z563" s="1"/>
-      <c r="AA563" s="1"/>
     </row>
     <row r="564" ht="12.75" customHeight="1">
       <c r="A564" s="1"/>
@@ -16981,7 +16375,6 @@
       <c r="X564" s="1"/>
       <c r="Y564" s="1"/>
       <c r="Z564" s="1"/>
-      <c r="AA564" s="1"/>
     </row>
     <row r="565" ht="12.75" customHeight="1">
       <c r="A565" s="1"/>
@@ -17010,7 +16403,6 @@
       <c r="X565" s="1"/>
       <c r="Y565" s="1"/>
       <c r="Z565" s="1"/>
-      <c r="AA565" s="1"/>
     </row>
     <row r="566" ht="12.75" customHeight="1">
       <c r="A566" s="1"/>
@@ -17039,7 +16431,6 @@
       <c r="X566" s="1"/>
       <c r="Y566" s="1"/>
       <c r="Z566" s="1"/>
-      <c r="AA566" s="1"/>
     </row>
     <row r="567" ht="12.75" customHeight="1">
       <c r="A567" s="1"/>
@@ -17068,7 +16459,6 @@
       <c r="X567" s="1"/>
       <c r="Y567" s="1"/>
       <c r="Z567" s="1"/>
-      <c r="AA567" s="1"/>
     </row>
     <row r="568" ht="12.75" customHeight="1">
       <c r="A568" s="1"/>
@@ -17097,7 +16487,6 @@
       <c r="X568" s="1"/>
       <c r="Y568" s="1"/>
       <c r="Z568" s="1"/>
-      <c r="AA568" s="1"/>
     </row>
     <row r="569" ht="12.75" customHeight="1">
       <c r="A569" s="1"/>
@@ -17126,7 +16515,6 @@
       <c r="X569" s="1"/>
       <c r="Y569" s="1"/>
       <c r="Z569" s="1"/>
-      <c r="AA569" s="1"/>
     </row>
     <row r="570" ht="12.75" customHeight="1">
       <c r="A570" s="1"/>
@@ -17155,7 +16543,6 @@
       <c r="X570" s="1"/>
       <c r="Y570" s="1"/>
       <c r="Z570" s="1"/>
-      <c r="AA570" s="1"/>
     </row>
     <row r="571" ht="12.75" customHeight="1">
       <c r="A571" s="1"/>
@@ -17184,7 +16571,6 @@
       <c r="X571" s="1"/>
       <c r="Y571" s="1"/>
       <c r="Z571" s="1"/>
-      <c r="AA571" s="1"/>
     </row>
     <row r="572" ht="12.75" customHeight="1">
       <c r="A572" s="1"/>
@@ -17213,7 +16599,6 @@
       <c r="X572" s="1"/>
       <c r="Y572" s="1"/>
       <c r="Z572" s="1"/>
-      <c r="AA572" s="1"/>
     </row>
     <row r="573" ht="12.75" customHeight="1">
       <c r="A573" s="1"/>
@@ -17242,7 +16627,6 @@
       <c r="X573" s="1"/>
       <c r="Y573" s="1"/>
       <c r="Z573" s="1"/>
-      <c r="AA573" s="1"/>
     </row>
     <row r="574" ht="12.75" customHeight="1">
       <c r="A574" s="1"/>
@@ -17271,7 +16655,6 @@
       <c r="X574" s="1"/>
       <c r="Y574" s="1"/>
       <c r="Z574" s="1"/>
-      <c r="AA574" s="1"/>
     </row>
     <row r="575" ht="12.75" customHeight="1">
       <c r="A575" s="1"/>
@@ -17300,7 +16683,6 @@
       <c r="X575" s="1"/>
       <c r="Y575" s="1"/>
       <c r="Z575" s="1"/>
-      <c r="AA575" s="1"/>
     </row>
     <row r="576" ht="12.75" customHeight="1">
       <c r="A576" s="1"/>
@@ -17329,7 +16711,6 @@
       <c r="X576" s="1"/>
       <c r="Y576" s="1"/>
       <c r="Z576" s="1"/>
-      <c r="AA576" s="1"/>
     </row>
     <row r="577" ht="12.75" customHeight="1">
       <c r="A577" s="1"/>
@@ -17358,7 +16739,6 @@
       <c r="X577" s="1"/>
       <c r="Y577" s="1"/>
       <c r="Z577" s="1"/>
-      <c r="AA577" s="1"/>
     </row>
     <row r="578" ht="12.75" customHeight="1">
       <c r="A578" s="1"/>
@@ -17387,7 +16767,6 @@
       <c r="X578" s="1"/>
       <c r="Y578" s="1"/>
       <c r="Z578" s="1"/>
-      <c r="AA578" s="1"/>
     </row>
     <row r="579" ht="12.75" customHeight="1">
       <c r="A579" s="1"/>
@@ -17416,7 +16795,6 @@
       <c r="X579" s="1"/>
       <c r="Y579" s="1"/>
       <c r="Z579" s="1"/>
-      <c r="AA579" s="1"/>
     </row>
     <row r="580" ht="12.75" customHeight="1">
       <c r="A580" s="1"/>
@@ -17445,7 +16823,6 @@
       <c r="X580" s="1"/>
       <c r="Y580" s="1"/>
       <c r="Z580" s="1"/>
-      <c r="AA580" s="1"/>
     </row>
     <row r="581" ht="12.75" customHeight="1">
       <c r="A581" s="1"/>
@@ -17474,7 +16851,6 @@
       <c r="X581" s="1"/>
       <c r="Y581" s="1"/>
       <c r="Z581" s="1"/>
-      <c r="AA581" s="1"/>
     </row>
     <row r="582" ht="12.75" customHeight="1">
       <c r="A582" s="1"/>
@@ -17503,7 +16879,6 @@
       <c r="X582" s="1"/>
       <c r="Y582" s="1"/>
       <c r="Z582" s="1"/>
-      <c r="AA582" s="1"/>
     </row>
     <row r="583" ht="12.75" customHeight="1">
       <c r="A583" s="1"/>
@@ -17532,7 +16907,6 @@
       <c r="X583" s="1"/>
       <c r="Y583" s="1"/>
       <c r="Z583" s="1"/>
-      <c r="AA583" s="1"/>
     </row>
     <row r="584" ht="12.75" customHeight="1">
       <c r="A584" s="1"/>
@@ -17561,7 +16935,6 @@
       <c r="X584" s="1"/>
       <c r="Y584" s="1"/>
       <c r="Z584" s="1"/>
-      <c r="AA584" s="1"/>
     </row>
     <row r="585" ht="12.75" customHeight="1">
       <c r="A585" s="1"/>
@@ -17590,7 +16963,6 @@
       <c r="X585" s="1"/>
       <c r="Y585" s="1"/>
       <c r="Z585" s="1"/>
-      <c r="AA585" s="1"/>
     </row>
     <row r="586" ht="12.75" customHeight="1">
       <c r="A586" s="1"/>
@@ -17619,7 +16991,6 @@
       <c r="X586" s="1"/>
       <c r="Y586" s="1"/>
       <c r="Z586" s="1"/>
-      <c r="AA586" s="1"/>
     </row>
     <row r="587" ht="12.75" customHeight="1">
       <c r="A587" s="1"/>
@@ -17648,7 +17019,6 @@
       <c r="X587" s="1"/>
       <c r="Y587" s="1"/>
       <c r="Z587" s="1"/>
-      <c r="AA587" s="1"/>
     </row>
     <row r="588" ht="12.75" customHeight="1">
       <c r="A588" s="1"/>
@@ -17677,7 +17047,6 @@
       <c r="X588" s="1"/>
       <c r="Y588" s="1"/>
       <c r="Z588" s="1"/>
-      <c r="AA588" s="1"/>
     </row>
     <row r="589" ht="12.75" customHeight="1">
       <c r="A589" s="1"/>
@@ -17706,7 +17075,6 @@
       <c r="X589" s="1"/>
       <c r="Y589" s="1"/>
       <c r="Z589" s="1"/>
-      <c r="AA589" s="1"/>
     </row>
     <row r="590" ht="12.75" customHeight="1">
       <c r="A590" s="1"/>
@@ -17735,7 +17103,6 @@
       <c r="X590" s="1"/>
       <c r="Y590" s="1"/>
       <c r="Z590" s="1"/>
-      <c r="AA590" s="1"/>
     </row>
     <row r="591" ht="12.75" customHeight="1">
       <c r="A591" s="1"/>
@@ -17764,7 +17131,6 @@
       <c r="X591" s="1"/>
       <c r="Y591" s="1"/>
       <c r="Z591" s="1"/>
-      <c r="AA591" s="1"/>
     </row>
     <row r="592" ht="12.75" customHeight="1">
       <c r="A592" s="1"/>
@@ -17793,7 +17159,6 @@
       <c r="X592" s="1"/>
       <c r="Y592" s="1"/>
       <c r="Z592" s="1"/>
-      <c r="AA592" s="1"/>
     </row>
     <row r="593" ht="12.75" customHeight="1">
       <c r="A593" s="1"/>
@@ -17822,7 +17187,6 @@
       <c r="X593" s="1"/>
       <c r="Y593" s="1"/>
       <c r="Z593" s="1"/>
-      <c r="AA593" s="1"/>
     </row>
     <row r="594" ht="12.75" customHeight="1">
       <c r="A594" s="1"/>
@@ -17851,7 +17215,6 @@
       <c r="X594" s="1"/>
       <c r="Y594" s="1"/>
       <c r="Z594" s="1"/>
-      <c r="AA594" s="1"/>
     </row>
     <row r="595" ht="12.75" customHeight="1">
       <c r="A595" s="1"/>
@@ -17880,7 +17243,6 @@
       <c r="X595" s="1"/>
       <c r="Y595" s="1"/>
       <c r="Z595" s="1"/>
-      <c r="AA595" s="1"/>
     </row>
     <row r="596" ht="12.75" customHeight="1">
       <c r="A596" s="1"/>
@@ -17909,7 +17271,6 @@
       <c r="X596" s="1"/>
       <c r="Y596" s="1"/>
       <c r="Z596" s="1"/>
-      <c r="AA596" s="1"/>
     </row>
     <row r="597" ht="12.75" customHeight="1">
       <c r="A597" s="1"/>
@@ -17938,7 +17299,6 @@
       <c r="X597" s="1"/>
       <c r="Y597" s="1"/>
       <c r="Z597" s="1"/>
-      <c r="AA597" s="1"/>
     </row>
     <row r="598" ht="12.75" customHeight="1">
       <c r="A598" s="1"/>
@@ -17967,7 +17327,6 @@
       <c r="X598" s="1"/>
       <c r="Y598" s="1"/>
       <c r="Z598" s="1"/>
-      <c r="AA598" s="1"/>
     </row>
     <row r="599" ht="12.75" customHeight="1">
       <c r="A599" s="1"/>
@@ -17996,7 +17355,6 @@
       <c r="X599" s="1"/>
       <c r="Y599" s="1"/>
       <c r="Z599" s="1"/>
-      <c r="AA599" s="1"/>
     </row>
     <row r="600" ht="12.75" customHeight="1">
       <c r="A600" s="1"/>
@@ -18025,7 +17383,6 @@
       <c r="X600" s="1"/>
       <c r="Y600" s="1"/>
       <c r="Z600" s="1"/>
-      <c r="AA600" s="1"/>
     </row>
     <row r="601" ht="12.75" customHeight="1">
       <c r="A601" s="1"/>
@@ -18054,7 +17411,6 @@
       <c r="X601" s="1"/>
       <c r="Y601" s="1"/>
       <c r="Z601" s="1"/>
-      <c r="AA601" s="1"/>
     </row>
     <row r="602" ht="12.75" customHeight="1">
       <c r="A602" s="1"/>
@@ -18083,7 +17439,6 @@
       <c r="X602" s="1"/>
       <c r="Y602" s="1"/>
       <c r="Z602" s="1"/>
-      <c r="AA602" s="1"/>
     </row>
     <row r="603" ht="12.75" customHeight="1">
       <c r="A603" s="1"/>
@@ -18112,7 +17467,6 @@
       <c r="X603" s="1"/>
       <c r="Y603" s="1"/>
       <c r="Z603" s="1"/>
-      <c r="AA603" s="1"/>
     </row>
     <row r="604" ht="12.75" customHeight="1">
       <c r="A604" s="1"/>
@@ -18141,7 +17495,6 @@
       <c r="X604" s="1"/>
       <c r="Y604" s="1"/>
       <c r="Z604" s="1"/>
-      <c r="AA604" s="1"/>
     </row>
     <row r="605" ht="12.75" customHeight="1">
       <c r="A605" s="1"/>
@@ -18170,7 +17523,6 @@
       <c r="X605" s="1"/>
       <c r="Y605" s="1"/>
       <c r="Z605" s="1"/>
-      <c r="AA605" s="1"/>
     </row>
     <row r="606" ht="12.75" customHeight="1">
       <c r="A606" s="1"/>
@@ -18199,7 +17551,6 @@
       <c r="X606" s="1"/>
       <c r="Y606" s="1"/>
       <c r="Z606" s="1"/>
-      <c r="AA606" s="1"/>
     </row>
     <row r="607" ht="12.75" customHeight="1">
       <c r="A607" s="1"/>
@@ -18228,7 +17579,6 @@
       <c r="X607" s="1"/>
       <c r="Y607" s="1"/>
       <c r="Z607" s="1"/>
-      <c r="AA607" s="1"/>
     </row>
     <row r="608" ht="12.75" customHeight="1">
       <c r="A608" s="1"/>
@@ -18257,7 +17607,6 @@
       <c r="X608" s="1"/>
       <c r="Y608" s="1"/>
       <c r="Z608" s="1"/>
-      <c r="AA608" s="1"/>
     </row>
     <row r="609" ht="12.75" customHeight="1">
       <c r="A609" s="1"/>
@@ -18286,7 +17635,6 @@
       <c r="X609" s="1"/>
       <c r="Y609" s="1"/>
       <c r="Z609" s="1"/>
-      <c r="AA609" s="1"/>
     </row>
     <row r="610" ht="12.75" customHeight="1">
       <c r="A610" s="1"/>
@@ -18315,7 +17663,6 @@
       <c r="X610" s="1"/>
       <c r="Y610" s="1"/>
       <c r="Z610" s="1"/>
-      <c r="AA610" s="1"/>
     </row>
     <row r="611" ht="12.75" customHeight="1">
       <c r="A611" s="1"/>
@@ -18344,7 +17691,6 @@
       <c r="X611" s="1"/>
       <c r="Y611" s="1"/>
       <c r="Z611" s="1"/>
-      <c r="AA611" s="1"/>
     </row>
     <row r="612" ht="12.75" customHeight="1">
       <c r="A612" s="1"/>
@@ -18373,7 +17719,6 @@
       <c r="X612" s="1"/>
       <c r="Y612" s="1"/>
       <c r="Z612" s="1"/>
-      <c r="AA612" s="1"/>
     </row>
     <row r="613" ht="12.75" customHeight="1">
       <c r="A613" s="1"/>
@@ -18402,7 +17747,6 @@
       <c r="X613" s="1"/>
       <c r="Y613" s="1"/>
       <c r="Z613" s="1"/>
-      <c r="AA613" s="1"/>
     </row>
     <row r="614" ht="12.75" customHeight="1">
       <c r="A614" s="1"/>
@@ -18431,7 +17775,6 @@
       <c r="X614" s="1"/>
       <c r="Y614" s="1"/>
       <c r="Z614" s="1"/>
-      <c r="AA614" s="1"/>
     </row>
     <row r="615" ht="12.75" customHeight="1">
       <c r="A615" s="1"/>
@@ -18460,7 +17803,6 @@
       <c r="X615" s="1"/>
       <c r="Y615" s="1"/>
       <c r="Z615" s="1"/>
-      <c r="AA615" s="1"/>
     </row>
     <row r="616" ht="12.75" customHeight="1">
       <c r="A616" s="1"/>
@@ -18489,7 +17831,6 @@
       <c r="X616" s="1"/>
       <c r="Y616" s="1"/>
       <c r="Z616" s="1"/>
-      <c r="AA616" s="1"/>
     </row>
     <row r="617" ht="12.75" customHeight="1">
       <c r="A617" s="1"/>
@@ -18518,7 +17859,6 @@
       <c r="X617" s="1"/>
       <c r="Y617" s="1"/>
       <c r="Z617" s="1"/>
-      <c r="AA617" s="1"/>
     </row>
     <row r="618" ht="12.75" customHeight="1">
       <c r="A618" s="1"/>
@@ -18547,7 +17887,6 @@
       <c r="X618" s="1"/>
       <c r="Y618" s="1"/>
       <c r="Z618" s="1"/>
-      <c r="AA618" s="1"/>
     </row>
     <row r="619" ht="12.75" customHeight="1">
       <c r="A619" s="1"/>
@@ -18576,7 +17915,6 @@
       <c r="X619" s="1"/>
       <c r="Y619" s="1"/>
       <c r="Z619" s="1"/>
-      <c r="AA619" s="1"/>
     </row>
     <row r="620" ht="12.75" customHeight="1">
       <c r="A620" s="1"/>
@@ -18605,7 +17943,6 @@
       <c r="X620" s="1"/>
       <c r="Y620" s="1"/>
       <c r="Z620" s="1"/>
-      <c r="AA620" s="1"/>
     </row>
     <row r="621" ht="12.75" customHeight="1">
       <c r="A621" s="1"/>
@@ -18634,7 +17971,6 @@
       <c r="X621" s="1"/>
       <c r="Y621" s="1"/>
       <c r="Z621" s="1"/>
-      <c r="AA621" s="1"/>
     </row>
     <row r="622" ht="12.75" customHeight="1">
       <c r="A622" s="1"/>
@@ -18663,7 +17999,6 @@
       <c r="X622" s="1"/>
       <c r="Y622" s="1"/>
       <c r="Z622" s="1"/>
-      <c r="AA622" s="1"/>
     </row>
     <row r="623" ht="12.75" customHeight="1">
       <c r="A623" s="1"/>
@@ -18692,7 +18027,6 @@
       <c r="X623" s="1"/>
       <c r="Y623" s="1"/>
       <c r="Z623" s="1"/>
-      <c r="AA623" s="1"/>
     </row>
     <row r="624" ht="12.75" customHeight="1">
       <c r="A624" s="1"/>
@@ -18721,7 +18055,6 @@
       <c r="X624" s="1"/>
       <c r="Y624" s="1"/>
       <c r="Z624" s="1"/>
-      <c r="AA624" s="1"/>
     </row>
     <row r="625" ht="12.75" customHeight="1">
       <c r="A625" s="1"/>
@@ -18750,7 +18083,6 @@
       <c r="X625" s="1"/>
       <c r="Y625" s="1"/>
       <c r="Z625" s="1"/>
-      <c r="AA625" s="1"/>
     </row>
     <row r="626" ht="12.75" customHeight="1">
       <c r="A626" s="1"/>
@@ -18779,7 +18111,6 @@
       <c r="X626" s="1"/>
       <c r="Y626" s="1"/>
       <c r="Z626" s="1"/>
-      <c r="AA626" s="1"/>
     </row>
     <row r="627" ht="12.75" customHeight="1">
       <c r="A627" s="1"/>
@@ -18808,7 +18139,6 @@
       <c r="X627" s="1"/>
       <c r="Y627" s="1"/>
       <c r="Z627" s="1"/>
-      <c r="AA627" s="1"/>
     </row>
     <row r="628" ht="12.75" customHeight="1">
       <c r="A628" s="1"/>
@@ -18837,7 +18167,6 @@
       <c r="X628" s="1"/>
       <c r="Y628" s="1"/>
       <c r="Z628" s="1"/>
-      <c r="AA628" s="1"/>
     </row>
     <row r="629" ht="12.75" customHeight="1">
       <c r="A629" s="1"/>
@@ -18866,7 +18195,6 @@
       <c r="X629" s="1"/>
       <c r="Y629" s="1"/>
       <c r="Z629" s="1"/>
-      <c r="AA629" s="1"/>
     </row>
     <row r="630" ht="12.75" customHeight="1">
       <c r="A630" s="1"/>
@@ -18895,7 +18223,6 @@
       <c r="X630" s="1"/>
       <c r="Y630" s="1"/>
       <c r="Z630" s="1"/>
-      <c r="AA630" s="1"/>
     </row>
     <row r="631" ht="12.75" customHeight="1">
       <c r="A631" s="1"/>
@@ -18924,7 +18251,6 @@
       <c r="X631" s="1"/>
       <c r="Y631" s="1"/>
       <c r="Z631" s="1"/>
-      <c r="AA631" s="1"/>
     </row>
     <row r="632" ht="12.75" customHeight="1">
       <c r="A632" s="1"/>
@@ -18953,7 +18279,6 @@
       <c r="X632" s="1"/>
       <c r="Y632" s="1"/>
       <c r="Z632" s="1"/>
-      <c r="AA632" s="1"/>
     </row>
     <row r="633" ht="12.75" customHeight="1">
       <c r="A633" s="1"/>
@@ -18982,7 +18307,6 @@
       <c r="X633" s="1"/>
       <c r="Y633" s="1"/>
       <c r="Z633" s="1"/>
-      <c r="AA633" s="1"/>
     </row>
     <row r="634" ht="12.75" customHeight="1">
       <c r="A634" s="1"/>
@@ -19011,7 +18335,6 @@
       <c r="X634" s="1"/>
       <c r="Y634" s="1"/>
       <c r="Z634" s="1"/>
-      <c r="AA634" s="1"/>
     </row>
     <row r="635" ht="12.75" customHeight="1">
       <c r="A635" s="1"/>
@@ -19040,7 +18363,6 @@
       <c r="X635" s="1"/>
       <c r="Y635" s="1"/>
       <c r="Z635" s="1"/>
-      <c r="AA635" s="1"/>
     </row>
     <row r="636" ht="12.75" customHeight="1">
       <c r="A636" s="1"/>
@@ -19069,7 +18391,6 @@
       <c r="X636" s="1"/>
       <c r="Y636" s="1"/>
       <c r="Z636" s="1"/>
-      <c r="AA636" s="1"/>
     </row>
     <row r="637" ht="12.75" customHeight="1">
       <c r="A637" s="1"/>
@@ -19098,7 +18419,6 @@
       <c r="X637" s="1"/>
       <c r="Y637" s="1"/>
       <c r="Z637" s="1"/>
-      <c r="AA637" s="1"/>
     </row>
     <row r="638" ht="12.75" customHeight="1">
       <c r="A638" s="1"/>
@@ -19127,7 +18447,6 @@
       <c r="X638" s="1"/>
       <c r="Y638" s="1"/>
       <c r="Z638" s="1"/>
-      <c r="AA638" s="1"/>
     </row>
     <row r="639" ht="12.75" customHeight="1">
       <c r="A639" s="1"/>
@@ -19156,7 +18475,6 @@
       <c r="X639" s="1"/>
       <c r="Y639" s="1"/>
       <c r="Z639" s="1"/>
-      <c r="AA639" s="1"/>
     </row>
     <row r="640" ht="12.75" customHeight="1">
       <c r="A640" s="1"/>
@@ -19185,7 +18503,6 @@
       <c r="X640" s="1"/>
       <c r="Y640" s="1"/>
       <c r="Z640" s="1"/>
-      <c r="AA640" s="1"/>
     </row>
     <row r="641" ht="12.75" customHeight="1">
       <c r="A641" s="1"/>
@@ -19214,7 +18531,6 @@
       <c r="X641" s="1"/>
       <c r="Y641" s="1"/>
       <c r="Z641" s="1"/>
-      <c r="AA641" s="1"/>
     </row>
     <row r="642" ht="12.75" customHeight="1">
       <c r="A642" s="1"/>
@@ -19243,7 +18559,6 @@
       <c r="X642" s="1"/>
       <c r="Y642" s="1"/>
       <c r="Z642" s="1"/>
-      <c r="AA642" s="1"/>
     </row>
     <row r="643" ht="12.75" customHeight="1">
       <c r="A643" s="1"/>
@@ -19272,7 +18587,6 @@
       <c r="X643" s="1"/>
       <c r="Y643" s="1"/>
       <c r="Z643" s="1"/>
-      <c r="AA643" s="1"/>
     </row>
     <row r="644" ht="12.75" customHeight="1">
       <c r="A644" s="1"/>
@@ -19301,7 +18615,6 @@
       <c r="X644" s="1"/>
       <c r="Y644" s="1"/>
       <c r="Z644" s="1"/>
-      <c r="AA644" s="1"/>
     </row>
     <row r="645" ht="12.75" customHeight="1">
       <c r="A645" s="1"/>
@@ -19330,7 +18643,6 @@
       <c r="X645" s="1"/>
       <c r="Y645" s="1"/>
       <c r="Z645" s="1"/>
-      <c r="AA645" s="1"/>
     </row>
     <row r="646" ht="12.75" customHeight="1">
       <c r="A646" s="1"/>
@@ -19359,7 +18671,6 @@
       <c r="X646" s="1"/>
       <c r="Y646" s="1"/>
       <c r="Z646" s="1"/>
-      <c r="AA646" s="1"/>
     </row>
     <row r="647" ht="12.75" customHeight="1">
       <c r="A647" s="1"/>
@@ -19388,7 +18699,6 @@
       <c r="X647" s="1"/>
       <c r="Y647" s="1"/>
       <c r="Z647" s="1"/>
-      <c r="AA647" s="1"/>
     </row>
     <row r="648" ht="12.75" customHeight="1">
       <c r="A648" s="1"/>
@@ -19417,7 +18727,6 @@
       <c r="X648" s="1"/>
       <c r="Y648" s="1"/>
       <c r="Z648" s="1"/>
-      <c r="AA648" s="1"/>
     </row>
     <row r="649" ht="12.75" customHeight="1">
       <c r="A649" s="1"/>
@@ -19446,7 +18755,6 @@
       <c r="X649" s="1"/>
       <c r="Y649" s="1"/>
       <c r="Z649" s="1"/>
-      <c r="AA649" s="1"/>
     </row>
     <row r="650" ht="12.75" customHeight="1">
       <c r="A650" s="1"/>
@@ -19475,7 +18783,6 @@
       <c r="X650" s="1"/>
       <c r="Y650" s="1"/>
       <c r="Z650" s="1"/>
-      <c r="AA650" s="1"/>
     </row>
     <row r="651" ht="12.75" customHeight="1">
       <c r="A651" s="1"/>
@@ -19504,7 +18811,6 @@
       <c r="X651" s="1"/>
       <c r="Y651" s="1"/>
       <c r="Z651" s="1"/>
-      <c r="AA651" s="1"/>
     </row>
     <row r="652" ht="12.75" customHeight="1">
       <c r="A652" s="1"/>
@@ -19533,7 +18839,6 @@
       <c r="X652" s="1"/>
       <c r="Y652" s="1"/>
       <c r="Z652" s="1"/>
-      <c r="AA652" s="1"/>
     </row>
     <row r="653" ht="12.75" customHeight="1">
       <c r="A653" s="1"/>
@@ -19562,7 +18867,6 @@
       <c r="X653" s="1"/>
       <c r="Y653" s="1"/>
       <c r="Z653" s="1"/>
-      <c r="AA653" s="1"/>
     </row>
     <row r="654" ht="12.75" customHeight="1">
       <c r="A654" s="1"/>
@@ -19591,7 +18895,6 @@
       <c r="X654" s="1"/>
       <c r="Y654" s="1"/>
       <c r="Z654" s="1"/>
-      <c r="AA654" s="1"/>
     </row>
     <row r="655" ht="12.75" customHeight="1">
       <c r="A655" s="1"/>
@@ -19620,7 +18923,6 @@
       <c r="X655" s="1"/>
       <c r="Y655" s="1"/>
       <c r="Z655" s="1"/>
-      <c r="AA655" s="1"/>
     </row>
     <row r="656" ht="12.75" customHeight="1">
       <c r="A656" s="1"/>
@@ -19649,7 +18951,6 @@
       <c r="X656" s="1"/>
       <c r="Y656" s="1"/>
       <c r="Z656" s="1"/>
-      <c r="AA656" s="1"/>
     </row>
     <row r="657" ht="12.75" customHeight="1">
       <c r="A657" s="1"/>
@@ -19678,7 +18979,6 @@
       <c r="X657" s="1"/>
       <c r="Y657" s="1"/>
       <c r="Z657" s="1"/>
-      <c r="AA657" s="1"/>
     </row>
     <row r="658" ht="12.75" customHeight="1">
       <c r="A658" s="1"/>
@@ -19707,7 +19007,6 @@
       <c r="X658" s="1"/>
       <c r="Y658" s="1"/>
       <c r="Z658" s="1"/>
-      <c r="AA658" s="1"/>
     </row>
     <row r="659" ht="12.75" customHeight="1">
       <c r="A659" s="1"/>
@@ -19736,7 +19035,6 @@
       <c r="X659" s="1"/>
       <c r="Y659" s="1"/>
       <c r="Z659" s="1"/>
-      <c r="AA659" s="1"/>
     </row>
     <row r="660" ht="12.75" customHeight="1">
       <c r="A660" s="1"/>
@@ -19765,7 +19063,6 @@
       <c r="X660" s="1"/>
       <c r="Y660" s="1"/>
       <c r="Z660" s="1"/>
-      <c r="AA660" s="1"/>
     </row>
     <row r="661" ht="12.75" customHeight="1">
       <c r="A661" s="1"/>
@@ -19794,7 +19091,6 @@
       <c r="X661" s="1"/>
       <c r="Y661" s="1"/>
       <c r="Z661" s="1"/>
-      <c r="AA661" s="1"/>
     </row>
     <row r="662" ht="12.75" customHeight="1">
       <c r="A662" s="1"/>
@@ -19823,7 +19119,6 @@
       <c r="X662" s="1"/>
       <c r="Y662" s="1"/>
       <c r="Z662" s="1"/>
-      <c r="AA662" s="1"/>
     </row>
     <row r="663" ht="12.75" customHeight="1">
       <c r="A663" s="1"/>
@@ -19852,7 +19147,6 @@
       <c r="X663" s="1"/>
       <c r="Y663" s="1"/>
       <c r="Z663" s="1"/>
-      <c r="AA663" s="1"/>
     </row>
     <row r="664" ht="12.75" customHeight="1">
       <c r="A664" s="1"/>
@@ -19881,7 +19175,6 @@
       <c r="X664" s="1"/>
       <c r="Y664" s="1"/>
       <c r="Z664" s="1"/>
-      <c r="AA664" s="1"/>
     </row>
     <row r="665" ht="12.75" customHeight="1">
       <c r="A665" s="1"/>
@@ -19910,7 +19203,6 @@
       <c r="X665" s="1"/>
       <c r="Y665" s="1"/>
       <c r="Z665" s="1"/>
-      <c r="AA665" s="1"/>
     </row>
     <row r="666" ht="12.75" customHeight="1">
       <c r="A666" s="1"/>
@@ -19939,7 +19231,6 @@
       <c r="X666" s="1"/>
       <c r="Y666" s="1"/>
       <c r="Z666" s="1"/>
-      <c r="AA666" s="1"/>
     </row>
     <row r="667" ht="12.75" customHeight="1">
       <c r="A667" s="1"/>
@@ -19968,7 +19259,6 @@
       <c r="X667" s="1"/>
       <c r="Y667" s="1"/>
       <c r="Z667" s="1"/>
-      <c r="AA667" s="1"/>
     </row>
     <row r="668" ht="12.75" customHeight="1">
       <c r="A668" s="1"/>
@@ -19997,7 +19287,6 @@
       <c r="X668" s="1"/>
       <c r="Y668" s="1"/>
       <c r="Z668" s="1"/>
-      <c r="AA668" s="1"/>
     </row>
     <row r="669" ht="12.75" customHeight="1">
       <c r="A669" s="1"/>
@@ -20026,7 +19315,6 @@
       <c r="X669" s="1"/>
       <c r="Y669" s="1"/>
       <c r="Z669" s="1"/>
-      <c r="AA669" s="1"/>
     </row>
     <row r="670" ht="12.75" customHeight="1">
       <c r="A670" s="1"/>
@@ -20055,7 +19343,6 @@
       <c r="X670" s="1"/>
       <c r="Y670" s="1"/>
       <c r="Z670" s="1"/>
-      <c r="AA670" s="1"/>
     </row>
     <row r="671" ht="12.75" customHeight="1">
       <c r="A671" s="1"/>
@@ -20084,7 +19371,6 @@
       <c r="X671" s="1"/>
       <c r="Y671" s="1"/>
       <c r="Z671" s="1"/>
-      <c r="AA671" s="1"/>
     </row>
     <row r="672" ht="12.75" customHeight="1">
       <c r="A672" s="1"/>
@@ -20113,7 +19399,6 @@
       <c r="X672" s="1"/>
       <c r="Y672" s="1"/>
       <c r="Z672" s="1"/>
-      <c r="AA672" s="1"/>
     </row>
     <row r="673" ht="12.75" customHeight="1">
       <c r="A673" s="1"/>
@@ -20142,7 +19427,6 @@
       <c r="X673" s="1"/>
       <c r="Y673" s="1"/>
       <c r="Z673" s="1"/>
-      <c r="AA673" s="1"/>
     </row>
     <row r="674" ht="12.75" customHeight="1">
       <c r="A674" s="1"/>
@@ -20171,7 +19455,6 @@
       <c r="X674" s="1"/>
       <c r="Y674" s="1"/>
       <c r="Z674" s="1"/>
-      <c r="AA674" s="1"/>
     </row>
     <row r="675" ht="12.75" customHeight="1">
       <c r="A675" s="1"/>
@@ -20200,7 +19483,6 @@
       <c r="X675" s="1"/>
       <c r="Y675" s="1"/>
       <c r="Z675" s="1"/>
-      <c r="AA675" s="1"/>
     </row>
     <row r="676" ht="12.75" customHeight="1">
       <c r="A676" s="1"/>
@@ -20229,7 +19511,6 @@
       <c r="X676" s="1"/>
       <c r="Y676" s="1"/>
       <c r="Z676" s="1"/>
-      <c r="AA676" s="1"/>
     </row>
     <row r="677" ht="12.75" customHeight="1">
       <c r="A677" s="1"/>
@@ -20258,7 +19539,6 @@
       <c r="X677" s="1"/>
       <c r="Y677" s="1"/>
       <c r="Z677" s="1"/>
-      <c r="AA677" s="1"/>
     </row>
     <row r="678" ht="12.75" customHeight="1">
       <c r="A678" s="1"/>
@@ -20287,7 +19567,6 @@
       <c r="X678" s="1"/>
       <c r="Y678" s="1"/>
       <c r="Z678" s="1"/>
-      <c r="AA678" s="1"/>
     </row>
     <row r="679" ht="12.75" customHeight="1">
       <c r="A679" s="1"/>
@@ -20316,7 +19595,6 @@
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
       <c r="Z679" s="1"/>
-      <c r="AA679" s="1"/>
     </row>
     <row r="680" ht="12.75" customHeight="1">
       <c r="A680" s="1"/>
@@ -20345,7 +19623,6 @@
       <c r="X680" s="1"/>
       <c r="Y680" s="1"/>
       <c r="Z680" s="1"/>
-      <c r="AA680" s="1"/>
     </row>
     <row r="681" ht="12.75" customHeight="1">
       <c r="A681" s="1"/>
@@ -20374,7 +19651,6 @@
       <c r="X681" s="1"/>
       <c r="Y681" s="1"/>
       <c r="Z681" s="1"/>
-      <c r="AA681" s="1"/>
     </row>
     <row r="682" ht="12.75" customHeight="1">
       <c r="A682" s="1"/>
@@ -20403,7 +19679,6 @@
       <c r="X682" s="1"/>
       <c r="Y682" s="1"/>
       <c r="Z682" s="1"/>
-      <c r="AA682" s="1"/>
     </row>
     <row r="683" ht="12.75" customHeight="1">
       <c r="A683" s="1"/>
@@ -20432,7 +19707,6 @@
       <c r="X683" s="1"/>
       <c r="Y683" s="1"/>
       <c r="Z683" s="1"/>
-      <c r="AA683" s="1"/>
     </row>
     <row r="684" ht="12.75" customHeight="1">
       <c r="A684" s="1"/>
@@ -20461,7 +19735,6 @@
       <c r="X684" s="1"/>
       <c r="Y684" s="1"/>
       <c r="Z684" s="1"/>
-      <c r="AA684" s="1"/>
     </row>
     <row r="685" ht="12.75" customHeight="1">
       <c r="A685" s="1"/>
@@ -20490,7 +19763,6 @@
       <c r="X685" s="1"/>
       <c r="Y685" s="1"/>
       <c r="Z685" s="1"/>
-      <c r="AA685" s="1"/>
     </row>
     <row r="686" ht="12.75" customHeight="1">
       <c r="A686" s="1"/>
@@ -20519,7 +19791,6 @@
       <c r="X686" s="1"/>
       <c r="Y686" s="1"/>
       <c r="Z686" s="1"/>
-      <c r="AA686" s="1"/>
     </row>
     <row r="687" ht="12.75" customHeight="1">
       <c r="A687" s="1"/>
@@ -20548,7 +19819,6 @@
       <c r="X687" s="1"/>
       <c r="Y687" s="1"/>
       <c r="Z687" s="1"/>
-      <c r="AA687" s="1"/>
     </row>
     <row r="688" ht="12.75" customHeight="1">
       <c r="A688" s="1"/>
@@ -20577,7 +19847,6 @@
       <c r="X688" s="1"/>
       <c r="Y688" s="1"/>
       <c r="Z688" s="1"/>
-      <c r="AA688" s="1"/>
     </row>
     <row r="689" ht="12.75" customHeight="1">
       <c r="A689" s="1"/>
@@ -20606,7 +19875,6 @@
       <c r="X689" s="1"/>
       <c r="Y689" s="1"/>
       <c r="Z689" s="1"/>
-      <c r="AA689" s="1"/>
     </row>
     <row r="690" ht="12.75" customHeight="1">
       <c r="A690" s="1"/>
@@ -20635,7 +19903,6 @@
       <c r="X690" s="1"/>
       <c r="Y690" s="1"/>
       <c r="Z690" s="1"/>
-      <c r="AA690" s="1"/>
     </row>
     <row r="691" ht="12.75" customHeight="1">
       <c r="A691" s="1"/>
@@ -20664,7 +19931,6 @@
       <c r="X691" s="1"/>
       <c r="Y691" s="1"/>
       <c r="Z691" s="1"/>
-      <c r="AA691" s="1"/>
     </row>
     <row r="692" ht="12.75" customHeight="1">
       <c r="A692" s="1"/>
@@ -20693,7 +19959,6 @@
       <c r="X692" s="1"/>
       <c r="Y692" s="1"/>
       <c r="Z692" s="1"/>
-      <c r="AA692" s="1"/>
     </row>
     <row r="693" ht="12.75" customHeight="1">
       <c r="A693" s="1"/>
@@ -20722,7 +19987,6 @@
       <c r="X693" s="1"/>
       <c r="Y693" s="1"/>
       <c r="Z693" s="1"/>
-      <c r="AA693" s="1"/>
     </row>
     <row r="694" ht="12.75" customHeight="1">
       <c r="A694" s="1"/>
@@ -20751,7 +20015,6 @@
       <c r="X694" s="1"/>
       <c r="Y694" s="1"/>
       <c r="Z694" s="1"/>
-      <c r="AA694" s="1"/>
     </row>
     <row r="695" ht="12.75" customHeight="1">
       <c r="A695" s="1"/>
@@ -20780,7 +20043,6 @@
       <c r="X695" s="1"/>
       <c r="Y695" s="1"/>
       <c r="Z695" s="1"/>
-      <c r="AA695" s="1"/>
     </row>
     <row r="696" ht="12.75" customHeight="1">
       <c r="A696" s="1"/>
@@ -20809,7 +20071,6 @@
       <c r="X696" s="1"/>
       <c r="Y696" s="1"/>
       <c r="Z696" s="1"/>
-      <c r="AA696" s="1"/>
     </row>
     <row r="697" ht="12.75" customHeight="1">
       <c r="A697" s="1"/>
@@ -20838,7 +20099,6 @@
       <c r="X697" s="1"/>
       <c r="Y697" s="1"/>
       <c r="Z697" s="1"/>
-      <c r="AA697" s="1"/>
     </row>
     <row r="698" ht="12.75" customHeight="1">
       <c r="A698" s="1"/>
@@ -20867,7 +20127,6 @@
       <c r="X698" s="1"/>
       <c r="Y698" s="1"/>
       <c r="Z698" s="1"/>
-      <c r="AA698" s="1"/>
     </row>
     <row r="699" ht="12.75" customHeight="1">
       <c r="A699" s="1"/>
@@ -20896,7 +20155,6 @@
       <c r="X699" s="1"/>
       <c r="Y699" s="1"/>
       <c r="Z699" s="1"/>
-      <c r="AA699" s="1"/>
     </row>
     <row r="700" ht="12.75" customHeight="1">
       <c r="A700" s="1"/>
@@ -20925,7 +20183,6 @@
       <c r="X700" s="1"/>
       <c r="Y700" s="1"/>
       <c r="Z700" s="1"/>
-      <c r="AA700" s="1"/>
     </row>
     <row r="701" ht="12.75" customHeight="1">
       <c r="A701" s="1"/>
@@ -20954,7 +20211,6 @@
       <c r="X701" s="1"/>
       <c r="Y701" s="1"/>
       <c r="Z701" s="1"/>
-      <c r="AA701" s="1"/>
     </row>
     <row r="702" ht="12.75" customHeight="1">
       <c r="A702" s="1"/>
@@ -20983,7 +20239,6 @@
       <c r="X702" s="1"/>
       <c r="Y702" s="1"/>
       <c r="Z702" s="1"/>
-      <c r="AA702" s="1"/>
     </row>
     <row r="703" ht="12.75" customHeight="1">
       <c r="A703" s="1"/>
@@ -21012,7 +20267,6 @@
       <c r="X703" s="1"/>
       <c r="Y703" s="1"/>
       <c r="Z703" s="1"/>
-      <c r="AA703" s="1"/>
     </row>
     <row r="704" ht="12.75" customHeight="1">
       <c r="A704" s="1"/>
@@ -21041,7 +20295,6 @@
       <c r="X704" s="1"/>
       <c r="Y704" s="1"/>
       <c r="Z704" s="1"/>
-      <c r="AA704" s="1"/>
     </row>
     <row r="705" ht="12.75" customHeight="1">
       <c r="A705" s="1"/>
@@ -21070,7 +20323,6 @@
       <c r="X705" s="1"/>
       <c r="Y705" s="1"/>
       <c r="Z705" s="1"/>
-      <c r="AA705" s="1"/>
     </row>
     <row r="706" ht="12.75" customHeight="1">
       <c r="A706" s="1"/>
@@ -21099,7 +20351,6 @@
       <c r="X706" s="1"/>
       <c r="Y706" s="1"/>
       <c r="Z706" s="1"/>
-      <c r="AA706" s="1"/>
     </row>
     <row r="707" ht="12.75" customHeight="1">
       <c r="A707" s="1"/>
@@ -21128,7 +20379,6 @@
       <c r="X707" s="1"/>
       <c r="Y707" s="1"/>
       <c r="Z707" s="1"/>
-      <c r="AA707" s="1"/>
     </row>
     <row r="708" ht="12.75" customHeight="1">
       <c r="A708" s="1"/>
@@ -21157,7 +20407,6 @@
       <c r="X708" s="1"/>
       <c r="Y708" s="1"/>
       <c r="Z708" s="1"/>
-      <c r="AA708" s="1"/>
     </row>
     <row r="709" ht="12.75" customHeight="1">
       <c r="A709" s="1"/>
@@ -21186,7 +20435,6 @@
       <c r="X709" s="1"/>
       <c r="Y709" s="1"/>
       <c r="Z709" s="1"/>
-      <c r="AA709" s="1"/>
     </row>
     <row r="710" ht="12.75" customHeight="1">
       <c r="A710" s="1"/>
@@ -21215,7 +20463,6 @@
       <c r="X710" s="1"/>
       <c r="Y710" s="1"/>
       <c r="Z710" s="1"/>
-      <c r="AA710" s="1"/>
     </row>
     <row r="711" ht="12.75" customHeight="1">
       <c r="A711" s="1"/>
@@ -21244,7 +20491,6 @@
       <c r="X711" s="1"/>
       <c r="Y711" s="1"/>
       <c r="Z711" s="1"/>
-      <c r="AA711" s="1"/>
     </row>
     <row r="712" ht="12.75" customHeight="1">
       <c r="A712" s="1"/>
@@ -21273,7 +20519,6 @@
       <c r="X712" s="1"/>
       <c r="Y712" s="1"/>
       <c r="Z712" s="1"/>
-      <c r="AA712" s="1"/>
     </row>
     <row r="713" ht="12.75" customHeight="1">
       <c r="A713" s="1"/>
@@ -21302,7 +20547,6 @@
       <c r="X713" s="1"/>
       <c r="Y713" s="1"/>
       <c r="Z713" s="1"/>
-      <c r="AA713" s="1"/>
     </row>
     <row r="714" ht="12.75" customHeight="1">
       <c r="A714" s="1"/>
@@ -21331,7 +20575,6 @@
       <c r="X714" s="1"/>
       <c r="Y714" s="1"/>
       <c r="Z714" s="1"/>
-      <c r="AA714" s="1"/>
     </row>
     <row r="715" ht="12.75" customHeight="1">
       <c r="A715" s="1"/>
@@ -21360,7 +20603,6 @@
       <c r="X715" s="1"/>
       <c r="Y715" s="1"/>
       <c r="Z715" s="1"/>
-      <c r="AA715" s="1"/>
     </row>
     <row r="716" ht="12.75" customHeight="1">
       <c r="A716" s="1"/>
@@ -21389,7 +20631,6 @@
       <c r="X716" s="1"/>
       <c r="Y716" s="1"/>
       <c r="Z716" s="1"/>
-      <c r="AA716" s="1"/>
     </row>
     <row r="717" ht="12.75" customHeight="1">
       <c r="A717" s="1"/>
@@ -21418,7 +20659,6 @@
       <c r="X717" s="1"/>
       <c r="Y717" s="1"/>
       <c r="Z717" s="1"/>
-      <c r="AA717" s="1"/>
     </row>
     <row r="718" ht="12.75" customHeight="1">
       <c r="A718" s="1"/>
@@ -21447,7 +20687,6 @@
       <c r="X718" s="1"/>
       <c r="Y718" s="1"/>
       <c r="Z718" s="1"/>
-      <c r="AA718" s="1"/>
     </row>
     <row r="719" ht="12.75" customHeight="1">
       <c r="A719" s="1"/>
@@ -21476,7 +20715,6 @@
       <c r="X719" s="1"/>
       <c r="Y719" s="1"/>
       <c r="Z719" s="1"/>
-      <c r="AA719" s="1"/>
     </row>
     <row r="720" ht="12.75" customHeight="1">
       <c r="A720" s="1"/>
@@ -21505,7 +20743,6 @@
       <c r="X720" s="1"/>
       <c r="Y720" s="1"/>
       <c r="Z720" s="1"/>
-      <c r="AA720" s="1"/>
     </row>
     <row r="721" ht="12.75" customHeight="1">
       <c r="A721" s="1"/>
@@ -21534,7 +20771,6 @@
       <c r="X721" s="1"/>
       <c r="Y721" s="1"/>
       <c r="Z721" s="1"/>
-      <c r="AA721" s="1"/>
     </row>
     <row r="722" ht="12.75" customHeight="1">
       <c r="A722" s="1"/>
@@ -21563,7 +20799,6 @@
       <c r="X722" s="1"/>
       <c r="Y722" s="1"/>
       <c r="Z722" s="1"/>
-      <c r="AA722" s="1"/>
     </row>
     <row r="723" ht="12.75" customHeight="1">
       <c r="A723" s="1"/>
@@ -21592,7 +20827,6 @@
       <c r="X723" s="1"/>
       <c r="Y723" s="1"/>
       <c r="Z723" s="1"/>
-      <c r="AA723" s="1"/>
     </row>
     <row r="724" ht="12.75" customHeight="1">
       <c r="A724" s="1"/>
@@ -21621,7 +20855,6 @@
       <c r="X724" s="1"/>
       <c r="Y724" s="1"/>
       <c r="Z724" s="1"/>
-      <c r="AA724" s="1"/>
     </row>
     <row r="725" ht="12.75" customHeight="1">
       <c r="A725" s="1"/>
@@ -21650,7 +20883,6 @@
       <c r="X725" s="1"/>
       <c r="Y725" s="1"/>
       <c r="Z725" s="1"/>
-      <c r="AA725" s="1"/>
     </row>
     <row r="726" ht="12.75" customHeight="1">
       <c r="A726" s="1"/>
@@ -21679,7 +20911,6 @@
       <c r="X726" s="1"/>
       <c r="Y726" s="1"/>
       <c r="Z726" s="1"/>
-      <c r="AA726" s="1"/>
     </row>
     <row r="727" ht="12.75" customHeight="1">
       <c r="A727" s="1"/>
@@ -21708,7 +20939,6 @@
       <c r="X727" s="1"/>
       <c r="Y727" s="1"/>
       <c r="Z727" s="1"/>
-      <c r="AA727" s="1"/>
     </row>
     <row r="728" ht="12.75" customHeight="1">
       <c r="A728" s="1"/>
@@ -21737,7 +20967,6 @@
       <c r="X728" s="1"/>
       <c r="Y728" s="1"/>
       <c r="Z728" s="1"/>
-      <c r="AA728" s="1"/>
     </row>
     <row r="729" ht="12.75" customHeight="1">
       <c r="A729" s="1"/>
@@ -21766,7 +20995,6 @@
       <c r="X729" s="1"/>
       <c r="Y729" s="1"/>
       <c r="Z729" s="1"/>
-      <c r="AA729" s="1"/>
     </row>
     <row r="730" ht="12.75" customHeight="1">
       <c r="A730" s="1"/>
@@ -21795,7 +21023,6 @@
       <c r="X730" s="1"/>
       <c r="Y730" s="1"/>
       <c r="Z730" s="1"/>
-      <c r="AA730" s="1"/>
     </row>
     <row r="731" ht="12.75" customHeight="1">
       <c r="A731" s="1"/>
@@ -21824,7 +21051,6 @@
       <c r="X731" s="1"/>
       <c r="Y731" s="1"/>
       <c r="Z731" s="1"/>
-      <c r="AA731" s="1"/>
     </row>
     <row r="732" ht="12.75" customHeight="1">
       <c r="A732" s="1"/>
@@ -21853,7 +21079,6 @@
       <c r="X732" s="1"/>
       <c r="Y732" s="1"/>
       <c r="Z732" s="1"/>
-      <c r="AA732" s="1"/>
     </row>
     <row r="733" ht="12.75" customHeight="1">
       <c r="A733" s="1"/>
@@ -21882,7 +21107,6 @@
       <c r="X733" s="1"/>
       <c r="Y733" s="1"/>
       <c r="Z733" s="1"/>
-      <c r="AA733" s="1"/>
     </row>
     <row r="734" ht="12.75" customHeight="1">
       <c r="A734" s="1"/>
@@ -21911,7 +21135,6 @@
       <c r="X734" s="1"/>
       <c r="Y734" s="1"/>
       <c r="Z734" s="1"/>
-      <c r="AA734" s="1"/>
     </row>
     <row r="735" ht="12.75" customHeight="1">
       <c r="A735" s="1"/>
@@ -21940,7 +21163,6 @@
       <c r="X735" s="1"/>
       <c r="Y735" s="1"/>
       <c r="Z735" s="1"/>
-      <c r="AA735" s="1"/>
     </row>
     <row r="736" ht="12.75" customHeight="1">
       <c r="A736" s="1"/>
@@ -21969,7 +21191,6 @@
       <c r="X736" s="1"/>
       <c r="Y736" s="1"/>
       <c r="Z736" s="1"/>
-      <c r="AA736" s="1"/>
     </row>
     <row r="737" ht="12.75" customHeight="1">
       <c r="A737" s="1"/>
@@ -21998,7 +21219,6 @@
       <c r="X737" s="1"/>
       <c r="Y737" s="1"/>
       <c r="Z737" s="1"/>
-      <c r="AA737" s="1"/>
     </row>
     <row r="738" ht="12.75" customHeight="1">
       <c r="A738" s="1"/>
@@ -22027,7 +21247,6 @@
       <c r="X738" s="1"/>
       <c r="Y738" s="1"/>
       <c r="Z738" s="1"/>
-      <c r="AA738" s="1"/>
     </row>
     <row r="739" ht="12.75" customHeight="1">
       <c r="A739" s="1"/>
@@ -22056,7 +21275,6 @@
       <c r="X739" s="1"/>
       <c r="Y739" s="1"/>
       <c r="Z739" s="1"/>
-      <c r="AA739" s="1"/>
     </row>
     <row r="740" ht="12.75" customHeight="1">
       <c r="A740" s="1"/>
@@ -22085,7 +21303,6 @@
       <c r="X740" s="1"/>
       <c r="Y740" s="1"/>
       <c r="Z740" s="1"/>
-      <c r="AA740" s="1"/>
     </row>
     <row r="741" ht="12.75" customHeight="1">
       <c r="A741" s="1"/>
@@ -22114,7 +21331,6 @@
       <c r="X741" s="1"/>
       <c r="Y741" s="1"/>
       <c r="Z741" s="1"/>
-      <c r="AA741" s="1"/>
     </row>
     <row r="742" ht="12.75" customHeight="1">
       <c r="A742" s="1"/>
@@ -22143,7 +21359,6 @@
       <c r="X742" s="1"/>
       <c r="Y742" s="1"/>
       <c r="Z742" s="1"/>
-      <c r="AA742" s="1"/>
     </row>
     <row r="743" ht="12.75" customHeight="1">
       <c r="A743" s="1"/>
@@ -22172,7 +21387,6 @@
       <c r="X743" s="1"/>
       <c r="Y743" s="1"/>
       <c r="Z743" s="1"/>
-      <c r="AA743" s="1"/>
     </row>
     <row r="744" ht="12.75" customHeight="1">
       <c r="A744" s="1"/>
@@ -22201,7 +21415,6 @@
       <c r="X744" s="1"/>
       <c r="Y744" s="1"/>
       <c r="Z744" s="1"/>
-      <c r="AA744" s="1"/>
     </row>
     <row r="745" ht="12.75" customHeight="1">
       <c r="A745" s="1"/>
@@ -22230,7 +21443,6 @@
       <c r="X745" s="1"/>
       <c r="Y745" s="1"/>
       <c r="Z745" s="1"/>
-      <c r="AA745" s="1"/>
     </row>
     <row r="746" ht="12.75" customHeight="1">
       <c r="A746" s="1"/>
@@ -22259,7 +21471,6 @@
       <c r="X746" s="1"/>
       <c r="Y746" s="1"/>
       <c r="Z746" s="1"/>
-      <c r="AA746" s="1"/>
     </row>
     <row r="747" ht="12.75" customHeight="1">
       <c r="A747" s="1"/>
@@ -22288,7 +21499,6 @@
       <c r="X747" s="1"/>
       <c r="Y747" s="1"/>
       <c r="Z747" s="1"/>
-      <c r="AA747" s="1"/>
     </row>
     <row r="748" ht="12.75" customHeight="1">
       <c r="A748" s="1"/>
@@ -22317,7 +21527,6 @@
       <c r="X748" s="1"/>
       <c r="Y748" s="1"/>
       <c r="Z748" s="1"/>
-      <c r="AA748" s="1"/>
     </row>
     <row r="749" ht="12.75" customHeight="1">
       <c r="A749" s="1"/>
@@ -22346,7 +21555,6 @@
       <c r="X749" s="1"/>
       <c r="Y749" s="1"/>
       <c r="Z749" s="1"/>
-      <c r="AA749" s="1"/>
     </row>
     <row r="750" ht="12.75" customHeight="1">
       <c r="A750" s="1"/>
@@ -22375,7 +21583,6 @@
       <c r="X750" s="1"/>
       <c r="Y750" s="1"/>
       <c r="Z750" s="1"/>
-      <c r="AA750" s="1"/>
     </row>
     <row r="751" ht="12.75" customHeight="1">
       <c r="A751" s="1"/>
@@ -22404,7 +21611,6 @@
       <c r="X751" s="1"/>
       <c r="Y751" s="1"/>
       <c r="Z751" s="1"/>
-      <c r="AA751" s="1"/>
     </row>
     <row r="752" ht="12.75" customHeight="1">
       <c r="A752" s="1"/>
@@ -22433,7 +21639,6 @@
       <c r="X752" s="1"/>
       <c r="Y752" s="1"/>
       <c r="Z752" s="1"/>
-      <c r="AA752" s="1"/>
     </row>
     <row r="753" ht="12.75" customHeight="1">
       <c r="A753" s="1"/>
@@ -22462,7 +21667,6 @@
       <c r="X753" s="1"/>
       <c r="Y753" s="1"/>
       <c r="Z753" s="1"/>
-      <c r="AA753" s="1"/>
     </row>
     <row r="754" ht="12.75" customHeight="1">
       <c r="A754" s="1"/>
@@ -22491,7 +21695,6 @@
       <c r="X754" s="1"/>
       <c r="Y754" s="1"/>
       <c r="Z754" s="1"/>
-      <c r="AA754" s="1"/>
     </row>
     <row r="755" ht="12.75" customHeight="1">
       <c r="A755" s="1"/>
@@ -22520,7 +21723,6 @@
       <c r="X755" s="1"/>
       <c r="Y755" s="1"/>
       <c r="Z755" s="1"/>
-      <c r="AA755" s="1"/>
     </row>
     <row r="756" ht="12.75" customHeight="1">
       <c r="A756" s="1"/>
@@ -22549,7 +21751,6 @@
       <c r="X756" s="1"/>
       <c r="Y756" s="1"/>
       <c r="Z756" s="1"/>
-      <c r="AA756" s="1"/>
     </row>
     <row r="757" ht="12.75" customHeight="1">
       <c r="A757" s="1"/>
@@ -22578,7 +21779,6 @@
       <c r="X757" s="1"/>
       <c r="Y757" s="1"/>
       <c r="Z757" s="1"/>
-      <c r="AA757" s="1"/>
     </row>
     <row r="758" ht="12.75" customHeight="1">
       <c r="A758" s="1"/>
@@ -22607,7 +21807,6 @@
       <c r="X758" s="1"/>
       <c r="Y758" s="1"/>
       <c r="Z758" s="1"/>
-      <c r="AA758" s="1"/>
     </row>
     <row r="759" ht="12.75" customHeight="1">
       <c r="A759" s="1"/>
@@ -22636,7 +21835,6 @@
       <c r="X759" s="1"/>
       <c r="Y759" s="1"/>
       <c r="Z759" s="1"/>
-      <c r="AA759" s="1"/>
     </row>
     <row r="760" ht="12.75" customHeight="1">
       <c r="A760" s="1"/>
@@ -22665,7 +21863,6 @@
       <c r="X760" s="1"/>
       <c r="Y760" s="1"/>
       <c r="Z760" s="1"/>
-      <c r="AA760" s="1"/>
     </row>
     <row r="761" ht="12.75" customHeight="1">
       <c r="A761" s="1"/>
@@ -22694,7 +21891,6 @@
       <c r="X761" s="1"/>
       <c r="Y761" s="1"/>
       <c r="Z761" s="1"/>
-      <c r="AA761" s="1"/>
     </row>
     <row r="762" ht="12.75" customHeight="1">
       <c r="A762" s="1"/>
@@ -22723,7 +21919,6 @@
       <c r="X762" s="1"/>
       <c r="Y762" s="1"/>
       <c r="Z762" s="1"/>
-      <c r="AA762" s="1"/>
     </row>
     <row r="763" ht="12.75" customHeight="1">
       <c r="A763" s="1"/>
@@ -22752,7 +21947,6 @@
       <c r="X763" s="1"/>
       <c r="Y763" s="1"/>
       <c r="Z763" s="1"/>
-      <c r="AA763" s="1"/>
     </row>
     <row r="764" ht="12.75" customHeight="1">
       <c r="A764" s="1"/>
@@ -22781,7 +21975,6 @@
       <c r="X764" s="1"/>
       <c r="Y764" s="1"/>
       <c r="Z764" s="1"/>
-      <c r="AA764" s="1"/>
     </row>
     <row r="765" ht="12.75" customHeight="1">
       <c r="A765" s="1"/>
@@ -22810,7 +22003,6 @@
       <c r="X765" s="1"/>
       <c r="Y765" s="1"/>
       <c r="Z765" s="1"/>
-      <c r="AA765" s="1"/>
     </row>
     <row r="766" ht="12.75" customHeight="1">
       <c r="A766" s="1"/>
@@ -22839,7 +22031,6 @@
       <c r="X766" s="1"/>
       <c r="Y766" s="1"/>
       <c r="Z766" s="1"/>
-      <c r="AA766" s="1"/>
     </row>
     <row r="767" ht="12.75" customHeight="1">
       <c r="A767" s="1"/>
@@ -22868,7 +22059,6 @@
       <c r="X767" s="1"/>
       <c r="Y767" s="1"/>
       <c r="Z767" s="1"/>
-      <c r="AA767" s="1"/>
     </row>
     <row r="768" ht="12.75" customHeight="1">
       <c r="A768" s="1"/>
@@ -22897,7 +22087,6 @@
       <c r="X768" s="1"/>
       <c r="Y768" s="1"/>
       <c r="Z768" s="1"/>
-      <c r="AA768" s="1"/>
     </row>
     <row r="769" ht="12.75" customHeight="1">
       <c r="A769" s="1"/>
@@ -22926,7 +22115,6 @@
       <c r="X769" s="1"/>
       <c r="Y769" s="1"/>
       <c r="Z769" s="1"/>
-      <c r="AA769" s="1"/>
     </row>
     <row r="770" ht="12.75" customHeight="1">
       <c r="A770" s="1"/>
@@ -22955,7 +22143,6 @@
       <c r="X770" s="1"/>
       <c r="Y770" s="1"/>
       <c r="Z770" s="1"/>
-      <c r="AA770" s="1"/>
     </row>
     <row r="771" ht="12.75" customHeight="1">
       <c r="A771" s="1"/>
@@ -22984,7 +22171,6 @@
       <c r="X771" s="1"/>
       <c r="Y771" s="1"/>
       <c r="Z771" s="1"/>
-      <c r="AA771" s="1"/>
     </row>
     <row r="772" ht="12.75" customHeight="1">
       <c r="A772" s="1"/>
@@ -23013,7 +22199,6 @@
       <c r="X772" s="1"/>
       <c r="Y772" s="1"/>
       <c r="Z772" s="1"/>
-      <c r="AA772" s="1"/>
     </row>
     <row r="773" ht="12.75" customHeight="1">
       <c r="A773" s="1"/>
@@ -23042,7 +22227,6 @@
       <c r="X773" s="1"/>
       <c r="Y773" s="1"/>
       <c r="Z773" s="1"/>
-      <c r="AA773" s="1"/>
     </row>
     <row r="774" ht="12.75" customHeight="1">
       <c r="A774" s="1"/>
@@ -23071,7 +22255,6 @@
       <c r="X774" s="1"/>
       <c r="Y774" s="1"/>
       <c r="Z774" s="1"/>
-      <c r="AA774" s="1"/>
     </row>
     <row r="775" ht="12.75" customHeight="1">
       <c r="A775" s="1"/>
@@ -23100,7 +22283,6 @@
       <c r="X775" s="1"/>
       <c r="Y775" s="1"/>
       <c r="Z775" s="1"/>
-      <c r="AA775" s="1"/>
     </row>
     <row r="776" ht="12.75" customHeight="1">
       <c r="A776" s="1"/>
@@ -23129,7 +22311,6 @@
       <c r="X776" s="1"/>
       <c r="Y776" s="1"/>
       <c r="Z776" s="1"/>
-      <c r="AA776" s="1"/>
     </row>
     <row r="777" ht="12.75" customHeight="1">
       <c r="A777" s="1"/>
@@ -23158,7 +22339,6 @@
       <c r="X777" s="1"/>
       <c r="Y777" s="1"/>
       <c r="Z777" s="1"/>
-      <c r="AA777" s="1"/>
     </row>
     <row r="778" ht="12.75" customHeight="1">
       <c r="A778" s="1"/>
@@ -23187,7 +22367,6 @@
       <c r="X778" s="1"/>
       <c r="Y778" s="1"/>
       <c r="Z778" s="1"/>
-      <c r="AA778" s="1"/>
     </row>
     <row r="779" ht="12.75" customHeight="1">
       <c r="A779" s="1"/>
@@ -23216,7 +22395,6 @@
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
       <c r="Z779" s="1"/>
-      <c r="AA779" s="1"/>
     </row>
     <row r="780" ht="12.75" customHeight="1">
       <c r="A780" s="1"/>
@@ -23245,7 +22423,6 @@
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
       <c r="Z780" s="1"/>
-      <c r="AA780" s="1"/>
     </row>
     <row r="781" ht="12.75" customHeight="1">
       <c r="A781" s="1"/>
@@ -23274,7 +22451,6 @@
       <c r="X781" s="1"/>
       <c r="Y781" s="1"/>
       <c r="Z781" s="1"/>
-      <c r="AA781" s="1"/>
     </row>
     <row r="782" ht="12.75" customHeight="1">
       <c r="A782" s="1"/>
@@ -23303,7 +22479,6 @@
       <c r="X782" s="1"/>
       <c r="Y782" s="1"/>
       <c r="Z782" s="1"/>
-      <c r="AA782" s="1"/>
     </row>
     <row r="783" ht="12.75" customHeight="1">
       <c r="A783" s="1"/>
@@ -23332,7 +22507,6 @@
       <c r="X783" s="1"/>
       <c r="Y783" s="1"/>
       <c r="Z783" s="1"/>
-      <c r="AA783" s="1"/>
     </row>
     <row r="784" ht="12.75" customHeight="1">
       <c r="A784" s="1"/>
@@ -23361,7 +22535,6 @@
       <c r="X784" s="1"/>
       <c r="Y784" s="1"/>
       <c r="Z784" s="1"/>
-      <c r="AA784" s="1"/>
     </row>
     <row r="785" ht="12.75" customHeight="1">
       <c r="A785" s="1"/>
@@ -23390,7 +22563,6 @@
       <c r="X785" s="1"/>
       <c r="Y785" s="1"/>
       <c r="Z785" s="1"/>
-      <c r="AA785" s="1"/>
     </row>
     <row r="786" ht="12.75" customHeight="1">
       <c r="A786" s="1"/>
@@ -23419,7 +22591,6 @@
       <c r="X786" s="1"/>
       <c r="Y786" s="1"/>
       <c r="Z786" s="1"/>
-      <c r="AA786" s="1"/>
     </row>
     <row r="787" ht="12.75" customHeight="1">
       <c r="A787" s="1"/>
@@ -23448,7 +22619,6 @@
       <c r="X787" s="1"/>
       <c r="Y787" s="1"/>
       <c r="Z787" s="1"/>
-      <c r="AA787" s="1"/>
     </row>
     <row r="788" ht="12.75" customHeight="1">
       <c r="A788" s="1"/>
@@ -23477,7 +22647,6 @@
       <c r="X788" s="1"/>
       <c r="Y788" s="1"/>
       <c r="Z788" s="1"/>
-      <c r="AA788" s="1"/>
     </row>
     <row r="789" ht="12.75" customHeight="1">
       <c r="A789" s="1"/>
@@ -23506,7 +22675,6 @@
       <c r="X789" s="1"/>
       <c r="Y789" s="1"/>
       <c r="Z789" s="1"/>
-      <c r="AA789" s="1"/>
     </row>
     <row r="790" ht="12.75" customHeight="1">
       <c r="A790" s="1"/>
@@ -23535,7 +22703,6 @@
       <c r="X790" s="1"/>
       <c r="Y790" s="1"/>
       <c r="Z790" s="1"/>
-      <c r="AA790" s="1"/>
     </row>
     <row r="791" ht="12.75" customHeight="1">
       <c r="A791" s="1"/>
@@ -23564,7 +22731,6 @@
       <c r="X791" s="1"/>
       <c r="Y791" s="1"/>
       <c r="Z791" s="1"/>
-      <c r="AA791" s="1"/>
     </row>
     <row r="792" ht="12.75" customHeight="1">
       <c r="A792" s="1"/>
@@ -23593,7 +22759,6 @@
       <c r="X792" s="1"/>
       <c r="Y792" s="1"/>
       <c r="Z792" s="1"/>
-      <c r="AA792" s="1"/>
     </row>
     <row r="793" ht="12.75" customHeight="1">
       <c r="A793" s="1"/>
@@ -23622,7 +22787,6 @@
       <c r="X793" s="1"/>
       <c r="Y793" s="1"/>
       <c r="Z793" s="1"/>
-      <c r="AA793" s="1"/>
     </row>
     <row r="794" ht="12.75" customHeight="1">
       <c r="A794" s="1"/>
@@ -23651,7 +22815,6 @@
       <c r="X794" s="1"/>
       <c r="Y794" s="1"/>
       <c r="Z794" s="1"/>
-      <c r="AA794" s="1"/>
     </row>
     <row r="795" ht="12.75" customHeight="1">
       <c r="A795" s="1"/>
@@ -23680,7 +22843,6 @@
       <c r="X795" s="1"/>
       <c r="Y795" s="1"/>
       <c r="Z795" s="1"/>
-      <c r="AA795" s="1"/>
     </row>
     <row r="796" ht="12.75" customHeight="1">
       <c r="A796" s="1"/>
@@ -23709,7 +22871,6 @@
       <c r="X796" s="1"/>
       <c r="Y796" s="1"/>
       <c r="Z796" s="1"/>
-      <c r="AA796" s="1"/>
     </row>
     <row r="797" ht="12.75" customHeight="1">
       <c r="A797" s="1"/>
@@ -23738,7 +22899,6 @@
       <c r="X797" s="1"/>
       <c r="Y797" s="1"/>
       <c r="Z797" s="1"/>
-      <c r="AA797" s="1"/>
     </row>
     <row r="798" ht="12.75" customHeight="1">
       <c r="A798" s="1"/>
@@ -23767,7 +22927,6 @@
       <c r="X798" s="1"/>
       <c r="Y798" s="1"/>
       <c r="Z798" s="1"/>
-      <c r="AA798" s="1"/>
     </row>
     <row r="799" ht="12.75" customHeight="1">
       <c r="A799" s="1"/>
@@ -23796,7 +22955,6 @@
       <c r="X799" s="1"/>
       <c r="Y799" s="1"/>
       <c r="Z799" s="1"/>
-      <c r="AA799" s="1"/>
     </row>
     <row r="800" ht="12.75" customHeight="1">
       <c r="A800" s="1"/>
@@ -23825,7 +22983,6 @@
       <c r="X800" s="1"/>
       <c r="Y800" s="1"/>
       <c r="Z800" s="1"/>
-      <c r="AA800" s="1"/>
     </row>
     <row r="801" ht="12.75" customHeight="1">
       <c r="A801" s="1"/>
@@ -23854,7 +23011,6 @@
       <c r="X801" s="1"/>
       <c r="Y801" s="1"/>
       <c r="Z801" s="1"/>
-      <c r="AA801" s="1"/>
     </row>
     <row r="802" ht="12.75" customHeight="1">
       <c r="A802" s="1"/>
@@ -23883,7 +23039,6 @@
       <c r="X802" s="1"/>
       <c r="Y802" s="1"/>
       <c r="Z802" s="1"/>
-      <c r="AA802" s="1"/>
     </row>
     <row r="803" ht="12.75" customHeight="1">
       <c r="A803" s="1"/>
@@ -23912,7 +23067,6 @@
       <c r="X803" s="1"/>
       <c r="Y803" s="1"/>
       <c r="Z803" s="1"/>
-      <c r="AA803" s="1"/>
     </row>
     <row r="804" ht="12.75" customHeight="1">
       <c r="A804" s="1"/>
@@ -23941,7 +23095,6 @@
       <c r="X804" s="1"/>
       <c r="Y804" s="1"/>
       <c r="Z804" s="1"/>
-      <c r="AA804" s="1"/>
     </row>
     <row r="805" ht="12.75" customHeight="1">
       <c r="A805" s="1"/>
@@ -23970,7 +23123,6 @@
       <c r="X805" s="1"/>
       <c r="Y805" s="1"/>
       <c r="Z805" s="1"/>
-      <c r="AA805" s="1"/>
     </row>
     <row r="806" ht="12.75" customHeight="1">
       <c r="A806" s="1"/>
@@ -23999,7 +23151,6 @@
       <c r="X806" s="1"/>
       <c r="Y806" s="1"/>
       <c r="Z806" s="1"/>
-      <c r="AA806" s="1"/>
     </row>
     <row r="807" ht="12.75" customHeight="1">
       <c r="A807" s="1"/>
@@ -24028,7 +23179,6 @@
       <c r="X807" s="1"/>
       <c r="Y807" s="1"/>
       <c r="Z807" s="1"/>
-      <c r="AA807" s="1"/>
     </row>
     <row r="808" ht="12.75" customHeight="1">
       <c r="A808" s="1"/>
@@ -24057,7 +23207,6 @@
       <c r="X808" s="1"/>
       <c r="Y808" s="1"/>
       <c r="Z808" s="1"/>
-      <c r="AA808" s="1"/>
     </row>
     <row r="809" ht="12.75" customHeight="1">
       <c r="A809" s="1"/>
@@ -24086,7 +23235,6 @@
       <c r="X809" s="1"/>
       <c r="Y809" s="1"/>
       <c r="Z809" s="1"/>
-      <c r="AA809" s="1"/>
     </row>
     <row r="810" ht="12.75" customHeight="1">
       <c r="A810" s="1"/>
@@ -24115,7 +23263,6 @@
       <c r="X810" s="1"/>
       <c r="Y810" s="1"/>
       <c r="Z810" s="1"/>
-      <c r="AA810" s="1"/>
     </row>
     <row r="811" ht="12.75" customHeight="1">
       <c r="A811" s="1"/>
@@ -24144,7 +23291,6 @@
       <c r="X811" s="1"/>
       <c r="Y811" s="1"/>
       <c r="Z811" s="1"/>
-      <c r="AA811" s="1"/>
     </row>
     <row r="812" ht="12.75" customHeight="1">
       <c r="A812" s="1"/>
@@ -24173,7 +23319,6 @@
       <c r="X812" s="1"/>
       <c r="Y812" s="1"/>
       <c r="Z812" s="1"/>
-      <c r="AA812" s="1"/>
     </row>
     <row r="813" ht="12.75" customHeight="1">
       <c r="A813" s="1"/>
@@ -24202,7 +23347,6 @@
       <c r="X813" s="1"/>
       <c r="Y813" s="1"/>
       <c r="Z813" s="1"/>
-      <c r="AA813" s="1"/>
     </row>
     <row r="814" ht="12.75" customHeight="1">
       <c r="A814" s="1"/>
@@ -24231,7 +23375,6 @@
       <c r="X814" s="1"/>
       <c r="Y814" s="1"/>
       <c r="Z814" s="1"/>
-      <c r="AA814" s="1"/>
     </row>
     <row r="815" ht="12.75" customHeight="1">
       <c r="A815" s="1"/>
@@ -24260,7 +23403,6 @@
       <c r="X815" s="1"/>
       <c r="Y815" s="1"/>
       <c r="Z815" s="1"/>
-      <c r="AA815" s="1"/>
     </row>
     <row r="816" ht="12.75" customHeight="1">
       <c r="A816" s="1"/>
@@ -24289,7 +23431,6 @@
       <c r="X816" s="1"/>
       <c r="Y816" s="1"/>
       <c r="Z816" s="1"/>
-      <c r="AA816" s="1"/>
     </row>
     <row r="817" ht="12.75" customHeight="1">
       <c r="A817" s="1"/>
@@ -24318,7 +23459,6 @@
       <c r="X817" s="1"/>
       <c r="Y817" s="1"/>
       <c r="Z817" s="1"/>
-      <c r="AA817" s="1"/>
     </row>
     <row r="818" ht="12.75" customHeight="1">
       <c r="A818" s="1"/>
@@ -24347,7 +23487,6 @@
       <c r="X818" s="1"/>
       <c r="Y818" s="1"/>
       <c r="Z818" s="1"/>
-      <c r="AA818" s="1"/>
     </row>
     <row r="819" ht="12.75" customHeight="1">
       <c r="A819" s="1"/>
@@ -24376,7 +23515,6 @@
       <c r="X819" s="1"/>
       <c r="Y819" s="1"/>
       <c r="Z819" s="1"/>
-      <c r="AA819" s="1"/>
     </row>
     <row r="820" ht="12.75" customHeight="1">
       <c r="A820" s="1"/>
@@ -24405,7 +23543,6 @@
       <c r="X820" s="1"/>
       <c r="Y820" s="1"/>
       <c r="Z820" s="1"/>
-      <c r="AA820" s="1"/>
     </row>
     <row r="821" ht="12.75" customHeight="1">
       <c r="A821" s="1"/>
@@ -24434,7 +23571,6 @@
       <c r="X821" s="1"/>
       <c r="Y821" s="1"/>
       <c r="Z821" s="1"/>
-      <c r="AA821" s="1"/>
     </row>
     <row r="822" ht="12.75" customHeight="1">
       <c r="A822" s="1"/>
@@ -24463,7 +23599,6 @@
       <c r="X822" s="1"/>
       <c r="Y822" s="1"/>
       <c r="Z822" s="1"/>
-      <c r="AA822" s="1"/>
     </row>
     <row r="823" ht="12.75" customHeight="1">
       <c r="A823" s="1"/>
@@ -24492,7 +23627,6 @@
       <c r="X823" s="1"/>
       <c r="Y823" s="1"/>
       <c r="Z823" s="1"/>
-      <c r="AA823" s="1"/>
     </row>
     <row r="824" ht="12.75" customHeight="1">
       <c r="A824" s="1"/>
@@ -24521,7 +23655,6 @@
       <c r="X824" s="1"/>
       <c r="Y824" s="1"/>
       <c r="Z824" s="1"/>
-      <c r="AA824" s="1"/>
     </row>
     <row r="825" ht="12.75" customHeight="1">
       <c r="A825" s="1"/>
@@ -24550,7 +23683,6 @@
       <c r="X825" s="1"/>
       <c r="Y825" s="1"/>
       <c r="Z825" s="1"/>
-      <c r="AA825" s="1"/>
     </row>
     <row r="826" ht="12.75" customHeight="1">
       <c r="A826" s="1"/>
@@ -24579,7 +23711,6 @@
       <c r="X826" s="1"/>
       <c r="Y826" s="1"/>
       <c r="Z826" s="1"/>
-      <c r="AA826" s="1"/>
     </row>
     <row r="827" ht="12.75" customHeight="1">
       <c r="A827" s="1"/>
@@ -24608,7 +23739,6 @@
       <c r="X827" s="1"/>
       <c r="Y827" s="1"/>
       <c r="Z827" s="1"/>
-      <c r="AA827" s="1"/>
     </row>
     <row r="828" ht="12.75" customHeight="1">
       <c r="A828" s="1"/>
@@ -24637,7 +23767,6 @@
       <c r="X828" s="1"/>
       <c r="Y828" s="1"/>
       <c r="Z828" s="1"/>
-      <c r="AA828" s="1"/>
     </row>
     <row r="829" ht="12.75" customHeight="1">
       <c r="A829" s="1"/>
@@ -24666,7 +23795,6 @@
       <c r="X829" s="1"/>
       <c r="Y829" s="1"/>
       <c r="Z829" s="1"/>
-      <c r="AA829" s="1"/>
     </row>
     <row r="830" ht="12.75" customHeight="1">
       <c r="A830" s="1"/>
@@ -24695,7 +23823,6 @@
       <c r="X830" s="1"/>
       <c r="Y830" s="1"/>
       <c r="Z830" s="1"/>
-      <c r="AA830" s="1"/>
     </row>
     <row r="831" ht="12.75" customHeight="1">
       <c r="A831" s="1"/>
@@ -24724,7 +23851,6 @@
       <c r="X831" s="1"/>
       <c r="Y831" s="1"/>
       <c r="Z831" s="1"/>
-      <c r="AA831" s="1"/>
     </row>
     <row r="832" ht="12.75" customHeight="1">
       <c r="A832" s="1"/>
@@ -24753,7 +23879,6 @@
       <c r="X832" s="1"/>
       <c r="Y832" s="1"/>
       <c r="Z832" s="1"/>
-      <c r="AA832" s="1"/>
     </row>
     <row r="833" ht="12.75" customHeight="1">
       <c r="A833" s="1"/>
@@ -24782,7 +23907,6 @@
       <c r="X833" s="1"/>
       <c r="Y833" s="1"/>
       <c r="Z833" s="1"/>
-      <c r="AA833" s="1"/>
     </row>
     <row r="834" ht="12.75" customHeight="1">
       <c r="A834" s="1"/>
@@ -24811,7 +23935,6 @@
       <c r="X834" s="1"/>
       <c r="Y834" s="1"/>
       <c r="Z834" s="1"/>
-      <c r="AA834" s="1"/>
     </row>
     <row r="835" ht="12.75" customHeight="1">
       <c r="A835" s="1"/>
@@ -24840,7 +23963,6 @@
       <c r="X835" s="1"/>
       <c r="Y835" s="1"/>
       <c r="Z835" s="1"/>
-      <c r="AA835" s="1"/>
     </row>
     <row r="836" ht="12.75" customHeight="1">
       <c r="A836" s="1"/>
@@ -24869,7 +23991,6 @@
       <c r="X836" s="1"/>
       <c r="Y836" s="1"/>
       <c r="Z836" s="1"/>
-      <c r="AA836" s="1"/>
     </row>
     <row r="837" ht="12.75" customHeight="1">
       <c r="A837" s="1"/>
@@ -24898,7 +24019,6 @@
       <c r="X837" s="1"/>
       <c r="Y837" s="1"/>
       <c r="Z837" s="1"/>
-      <c r="AA837" s="1"/>
     </row>
     <row r="838" ht="12.75" customHeight="1">
       <c r="A838" s="1"/>
@@ -24927,7 +24047,6 @@
       <c r="X838" s="1"/>
       <c r="Y838" s="1"/>
       <c r="Z838" s="1"/>
-      <c r="AA838" s="1"/>
     </row>
     <row r="839" ht="12.75" customHeight="1">
       <c r="A839" s="1"/>
@@ -24956,7 +24075,6 @@
       <c r="X839" s="1"/>
       <c r="Y839" s="1"/>
       <c r="Z839" s="1"/>
-      <c r="AA839" s="1"/>
     </row>
     <row r="840" ht="12.75" customHeight="1">
       <c r="A840" s="1"/>
@@ -24985,7 +24103,6 @@
       <c r="X840" s="1"/>
       <c r="Y840" s="1"/>
       <c r="Z840" s="1"/>
-      <c r="AA840" s="1"/>
     </row>
     <row r="841" ht="12.75" customHeight="1">
       <c r="A841" s="1"/>
@@ -25014,7 +24131,6 @@
       <c r="X841" s="1"/>
       <c r="Y841" s="1"/>
       <c r="Z841" s="1"/>
-      <c r="AA841" s="1"/>
     </row>
     <row r="842" ht="12.75" customHeight="1">
       <c r="A842" s="1"/>
@@ -25043,7 +24159,6 @@
       <c r="X842" s="1"/>
       <c r="Y842" s="1"/>
       <c r="Z842" s="1"/>
-      <c r="AA842" s="1"/>
     </row>
     <row r="843" ht="12.75" customHeight="1">
       <c r="A843" s="1"/>
@@ -25072,7 +24187,6 @@
       <c r="X843" s="1"/>
       <c r="Y843" s="1"/>
       <c r="Z843" s="1"/>
-      <c r="AA843" s="1"/>
     </row>
     <row r="844" ht="12.75" customHeight="1">
       <c r="A844" s="1"/>
@@ -25101,7 +24215,6 @@
       <c r="X844" s="1"/>
       <c r="Y844" s="1"/>
       <c r="Z844" s="1"/>
-      <c r="AA844" s="1"/>
     </row>
     <row r="845" ht="12.75" customHeight="1">
       <c r="A845" s="1"/>
@@ -25130,7 +24243,6 @@
       <c r="X845" s="1"/>
       <c r="Y845" s="1"/>
       <c r="Z845" s="1"/>
-      <c r="AA845" s="1"/>
     </row>
     <row r="846" ht="12.75" customHeight="1">
       <c r="A846" s="1"/>
@@ -25159,7 +24271,6 @@
       <c r="X846" s="1"/>
       <c r="Y846" s="1"/>
       <c r="Z846" s="1"/>
-      <c r="AA846" s="1"/>
     </row>
     <row r="847" ht="12.75" customHeight="1">
       <c r="A847" s="1"/>
@@ -25188,7 +24299,6 @@
       <c r="X847" s="1"/>
       <c r="Y847" s="1"/>
       <c r="Z847" s="1"/>
-      <c r="AA847" s="1"/>
     </row>
     <row r="848" ht="12.75" customHeight="1">
       <c r="A848" s="1"/>
@@ -25217,7 +24327,6 @@
       <c r="X848" s="1"/>
       <c r="Y848" s="1"/>
       <c r="Z848" s="1"/>
-      <c r="AA848" s="1"/>
     </row>
     <row r="849" ht="12.75" customHeight="1">
       <c r="A849" s="1"/>
@@ -25246,7 +24355,6 @@
       <c r="X849" s="1"/>
       <c r="Y849" s="1"/>
       <c r="Z849" s="1"/>
-      <c r="AA849" s="1"/>
     </row>
     <row r="850" ht="12.75" customHeight="1">
       <c r="A850" s="1"/>
@@ -25275,7 +24383,6 @@
       <c r="X850" s="1"/>
       <c r="Y850" s="1"/>
       <c r="Z850" s="1"/>
-      <c r="AA850" s="1"/>
     </row>
     <row r="851" ht="12.75" customHeight="1">
       <c r="A851" s="1"/>
@@ -25304,7 +24411,6 @@
       <c r="X851" s="1"/>
       <c r="Y851" s="1"/>
       <c r="Z851" s="1"/>
-      <c r="AA851" s="1"/>
     </row>
     <row r="852" ht="12.75" customHeight="1">
       <c r="A852" s="1"/>
@@ -25333,7 +24439,6 @@
       <c r="X852" s="1"/>
       <c r="Y852" s="1"/>
       <c r="Z852" s="1"/>
-      <c r="AA852" s="1"/>
     </row>
     <row r="853" ht="12.75" customHeight="1">
       <c r="A853" s="1"/>
@@ -25362,7 +24467,6 @@
       <c r="X853" s="1"/>
       <c r="Y853" s="1"/>
       <c r="Z853" s="1"/>
-      <c r="AA853" s="1"/>
     </row>
     <row r="854" ht="12.75" customHeight="1">
       <c r="A854" s="1"/>
@@ -25391,7 +24495,6 @@
       <c r="X854" s="1"/>
       <c r="Y854" s="1"/>
       <c r="Z854" s="1"/>
-      <c r="AA854" s="1"/>
     </row>
     <row r="855" ht="12.75" customHeight="1">
       <c r="A855" s="1"/>
@@ -25420,7 +24523,6 @@
       <c r="X855" s="1"/>
       <c r="Y855" s="1"/>
       <c r="Z855" s="1"/>
-      <c r="AA855" s="1"/>
     </row>
     <row r="856" ht="12.75" customHeight="1">
       <c r="A856" s="1"/>
@@ -25449,7 +24551,6 @@
       <c r="X856" s="1"/>
       <c r="Y856" s="1"/>
       <c r="Z856" s="1"/>
-      <c r="AA856" s="1"/>
     </row>
     <row r="857" ht="12.75" customHeight="1">
       <c r="A857" s="1"/>
@@ -25478,7 +24579,6 @@
       <c r="X857" s="1"/>
       <c r="Y857" s="1"/>
       <c r="Z857" s="1"/>
-      <c r="AA857" s="1"/>
     </row>
     <row r="858" ht="12.75" customHeight="1">
       <c r="A858" s="1"/>
@@ -25507,7 +24607,6 @@
       <c r="X858" s="1"/>
       <c r="Y858" s="1"/>
       <c r="Z858" s="1"/>
-      <c r="AA858" s="1"/>
     </row>
     <row r="859" ht="12.75" customHeight="1">
       <c r="A859" s="1"/>
@@ -25536,7 +24635,6 @@
       <c r="X859" s="1"/>
       <c r="Y859" s="1"/>
       <c r="Z859" s="1"/>
-      <c r="AA859" s="1"/>
     </row>
     <row r="860" ht="12.75" customHeight="1">
       <c r="A860" s="1"/>
@@ -25565,7 +24663,6 @@
       <c r="X860" s="1"/>
       <c r="Y860" s="1"/>
       <c r="Z860" s="1"/>
-      <c r="AA860" s="1"/>
     </row>
     <row r="861" ht="12.75" customHeight="1">
       <c r="A861" s="1"/>
@@ -25594,7 +24691,6 @@
       <c r="X861" s="1"/>
       <c r="Y861" s="1"/>
       <c r="Z861" s="1"/>
-      <c r="AA861" s="1"/>
     </row>
     <row r="862" ht="12.75" customHeight="1">
       <c r="A862" s="1"/>
@@ -25623,7 +24719,6 @@
       <c r="X862" s="1"/>
       <c r="Y862" s="1"/>
       <c r="Z862" s="1"/>
-      <c r="AA862" s="1"/>
     </row>
     <row r="863" ht="12.75" customHeight="1">
       <c r="A863" s="1"/>
@@ -25652,7 +24747,6 @@
       <c r="X863" s="1"/>
       <c r="Y863" s="1"/>
       <c r="Z863" s="1"/>
-      <c r="AA863" s="1"/>
     </row>
     <row r="864" ht="12.75" customHeight="1">
       <c r="A864" s="1"/>
@@ -25681,7 +24775,6 @@
       <c r="X864" s="1"/>
       <c r="Y864" s="1"/>
       <c r="Z864" s="1"/>
-      <c r="AA864" s="1"/>
     </row>
     <row r="865" ht="12.75" customHeight="1">
       <c r="A865" s="1"/>
@@ -25710,7 +24803,6 @@
       <c r="X865" s="1"/>
       <c r="Y865" s="1"/>
       <c r="Z865" s="1"/>
-      <c r="AA865" s="1"/>
     </row>
     <row r="866" ht="12.75" customHeight="1">
       <c r="A866" s="1"/>
@@ -25739,7 +24831,6 @@
       <c r="X866" s="1"/>
       <c r="Y866" s="1"/>
       <c r="Z866" s="1"/>
-      <c r="AA866" s="1"/>
     </row>
     <row r="867" ht="12.75" customHeight="1">
       <c r="A867" s="1"/>
@@ -25768,7 +24859,6 @@
       <c r="X867" s="1"/>
       <c r="Y867" s="1"/>
       <c r="Z867" s="1"/>
-      <c r="AA867" s="1"/>
     </row>
     <row r="868" ht="12.75" customHeight="1">
       <c r="A868" s="1"/>
@@ -25797,7 +24887,6 @@
       <c r="X868" s="1"/>
       <c r="Y868" s="1"/>
       <c r="Z868" s="1"/>
-      <c r="AA868" s="1"/>
     </row>
     <row r="869" ht="12.75" customHeight="1">
       <c r="A869" s="1"/>
@@ -25826,7 +24915,6 @@
       <c r="X869" s="1"/>
       <c r="Y869" s="1"/>
       <c r="Z869" s="1"/>
-      <c r="AA869" s="1"/>
     </row>
     <row r="870" ht="12.75" customHeight="1">
       <c r="A870" s="1"/>
@@ -25855,7 +24943,6 @@
       <c r="X870" s="1"/>
       <c r="Y870" s="1"/>
       <c r="Z870" s="1"/>
-      <c r="AA870" s="1"/>
     </row>
     <row r="871" ht="12.75" customHeight="1">
       <c r="A871" s="1"/>
@@ -25884,7 +24971,6 @@
       <c r="X871" s="1"/>
       <c r="Y871" s="1"/>
       <c r="Z871" s="1"/>
-      <c r="AA871" s="1"/>
     </row>
     <row r="872" ht="12.75" customHeight="1">
       <c r="A872" s="1"/>
@@ -25913,7 +24999,6 @@
       <c r="X872" s="1"/>
       <c r="Y872" s="1"/>
       <c r="Z872" s="1"/>
-      <c r="AA872" s="1"/>
     </row>
     <row r="873" ht="12.75" customHeight="1">
       <c r="A873" s="1"/>
@@ -25942,7 +25027,6 @@
       <c r="X873" s="1"/>
       <c r="Y873" s="1"/>
       <c r="Z873" s="1"/>
-      <c r="AA873" s="1"/>
     </row>
     <row r="874" ht="12.75" customHeight="1">
       <c r="A874" s="1"/>
@@ -25971,7 +25055,6 @@
       <c r="X874" s="1"/>
       <c r="Y874" s="1"/>
       <c r="Z874" s="1"/>
-      <c r="AA874" s="1"/>
     </row>
     <row r="875" ht="12.75" customHeight="1">
       <c r="A875" s="1"/>
@@ -26000,7 +25083,6 @@
       <c r="X875" s="1"/>
       <c r="Y875" s="1"/>
       <c r="Z875" s="1"/>
-      <c r="AA875" s="1"/>
     </row>
     <row r="876" ht="12.75" customHeight="1">
       <c r="A876" s="1"/>
@@ -26029,7 +25111,6 @@
       <c r="X876" s="1"/>
       <c r="Y876" s="1"/>
       <c r="Z876" s="1"/>
-      <c r="AA876" s="1"/>
     </row>
     <row r="877" ht="12.75" customHeight="1">
       <c r="A877" s="1"/>
@@ -26058,7 +25139,6 @@
       <c r="X877" s="1"/>
       <c r="Y877" s="1"/>
       <c r="Z877" s="1"/>
-      <c r="AA877" s="1"/>
     </row>
     <row r="878" ht="12.75" customHeight="1">
       <c r="A878" s="1"/>
@@ -26087,7 +25167,6 @@
       <c r="X878" s="1"/>
       <c r="Y878" s="1"/>
       <c r="Z878" s="1"/>
-      <c r="AA878" s="1"/>
     </row>
     <row r="879" ht="12.75" customHeight="1">
       <c r="A879" s="1"/>
@@ -26116,7 +25195,6 @@
       <c r="X879" s="1"/>
       <c r="Y879" s="1"/>
       <c r="Z879" s="1"/>
-      <c r="AA879" s="1"/>
     </row>
     <row r="880" ht="12.75" customHeight="1">
       <c r="A880" s="1"/>
@@ -26145,7 +25223,6 @@
       <c r="X880" s="1"/>
       <c r="Y880" s="1"/>
       <c r="Z880" s="1"/>
-      <c r="AA880" s="1"/>
     </row>
     <row r="881" ht="12.75" customHeight="1">
       <c r="A881" s="1"/>
@@ -26174,7 +25251,6 @@
       <c r="X881" s="1"/>
       <c r="Y881" s="1"/>
       <c r="Z881" s="1"/>
-      <c r="AA881" s="1"/>
     </row>
     <row r="882" ht="12.75" customHeight="1">
       <c r="A882" s="1"/>
@@ -26203,7 +25279,6 @@
       <c r="X882" s="1"/>
       <c r="Y882" s="1"/>
       <c r="Z882" s="1"/>
-      <c r="AA882" s="1"/>
     </row>
     <row r="883" ht="12.75" customHeight="1">
       <c r="A883" s="1"/>
@@ -26232,7 +25307,6 @@
       <c r="X883" s="1"/>
       <c r="Y883" s="1"/>
       <c r="Z883" s="1"/>
-      <c r="AA883" s="1"/>
     </row>
     <row r="884" ht="12.75" customHeight="1">
       <c r="A884" s="1"/>
@@ -26261,7 +25335,6 @@
       <c r="X884" s="1"/>
       <c r="Y884" s="1"/>
       <c r="Z884" s="1"/>
-      <c r="AA884" s="1"/>
     </row>
     <row r="885" ht="12.75" customHeight="1">
       <c r="A885" s="1"/>
@@ -26290,7 +25363,6 @@
       <c r="X885" s="1"/>
       <c r="Y885" s="1"/>
       <c r="Z885" s="1"/>
-      <c r="AA885" s="1"/>
     </row>
     <row r="886" ht="12.75" customHeight="1">
       <c r="A886" s="1"/>
@@ -26319,7 +25391,6 @@
       <c r="X886" s="1"/>
       <c r="Y886" s="1"/>
       <c r="Z886" s="1"/>
-      <c r="AA886" s="1"/>
     </row>
     <row r="887" ht="12.75" customHeight="1">
       <c r="A887" s="1"/>
@@ -26348,7 +25419,6 @@
       <c r="X887" s="1"/>
       <c r="Y887" s="1"/>
       <c r="Z887" s="1"/>
-      <c r="AA887" s="1"/>
     </row>
     <row r="888" ht="12.75" customHeight="1">
       <c r="A888" s="1"/>
@@ -26377,7 +25447,6 @@
       <c r="X888" s="1"/>
       <c r="Y888" s="1"/>
       <c r="Z888" s="1"/>
-      <c r="AA888" s="1"/>
     </row>
     <row r="889" ht="12.75" customHeight="1">
       <c r="A889" s="1"/>
@@ -26406,7 +25475,6 @@
       <c r="X889" s="1"/>
       <c r="Y889" s="1"/>
       <c r="Z889" s="1"/>
-      <c r="AA889" s="1"/>
     </row>
     <row r="890" ht="12.75" customHeight="1">
       <c r="A890" s="1"/>
@@ -26435,7 +25503,6 @@
       <c r="X890" s="1"/>
       <c r="Y890" s="1"/>
       <c r="Z890" s="1"/>
-      <c r="AA890" s="1"/>
     </row>
     <row r="891" ht="12.75" customHeight="1">
       <c r="A891" s="1"/>
@@ -26464,7 +25531,6 @@
       <c r="X891" s="1"/>
       <c r="Y891" s="1"/>
       <c r="Z891" s="1"/>
-      <c r="AA891" s="1"/>
     </row>
     <row r="892" ht="12.75" customHeight="1">
       <c r="A892" s="1"/>
@@ -26493,7 +25559,6 @@
       <c r="X892" s="1"/>
       <c r="Y892" s="1"/>
       <c r="Z892" s="1"/>
-      <c r="AA892" s="1"/>
     </row>
     <row r="893" ht="12.75" customHeight="1">
       <c r="A893" s="1"/>
@@ -26522,7 +25587,6 @@
       <c r="X893" s="1"/>
       <c r="Y893" s="1"/>
       <c r="Z893" s="1"/>
-      <c r="AA893" s="1"/>
     </row>
     <row r="894" ht="12.75" customHeight="1">
       <c r="A894" s="1"/>
@@ -26551,7 +25615,6 @@
       <c r="X894" s="1"/>
       <c r="Y894" s="1"/>
       <c r="Z894" s="1"/>
-      <c r="AA894" s="1"/>
     </row>
     <row r="895" ht="12.75" customHeight="1">
       <c r="A895" s="1"/>
@@ -26580,7 +25643,6 @@
       <c r="X895" s="1"/>
       <c r="Y895" s="1"/>
       <c r="Z895" s="1"/>
-      <c r="AA895" s="1"/>
     </row>
     <row r="896" ht="12.75" customHeight="1">
       <c r="A896" s="1"/>
@@ -26609,7 +25671,6 @@
       <c r="X896" s="1"/>
       <c r="Y896" s="1"/>
       <c r="Z896" s="1"/>
-      <c r="AA896" s="1"/>
     </row>
     <row r="897" ht="12.75" customHeight="1">
       <c r="A897" s="1"/>
@@ -26638,7 +25699,6 @@
       <c r="X897" s="1"/>
       <c r="Y897" s="1"/>
       <c r="Z897" s="1"/>
-      <c r="AA897" s="1"/>
     </row>
     <row r="898" ht="12.75" customHeight="1">
       <c r="A898" s="1"/>
@@ -26667,7 +25727,6 @@
       <c r="X898" s="1"/>
       <c r="Y898" s="1"/>
       <c r="Z898" s="1"/>
-      <c r="AA898" s="1"/>
     </row>
     <row r="899" ht="12.75" customHeight="1">
       <c r="A899" s="1"/>
@@ -26696,7 +25755,6 @@
       <c r="X899" s="1"/>
       <c r="Y899" s="1"/>
       <c r="Z899" s="1"/>
-      <c r="AA899" s="1"/>
     </row>
     <row r="900" ht="12.75" customHeight="1">
       <c r="A900" s="1"/>
@@ -26725,7 +25783,6 @@
       <c r="X900" s="1"/>
       <c r="Y900" s="1"/>
       <c r="Z900" s="1"/>
-      <c r="AA900" s="1"/>
     </row>
     <row r="901" ht="12.75" customHeight="1">
       <c r="A901" s="1"/>
@@ -26754,7 +25811,6 @@
       <c r="X901" s="1"/>
       <c r="Y901" s="1"/>
       <c r="Z901" s="1"/>
-      <c r="AA901" s="1"/>
     </row>
     <row r="902" ht="12.75" customHeight="1">
       <c r="A902" s="1"/>
@@ -26783,7 +25839,6 @@
       <c r="X902" s="1"/>
       <c r="Y902" s="1"/>
       <c r="Z902" s="1"/>
-      <c r="AA902" s="1"/>
     </row>
     <row r="903" ht="12.75" customHeight="1">
       <c r="A903" s="1"/>
@@ -26812,7 +25867,6 @@
       <c r="X903" s="1"/>
       <c r="Y903" s="1"/>
       <c r="Z903" s="1"/>
-      <c r="AA903" s="1"/>
     </row>
     <row r="904" ht="12.75" customHeight="1">
       <c r="A904" s="1"/>
@@ -26841,7 +25895,6 @@
       <c r="X904" s="1"/>
       <c r="Y904" s="1"/>
       <c r="Z904" s="1"/>
-      <c r="AA904" s="1"/>
     </row>
     <row r="905" ht="12.75" customHeight="1">
       <c r="A905" s="1"/>
@@ -26870,7 +25923,6 @@
       <c r="X905" s="1"/>
       <c r="Y905" s="1"/>
       <c r="Z905" s="1"/>
-      <c r="AA905" s="1"/>
     </row>
     <row r="906" ht="12.75" customHeight="1">
       <c r="A906" s="1"/>
@@ -26899,7 +25951,6 @@
       <c r="X906" s="1"/>
       <c r="Y906" s="1"/>
       <c r="Z906" s="1"/>
-      <c r="AA906" s="1"/>
     </row>
     <row r="907" ht="12.75" customHeight="1">
       <c r="A907" s="1"/>
@@ -26928,7 +25979,6 @@
       <c r="X907" s="1"/>
       <c r="Y907" s="1"/>
       <c r="Z907" s="1"/>
-      <c r="AA907" s="1"/>
     </row>
     <row r="908" ht="12.75" customHeight="1">
       <c r="A908" s="1"/>
@@ -26957,7 +26007,6 @@
       <c r="X908" s="1"/>
       <c r="Y908" s="1"/>
       <c r="Z908" s="1"/>
-      <c r="AA908" s="1"/>
     </row>
     <row r="909" ht="12.75" customHeight="1">
       <c r="A909" s="1"/>
@@ -26986,7 +26035,6 @@
       <c r="X909" s="1"/>
       <c r="Y909" s="1"/>
       <c r="Z909" s="1"/>
-      <c r="AA909" s="1"/>
     </row>
     <row r="910" ht="12.75" customHeight="1">
       <c r="A910" s="1"/>
@@ -27015,7 +26063,6 @@
       <c r="X910" s="1"/>
       <c r="Y910" s="1"/>
       <c r="Z910" s="1"/>
-      <c r="AA910" s="1"/>
     </row>
     <row r="911" ht="12.75" customHeight="1">
       <c r="A911" s="1"/>
@@ -27044,7 +26091,6 @@
       <c r="X911" s="1"/>
       <c r="Y911" s="1"/>
       <c r="Z911" s="1"/>
-      <c r="AA911" s="1"/>
     </row>
     <row r="912" ht="12.75" customHeight="1">
       <c r="A912" s="1"/>
@@ -27073,7 +26119,6 @@
       <c r="X912" s="1"/>
       <c r="Y912" s="1"/>
       <c r="Z912" s="1"/>
-      <c r="AA912" s="1"/>
     </row>
     <row r="913" ht="12.75" customHeight="1">
       <c r="A913" s="1"/>
@@ -27102,7 +26147,6 @@
       <c r="X913" s="1"/>
       <c r="Y913" s="1"/>
       <c r="Z913" s="1"/>
-      <c r="AA913" s="1"/>
     </row>
     <row r="914" ht="12.75" customHeight="1">
       <c r="A914" s="1"/>
@@ -27131,7 +26175,6 @@
       <c r="X914" s="1"/>
       <c r="Y914" s="1"/>
       <c r="Z914" s="1"/>
-      <c r="AA914" s="1"/>
     </row>
     <row r="915" ht="12.75" customHeight="1">
       <c r="A915" s="1"/>
@@ -27160,7 +26203,6 @@
       <c r="X915" s="1"/>
       <c r="Y915" s="1"/>
       <c r="Z915" s="1"/>
-      <c r="AA915" s="1"/>
     </row>
     <row r="916" ht="12.75" customHeight="1">
       <c r="A916" s="1"/>
@@ -27189,7 +26231,6 @@
       <c r="X916" s="1"/>
       <c r="Y916" s="1"/>
       <c r="Z916" s="1"/>
-      <c r="AA916" s="1"/>
     </row>
     <row r="917" ht="12.75" customHeight="1">
       <c r="A917" s="1"/>
@@ -27218,7 +26259,6 @@
       <c r="X917" s="1"/>
       <c r="Y917" s="1"/>
       <c r="Z917" s="1"/>
-      <c r="AA917" s="1"/>
     </row>
     <row r="918" ht="12.75" customHeight="1">
       <c r="A918" s="1"/>
@@ -27247,7 +26287,6 @@
       <c r="X918" s="1"/>
       <c r="Y918" s="1"/>
       <c r="Z918" s="1"/>
-      <c r="AA918" s="1"/>
     </row>
     <row r="919" ht="12.75" customHeight="1">
       <c r="A919" s="1"/>
@@ -27276,7 +26315,6 @@
       <c r="X919" s="1"/>
       <c r="Y919" s="1"/>
       <c r="Z919" s="1"/>
-      <c r="AA919" s="1"/>
     </row>
     <row r="920" ht="12.75" customHeight="1">
       <c r="A920" s="1"/>
@@ -27305,7 +26343,6 @@
       <c r="X920" s="1"/>
       <c r="Y920" s="1"/>
       <c r="Z920" s="1"/>
-      <c r="AA920" s="1"/>
     </row>
     <row r="921" ht="12.75" customHeight="1">
       <c r="A921" s="1"/>
@@ -27334,7 +26371,6 @@
       <c r="X921" s="1"/>
       <c r="Y921" s="1"/>
       <c r="Z921" s="1"/>
-      <c r="AA921" s="1"/>
     </row>
     <row r="922" ht="12.75" customHeight="1">
       <c r="A922" s="1"/>
@@ -27363,7 +26399,6 @@
       <c r="X922" s="1"/>
       <c r="Y922" s="1"/>
       <c r="Z922" s="1"/>
-      <c r="AA922" s="1"/>
     </row>
     <row r="923" ht="12.75" customHeight="1">
       <c r="A923" s="1"/>
@@ -27392,7 +26427,6 @@
       <c r="X923" s="1"/>
       <c r="Y923" s="1"/>
       <c r="Z923" s="1"/>
-      <c r="AA923" s="1"/>
     </row>
     <row r="924" ht="12.75" customHeight="1">
       <c r="A924" s="1"/>
@@ -27421,7 +26455,6 @@
       <c r="X924" s="1"/>
       <c r="Y924" s="1"/>
       <c r="Z924" s="1"/>
-      <c r="AA924" s="1"/>
     </row>
     <row r="925" ht="12.75" customHeight="1">
       <c r="A925" s="1"/>
@@ -27450,7 +26483,6 @@
       <c r="X925" s="1"/>
       <c r="Y925" s="1"/>
       <c r="Z925" s="1"/>
-      <c r="AA925" s="1"/>
     </row>
     <row r="926" ht="12.75" customHeight="1">
       <c r="A926" s="1"/>
@@ -27479,7 +26511,6 @@
       <c r="X926" s="1"/>
       <c r="Y926" s="1"/>
       <c r="Z926" s="1"/>
-      <c r="AA926" s="1"/>
     </row>
     <row r="927" ht="12.75" customHeight="1">
       <c r="A927" s="1"/>
@@ -27508,7 +26539,6 @@
       <c r="X927" s="1"/>
       <c r="Y927" s="1"/>
       <c r="Z927" s="1"/>
-      <c r="AA927" s="1"/>
     </row>
     <row r="928" ht="12.75" customHeight="1">
       <c r="A928" s="1"/>
@@ -27537,7 +26567,6 @@
       <c r="X928" s="1"/>
       <c r="Y928" s="1"/>
       <c r="Z928" s="1"/>
-      <c r="AA928" s="1"/>
     </row>
     <row r="929" ht="12.75" customHeight="1">
       <c r="A929" s="1"/>
@@ -27566,7 +26595,6 @@
       <c r="X929" s="1"/>
       <c r="Y929" s="1"/>
       <c r="Z929" s="1"/>
-      <c r="AA929" s="1"/>
     </row>
     <row r="930" ht="12.75" customHeight="1">
       <c r="A930" s="1"/>
@@ -27595,7 +26623,6 @@
       <c r="X930" s="1"/>
       <c r="Y930" s="1"/>
       <c r="Z930" s="1"/>
-      <c r="AA930" s="1"/>
     </row>
     <row r="931" ht="12.75" customHeight="1">
       <c r="A931" s="1"/>
@@ -27624,7 +26651,6 @@
       <c r="X931" s="1"/>
       <c r="Y931" s="1"/>
       <c r="Z931" s="1"/>
-      <c r="AA931" s="1"/>
     </row>
     <row r="932" ht="12.75" customHeight="1">
       <c r="A932" s="1"/>
@@ -27653,7 +26679,6 @@
       <c r="X932" s="1"/>
       <c r="Y932" s="1"/>
       <c r="Z932" s="1"/>
-      <c r="AA932" s="1"/>
     </row>
     <row r="933" ht="12.75" customHeight="1">
       <c r="A933" s="1"/>
@@ -27682,7 +26707,6 @@
       <c r="X933" s="1"/>
       <c r="Y933" s="1"/>
       <c r="Z933" s="1"/>
-      <c r="AA933" s="1"/>
     </row>
     <row r="934" ht="12.75" customHeight="1">
       <c r="A934" s="1"/>
@@ -27711,7 +26735,6 @@
       <c r="X934" s="1"/>
       <c r="Y934" s="1"/>
       <c r="Z934" s="1"/>
-      <c r="AA934" s="1"/>
     </row>
     <row r="935" ht="12.75" customHeight="1">
       <c r="A935" s="1"/>
@@ -27740,7 +26763,6 @@
       <c r="X935" s="1"/>
       <c r="Y935" s="1"/>
       <c r="Z935" s="1"/>
-      <c r="AA935" s="1"/>
     </row>
     <row r="936" ht="12.75" customHeight="1">
       <c r="A936" s="1"/>
@@ -27769,7 +26791,6 @@
       <c r="X936" s="1"/>
       <c r="Y936" s="1"/>
       <c r="Z936" s="1"/>
-      <c r="AA936" s="1"/>
     </row>
     <row r="937" ht="12.75" customHeight="1">
       <c r="A937" s="1"/>
@@ -27798,7 +26819,6 @@
       <c r="X937" s="1"/>
       <c r="Y937" s="1"/>
       <c r="Z937" s="1"/>
-      <c r="AA937" s="1"/>
     </row>
     <row r="938" ht="12.75" customHeight="1">
       <c r="A938" s="1"/>
@@ -27827,7 +26847,6 @@
       <c r="X938" s="1"/>
       <c r="Y938" s="1"/>
       <c r="Z938" s="1"/>
-      <c r="AA938" s="1"/>
     </row>
     <row r="939" ht="12.75" customHeight="1">
       <c r="A939" s="1"/>
@@ -27856,7 +26875,6 @@
       <c r="X939" s="1"/>
       <c r="Y939" s="1"/>
       <c r="Z939" s="1"/>
-      <c r="AA939" s="1"/>
     </row>
     <row r="940" ht="12.75" customHeight="1">
       <c r="A940" s="1"/>
@@ -27885,7 +26903,6 @@
       <c r="X940" s="1"/>
       <c r="Y940" s="1"/>
       <c r="Z940" s="1"/>
-      <c r="AA940" s="1"/>
     </row>
     <row r="941" ht="12.75" customHeight="1">
       <c r="A941" s="1"/>
@@ -27914,7 +26931,6 @@
       <c r="X941" s="1"/>
       <c r="Y941" s="1"/>
       <c r="Z941" s="1"/>
-      <c r="AA941" s="1"/>
     </row>
     <row r="942" ht="12.75" customHeight="1">
       <c r="A942" s="1"/>
@@ -27943,7 +26959,6 @@
       <c r="X942" s="1"/>
       <c r="Y942" s="1"/>
       <c r="Z942" s="1"/>
-      <c r="AA942" s="1"/>
     </row>
     <row r="943" ht="12.75" customHeight="1">
       <c r="A943" s="1"/>
@@ -27972,7 +26987,6 @@
       <c r="X943" s="1"/>
       <c r="Y943" s="1"/>
       <c r="Z943" s="1"/>
-      <c r="AA943" s="1"/>
     </row>
     <row r="944" ht="12.75" customHeight="1">
       <c r="A944" s="1"/>
@@ -28001,7 +27015,6 @@
       <c r="X944" s="1"/>
       <c r="Y944" s="1"/>
       <c r="Z944" s="1"/>
-      <c r="AA944" s="1"/>
     </row>
     <row r="945" ht="12.75" customHeight="1">
       <c r="A945" s="1"/>
@@ -28030,7 +27043,6 @@
       <c r="X945" s="1"/>
       <c r="Y945" s="1"/>
       <c r="Z945" s="1"/>
-      <c r="AA945" s="1"/>
     </row>
     <row r="946" ht="12.75" customHeight="1">
       <c r="A946" s="1"/>
@@ -28059,7 +27071,6 @@
       <c r="X946" s="1"/>
       <c r="Y946" s="1"/>
       <c r="Z946" s="1"/>
-      <c r="AA946" s="1"/>
     </row>
     <row r="947" ht="12.75" customHeight="1">
       <c r="A947" s="1"/>
@@ -28088,7 +27099,6 @@
       <c r="X947" s="1"/>
       <c r="Y947" s="1"/>
       <c r="Z947" s="1"/>
-      <c r="AA947" s="1"/>
     </row>
     <row r="948" ht="12.75" customHeight="1">
       <c r="A948" s="1"/>
@@ -28117,7 +27127,6 @@
       <c r="X948" s="1"/>
       <c r="Y948" s="1"/>
       <c r="Z948" s="1"/>
-      <c r="AA948" s="1"/>
     </row>
     <row r="949" ht="12.75" customHeight="1">
       <c r="A949" s="1"/>
@@ -28146,7 +27155,6 @@
       <c r="X949" s="1"/>
       <c r="Y949" s="1"/>
       <c r="Z949" s="1"/>
-      <c r="AA949" s="1"/>
     </row>
     <row r="950" ht="12.75" customHeight="1">
       <c r="A950" s="1"/>
@@ -28175,7 +27183,6 @@
       <c r="X950" s="1"/>
       <c r="Y950" s="1"/>
       <c r="Z950" s="1"/>
-      <c r="AA950" s="1"/>
     </row>
     <row r="951" ht="12.75" customHeight="1">
       <c r="A951" s="1"/>
@@ -28204,7 +27211,6 @@
       <c r="X951" s="1"/>
       <c r="Y951" s="1"/>
       <c r="Z951" s="1"/>
-      <c r="AA951" s="1"/>
     </row>
     <row r="952" ht="12.75" customHeight="1">
       <c r="A952" s="1"/>
@@ -28233,7 +27239,6 @@
       <c r="X952" s="1"/>
       <c r="Y952" s="1"/>
       <c r="Z952" s="1"/>
-      <c r="AA952" s="1"/>
     </row>
     <row r="953" ht="12.75" customHeight="1">
       <c r="A953" s="1"/>
@@ -28262,7 +27267,6 @@
       <c r="X953" s="1"/>
       <c r="Y953" s="1"/>
       <c r="Z953" s="1"/>
-      <c r="AA953" s="1"/>
     </row>
     <row r="954" ht="12.75" customHeight="1">
       <c r="A954" s="1"/>
@@ -28291,7 +27295,6 @@
       <c r="X954" s="1"/>
       <c r="Y954" s="1"/>
       <c r="Z954" s="1"/>
-      <c r="AA954" s="1"/>
     </row>
     <row r="955" ht="12.75" customHeight="1">
       <c r="A955" s="1"/>
@@ -28320,7 +27323,6 @@
       <c r="X955" s="1"/>
       <c r="Y955" s="1"/>
       <c r="Z955" s="1"/>
-      <c r="AA955" s="1"/>
     </row>
     <row r="956" ht="12.75" customHeight="1">
       <c r="A956" s="1"/>
@@ -28349,7 +27351,6 @@
       <c r="X956" s="1"/>
       <c r="Y956" s="1"/>
       <c r="Z956" s="1"/>
-      <c r="AA956" s="1"/>
     </row>
     <row r="957" ht="12.75" customHeight="1">
       <c r="A957" s="1"/>
@@ -28378,7 +27379,6 @@
       <c r="X957" s="1"/>
       <c r="Y957" s="1"/>
       <c r="Z957" s="1"/>
-      <c r="AA957" s="1"/>
     </row>
     <row r="958" ht="12.75" customHeight="1">
       <c r="A958" s="1"/>
@@ -28407,7 +27407,6 @@
       <c r="X958" s="1"/>
       <c r="Y958" s="1"/>
       <c r="Z958" s="1"/>
-      <c r="AA958" s="1"/>
     </row>
     <row r="959" ht="12.75" customHeight="1">
       <c r="A959" s="1"/>
@@ -28436,7 +27435,6 @@
       <c r="X959" s="1"/>
       <c r="Y959" s="1"/>
       <c r="Z959" s="1"/>
-      <c r="AA959" s="1"/>
     </row>
     <row r="960" ht="12.75" customHeight="1">
       <c r="A960" s="1"/>
@@ -28465,7 +27463,6 @@
       <c r="X960" s="1"/>
       <c r="Y960" s="1"/>
       <c r="Z960" s="1"/>
-      <c r="AA960" s="1"/>
     </row>
     <row r="961" ht="12.75" customHeight="1">
       <c r="A961" s="1"/>
@@ -28494,7 +27491,6 @@
       <c r="X961" s="1"/>
       <c r="Y961" s="1"/>
       <c r="Z961" s="1"/>
-      <c r="AA961" s="1"/>
     </row>
     <row r="962" ht="12.75" customHeight="1">
       <c r="A962" s="1"/>
@@ -28523,7 +27519,6 @@
       <c r="X962" s="1"/>
       <c r="Y962" s="1"/>
       <c r="Z962" s="1"/>
-      <c r="AA962" s="1"/>
     </row>
     <row r="963" ht="12.75" customHeight="1">
       <c r="A963" s="1"/>
@@ -28552,7 +27547,6 @@
       <c r="X963" s="1"/>
       <c r="Y963" s="1"/>
       <c r="Z963" s="1"/>
-      <c r="AA963" s="1"/>
     </row>
     <row r="964" ht="12.75" customHeight="1">
       <c r="A964" s="1"/>
@@ -28581,7 +27575,6 @@
       <c r="X964" s="1"/>
       <c r="Y964" s="1"/>
       <c r="Z964" s="1"/>
-      <c r="AA964" s="1"/>
     </row>
     <row r="965" ht="12.75" customHeight="1">
       <c r="A965" s="1"/>
@@ -28610,7 +27603,6 @@
       <c r="X965" s="1"/>
       <c r="Y965" s="1"/>
       <c r="Z965" s="1"/>
-      <c r="AA965" s="1"/>
     </row>
     <row r="966" ht="12.75" customHeight="1">
       <c r="A966" s="1"/>
@@ -28639,7 +27631,6 @@
       <c r="X966" s="1"/>
       <c r="Y966" s="1"/>
       <c r="Z966" s="1"/>
-      <c r="AA966" s="1"/>
     </row>
     <row r="967" ht="12.75" customHeight="1">
       <c r="A967" s="1"/>
@@ -28668,7 +27659,6 @@
       <c r="X967" s="1"/>
       <c r="Y967" s="1"/>
       <c r="Z967" s="1"/>
-      <c r="AA967" s="1"/>
     </row>
     <row r="968" ht="12.75" customHeight="1">
       <c r="A968" s="1"/>
@@ -28697,7 +27687,6 @@
       <c r="X968" s="1"/>
       <c r="Y968" s="1"/>
       <c r="Z968" s="1"/>
-      <c r="AA968" s="1"/>
     </row>
     <row r="969" ht="12.75" customHeight="1">
       <c r="A969" s="1"/>
@@ -28726,7 +27715,6 @@
       <c r="X969" s="1"/>
       <c r="Y969" s="1"/>
       <c r="Z969" s="1"/>
-      <c r="AA969" s="1"/>
     </row>
     <row r="970" ht="12.75" customHeight="1">
       <c r="A970" s="1"/>
@@ -28755,7 +27743,6 @@
       <c r="X970" s="1"/>
       <c r="Y970" s="1"/>
       <c r="Z970" s="1"/>
-      <c r="AA970" s="1"/>
     </row>
     <row r="971" ht="12.75" customHeight="1">
       <c r="A971" s="1"/>
@@ -28784,7 +27771,6 @@
       <c r="X971" s="1"/>
       <c r="Y971" s="1"/>
       <c r="Z971" s="1"/>
-      <c r="AA971" s="1"/>
     </row>
     <row r="972" ht="12.75" customHeight="1">
       <c r="A972" s="1"/>
@@ -28813,7 +27799,6 @@
       <c r="X972" s="1"/>
       <c r="Y972" s="1"/>
       <c r="Z972" s="1"/>
-      <c r="AA972" s="1"/>
     </row>
     <row r="973" ht="12.75" customHeight="1">
       <c r="A973" s="1"/>
@@ -28842,7 +27827,6 @@
       <c r="X973" s="1"/>
       <c r="Y973" s="1"/>
       <c r="Z973" s="1"/>
-      <c r="AA973" s="1"/>
     </row>
     <row r="974" ht="12.75" customHeight="1">
       <c r="A974" s="1"/>
@@ -28871,7 +27855,6 @@
       <c r="X974" s="1"/>
       <c r="Y974" s="1"/>
       <c r="Z974" s="1"/>
-      <c r="AA974" s="1"/>
     </row>
     <row r="975" ht="12.75" customHeight="1">
       <c r="A975" s="1"/>
@@ -28900,7 +27883,6 @@
       <c r="X975" s="1"/>
       <c r="Y975" s="1"/>
       <c r="Z975" s="1"/>
-      <c r="AA975" s="1"/>
     </row>
     <row r="976" ht="12.75" customHeight="1">
       <c r="A976" s="1"/>
@@ -28929,7 +27911,6 @@
       <c r="X976" s="1"/>
       <c r="Y976" s="1"/>
       <c r="Z976" s="1"/>
-      <c r="AA976" s="1"/>
     </row>
     <row r="977" ht="12.75" customHeight="1">
       <c r="A977" s="1"/>
@@ -28958,7 +27939,6 @@
       <c r="X977" s="1"/>
       <c r="Y977" s="1"/>
       <c r="Z977" s="1"/>
-      <c r="AA977" s="1"/>
     </row>
     <row r="978" ht="12.75" customHeight="1">
       <c r="A978" s="1"/>
@@ -28987,7 +27967,6 @@
       <c r="X978" s="1"/>
       <c r="Y978" s="1"/>
       <c r="Z978" s="1"/>
-      <c r="AA978" s="1"/>
     </row>
     <row r="979" ht="12.75" customHeight="1">
       <c r="A979" s="1"/>
@@ -29016,7 +27995,6 @@
       <c r="X979" s="1"/>
       <c r="Y979" s="1"/>
       <c r="Z979" s="1"/>
-      <c r="AA979" s="1"/>
     </row>
     <row r="980" ht="12.75" customHeight="1">
       <c r="A980" s="1"/>
@@ -29045,7 +28023,6 @@
       <c r="X980" s="1"/>
       <c r="Y980" s="1"/>
       <c r="Z980" s="1"/>
-      <c r="AA980" s="1"/>
     </row>
     <row r="981" ht="12.75" customHeight="1">
       <c r="A981" s="1"/>
@@ -29074,7 +28051,6 @@
       <c r="X981" s="1"/>
       <c r="Y981" s="1"/>
       <c r="Z981" s="1"/>
-      <c r="AA981" s="1"/>
     </row>
     <row r="982" ht="12.75" customHeight="1">
       <c r="A982" s="1"/>
@@ -29103,7 +28079,6 @@
       <c r="X982" s="1"/>
       <c r="Y982" s="1"/>
       <c r="Z982" s="1"/>
-      <c r="AA982" s="1"/>
     </row>
     <row r="983" ht="12.75" customHeight="1">
       <c r="A983" s="1"/>
@@ -29132,7 +28107,6 @@
       <c r="X983" s="1"/>
       <c r="Y983" s="1"/>
       <c r="Z983" s="1"/>
-      <c r="AA983" s="1"/>
     </row>
     <row r="984" ht="12.75" customHeight="1">
       <c r="A984" s="1"/>
@@ -29161,7 +28135,6 @@
       <c r="X984" s="1"/>
       <c r="Y984" s="1"/>
       <c r="Z984" s="1"/>
-      <c r="AA984" s="1"/>
     </row>
     <row r="985" ht="12.75" customHeight="1">
       <c r="A985" s="1"/>
@@ -29190,7 +28163,6 @@
       <c r="X985" s="1"/>
       <c r="Y985" s="1"/>
       <c r="Z985" s="1"/>
-      <c r="AA985" s="1"/>
     </row>
     <row r="986" ht="12.75" customHeight="1">
       <c r="A986" s="1"/>
@@ -29219,7 +28191,6 @@
       <c r="X986" s="1"/>
       <c r="Y986" s="1"/>
       <c r="Z986" s="1"/>
-      <c r="AA986" s="1"/>
     </row>
     <row r="987" ht="12.75" customHeight="1">
       <c r="A987" s="1"/>
@@ -29248,7 +28219,6 @@
       <c r="X987" s="1"/>
       <c r="Y987" s="1"/>
       <c r="Z987" s="1"/>
-      <c r="AA987" s="1"/>
     </row>
     <row r="988" ht="12.75" customHeight="1">
       <c r="A988" s="1"/>
@@ -29277,7 +28247,6 @@
       <c r="X988" s="1"/>
       <c r="Y988" s="1"/>
       <c r="Z988" s="1"/>
-      <c r="AA988" s="1"/>
     </row>
     <row r="989" ht="12.75" customHeight="1">
       <c r="A989" s="1"/>
@@ -29306,7 +28275,6 @@
       <c r="X989" s="1"/>
       <c r="Y989" s="1"/>
       <c r="Z989" s="1"/>
-      <c r="AA989" s="1"/>
     </row>
     <row r="990" ht="12.75" customHeight="1">
       <c r="A990" s="1"/>
@@ -29335,7 +28303,6 @@
       <c r="X990" s="1"/>
       <c r="Y990" s="1"/>
       <c r="Z990" s="1"/>
-      <c r="AA990" s="1"/>
     </row>
     <row r="991" ht="12.75" customHeight="1">
       <c r="A991" s="1"/>
@@ -29364,7 +28331,6 @@
       <c r="X991" s="1"/>
       <c r="Y991" s="1"/>
       <c r="Z991" s="1"/>
-      <c r="AA991" s="1"/>
     </row>
     <row r="992" ht="12.75" customHeight="1">
       <c r="A992" s="1"/>
@@ -29393,7 +28359,6 @@
       <c r="X992" s="1"/>
       <c r="Y992" s="1"/>
       <c r="Z992" s="1"/>
-      <c r="AA992" s="1"/>
     </row>
     <row r="993" ht="12.75" customHeight="1">
       <c r="A993" s="1"/>
@@ -29422,7 +28387,6 @@
       <c r="X993" s="1"/>
       <c r="Y993" s="1"/>
       <c r="Z993" s="1"/>
-      <c r="AA993" s="1"/>
     </row>
     <row r="994" ht="12.75" customHeight="1">
       <c r="A994" s="1"/>
@@ -29451,194 +28415,19 @@
       <c r="X994" s="1"/>
       <c r="Y994" s="1"/>
       <c r="Z994" s="1"/>
-      <c r="AA994" s="1"/>
-    </row>
-    <row r="995" ht="12.75" customHeight="1">
-      <c r="A995" s="1"/>
-      <c r="B995" s="1"/>
-      <c r="C995" s="1"/>
-      <c r="D995" s="1"/>
-      <c r="E995" s="1"/>
-      <c r="F995" s="1"/>
-      <c r="G995" s="1"/>
-      <c r="H995" s="1"/>
-      <c r="I995" s="1"/>
-      <c r="J995" s="1"/>
-      <c r="K995" s="1"/>
-      <c r="L995" s="1"/>
-      <c r="M995" s="1"/>
-      <c r="N995" s="1"/>
-      <c r="O995" s="1"/>
-      <c r="P995" s="1"/>
-      <c r="Q995" s="1"/>
-      <c r="R995" s="1"/>
-      <c r="S995" s="1"/>
-      <c r="T995" s="1"/>
-      <c r="U995" s="1"/>
-      <c r="V995" s="1"/>
-      <c r="W995" s="1"/>
-      <c r="X995" s="1"/>
-      <c r="Y995" s="1"/>
-      <c r="Z995" s="1"/>
-      <c r="AA995" s="1"/>
-    </row>
-    <row r="996" ht="12.75" customHeight="1">
-      <c r="A996" s="1"/>
-      <c r="B996" s="1"/>
-      <c r="C996" s="1"/>
-      <c r="D996" s="1"/>
-      <c r="E996" s="1"/>
-      <c r="F996" s="1"/>
-      <c r="G996" s="1"/>
-      <c r="H996" s="1"/>
-      <c r="I996" s="1"/>
-      <c r="J996" s="1"/>
-      <c r="K996" s="1"/>
-      <c r="L996" s="1"/>
-      <c r="M996" s="1"/>
-      <c r="N996" s="1"/>
-      <c r="O996" s="1"/>
-      <c r="P996" s="1"/>
-      <c r="Q996" s="1"/>
-      <c r="R996" s="1"/>
-      <c r="S996" s="1"/>
-      <c r="T996" s="1"/>
-      <c r="U996" s="1"/>
-      <c r="V996" s="1"/>
-      <c r="W996" s="1"/>
-      <c r="X996" s="1"/>
-      <c r="Y996" s="1"/>
-      <c r="Z996" s="1"/>
-      <c r="AA996" s="1"/>
-    </row>
-    <row r="997" ht="12.75" customHeight="1">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1"/>
-      <c r="E997" s="1"/>
-      <c r="F997" s="1"/>
-      <c r="G997" s="1"/>
-      <c r="H997" s="1"/>
-      <c r="I997" s="1"/>
-      <c r="J997" s="1"/>
-      <c r="K997" s="1"/>
-      <c r="L997" s="1"/>
-      <c r="M997" s="1"/>
-      <c r="N997" s="1"/>
-      <c r="O997" s="1"/>
-      <c r="P997" s="1"/>
-      <c r="Q997" s="1"/>
-      <c r="R997" s="1"/>
-      <c r="S997" s="1"/>
-      <c r="T997" s="1"/>
-      <c r="U997" s="1"/>
-      <c r="V997" s="1"/>
-      <c r="W997" s="1"/>
-      <c r="X997" s="1"/>
-      <c r="Y997" s="1"/>
-      <c r="Z997" s="1"/>
-      <c r="AA997" s="1"/>
-    </row>
-    <row r="998" ht="12.75" customHeight="1">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="C998" s="1"/>
-      <c r="D998" s="1"/>
-      <c r="E998" s="1"/>
-      <c r="F998" s="1"/>
-      <c r="G998" s="1"/>
-      <c r="H998" s="1"/>
-      <c r="I998" s="1"/>
-      <c r="J998" s="1"/>
-      <c r="K998" s="1"/>
-      <c r="L998" s="1"/>
-      <c r="M998" s="1"/>
-      <c r="N998" s="1"/>
-      <c r="O998" s="1"/>
-      <c r="P998" s="1"/>
-      <c r="Q998" s="1"/>
-      <c r="R998" s="1"/>
-      <c r="S998" s="1"/>
-      <c r="T998" s="1"/>
-      <c r="U998" s="1"/>
-      <c r="V998" s="1"/>
-      <c r="W998" s="1"/>
-      <c r="X998" s="1"/>
-      <c r="Y998" s="1"/>
-      <c r="Z998" s="1"/>
-      <c r="AA998" s="1"/>
-    </row>
-    <row r="999" ht="12.75" customHeight="1">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1"/>
-      <c r="E999" s="1"/>
-      <c r="F999" s="1"/>
-      <c r="G999" s="1"/>
-      <c r="H999" s="1"/>
-      <c r="I999" s="1"/>
-      <c r="J999" s="1"/>
-      <c r="K999" s="1"/>
-      <c r="L999" s="1"/>
-      <c r="M999" s="1"/>
-      <c r="N999" s="1"/>
-      <c r="O999" s="1"/>
-      <c r="P999" s="1"/>
-      <c r="Q999" s="1"/>
-      <c r="R999" s="1"/>
-      <c r="S999" s="1"/>
-      <c r="T999" s="1"/>
-      <c r="U999" s="1"/>
-      <c r="V999" s="1"/>
-      <c r="W999" s="1"/>
-      <c r="X999" s="1"/>
-      <c r="Y999" s="1"/>
-      <c r="Z999" s="1"/>
-      <c r="AA999" s="1"/>
-    </row>
-    <row r="1000" ht="12.75" customHeight="1">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
-      <c r="H1000" s="1"/>
-      <c r="I1000" s="1"/>
-      <c r="J1000" s="1"/>
-      <c r="K1000" s="1"/>
-      <c r="L1000" s="1"/>
-      <c r="M1000" s="1"/>
-      <c r="N1000" s="1"/>
-      <c r="O1000" s="1"/>
-      <c r="P1000" s="1"/>
-      <c r="Q1000" s="1"/>
-      <c r="R1000" s="1"/>
-      <c r="S1000" s="1"/>
-      <c r="T1000" s="1"/>
-      <c r="U1000" s="1"/>
-      <c r="V1000" s="1"/>
-      <c r="W1000" s="1"/>
-      <c r="X1000" s="1"/>
-      <c r="Y1000" s="1"/>
-      <c r="Z1000" s="1"/>
-      <c r="AA1000" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A25:A27"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>

--- a/template-1.xlsx
+++ b/template-1.xlsx
@@ -16,7 +16,7 @@
     <t>ОТЧЕТ ОБ ИНСПЕКЦИИ ОБЪЕКТА ОСМОТРА</t>
   </si>
   <si>
-    <t xml:space="preserve">{{taskCode}} от {{reportBuildDate}} г.                    </t>
+    <t xml:space="preserve">{{taskCode}} от {{reportBuildDate|date}} г.                    </t>
   </si>
   <si>
     <t>Общая информация</t>

--- a/template-1.xlsx
+++ b/template-1.xlsx
@@ -100,7 +100,7 @@
     <t>Результаты инспекции</t>
   </si>
   <si>
-    <t>[[result|repeat-rows:25:27]]{{text}}</t>
+    <t>[[results|repeat-rows:A25:B27]]{{text}}</t>
   </si>
   <si>
     <t>{{answerText}}</t>
@@ -115,7 +115,7 @@
     <t>Фото инспекции</t>
   </si>
   <si>
-    <t>[[steps|repeat-rows:31:33]]{{stepText}}</t>
+    <t>[[steps|repeat-rows:A31:B33]]{{stepText}}</t>
   </si>
   <si>
     <t>[[media|block:A32:A33|tile:2]]{{fileName|image}}</t>
